--- a/wolf/Excel/Rule_规则表.xlsx
+++ b/wolf/Excel/Rule_规则表.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="30">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -43,98 +43,77 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
+      <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FFF54A45"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -142,111 +121,90 @@
     </font>
     <font>
       <sz val="9.75"/>
+      <color rgb="FF606266"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF606266"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="27">
+  <fills count="23">
     <fill>
       <patternFill patternType="none">
         <fgColor/>
@@ -267,12 +225,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC3DD40"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9F5D6"/>
         <bgColor/>
       </patternFill>
@@ -285,19 +237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
+        <fgColor rgb="FFC3DD40"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -315,19 +255,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
+        <fgColor rgb="FFDEE0E3"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
+        <fgColor rgb="FFDEE0E3"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
+        <fgColor rgb="FFDEE0E3"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F7FA"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -351,37 +297,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDEE0E3"/>
+        <fgColor rgb="FFEEF6C6"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDEE0E3"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5F7FA"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEE0E3"/>
+        <fgColor rgb="FFEEF6C6"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFDDDEF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEE0E3"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -409,50 +337,14 @@
         <bgColor/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -625,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="24">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -633,88 +525,70 @@
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="4" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="5" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="6" fontId="7" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="7" fontId="8" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="4" fontId="7" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="8" fontId="9" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="5" fontId="8" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="9" fontId="10" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="6" fontId="9" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="10" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="7" fontId="10" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="11" fontId="12" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="12" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="8" fontId="11" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="13" fontId="14" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="14" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="9" fontId="12" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="15" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="10" fontId="13" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="16" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="11" fontId="14" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="17" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="12" fontId="15" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="18" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="13" fontId="16" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="19" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="20" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="14" fontId="17" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="21" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="15" fontId="18" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="22" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="16" fontId="19" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="17" fontId="20" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="18" fontId="21" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="19" fontId="22" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="20" fontId="23" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="21" fontId="24" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="22" fontId="25" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="23" fontId="26" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="24" fontId="27" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="25" fontId="28" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="26" fontId="29" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1041,2380 +915,2384 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
-      <c r="A1" s="2" t="str">
+    <row customHeight="true" ht="23" r="1">
+      <c r="A1" s="1" t="str">
         <v>Int</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>String</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>String</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>Int</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Float</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Float</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>Float</v>
       </c>
-      <c r="H1" s="6" t="str">
+      <c r="H1" s="2" t="str">
         <v>Float[]</v>
       </c>
-      <c r="I1" s="6" t="str">
+      <c r="I1" s="2" t="str">
         <v>String</v>
       </c>
-      <c r="J1" s="6" t="str">
+      <c r="J1" s="2" t="str">
         <v>Vector3</v>
       </c>
-      <c r="K1" s="6" t="str">
+      <c r="K1" s="2" t="str">
         <v>String</v>
       </c>
-      <c r="L1" s="6" t="str">
+      <c r="L1" s="2" t="str">
         <v>Float</v>
       </c>
-      <c r="M1" s="6" t="str">
+      <c r="M1" s="2" t="str">
         <v>Float[]</v>
       </c>
-      <c r="N1" s="6" t="str">
+      <c r="N1" s="2" t="str">
         <v>Vector3</v>
       </c>
-      <c r="O1" s="6" t="str">
+      <c r="O1" s="2" t="str">
         <v>Vector3</v>
       </c>
-      <c r="P1" s="6" t="str">
+      <c r="P1" s="2" t="str">
         <v>String[]</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="2">
-      <c r="A2" s="2" t="str">
+    <row customHeight="true" ht="23" r="2">
+      <c r="A2" s="1" t="str">
         <v>ID</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>Name</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>Comnment</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>Num</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>Time</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>Weight</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>Prob</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>AimingSize</v>
       </c>
-      <c r="I2" s="2" t="str">
+      <c r="I2" s="1" t="str">
         <v>Color</v>
       </c>
-      <c r="J2" s="2" t="str">
+      <c r="J2" s="1" t="str">
         <v>Vector3</v>
       </c>
-      <c r="K2" s="2" t="str">
+      <c r="K2" s="1" t="str">
         <v>Guid</v>
       </c>
-      <c r="L2" s="6" t="str">
+      <c r="L2" s="2" t="str">
         <v>Volume</v>
       </c>
-      <c r="M2" s="6" t="str">
+      <c r="M2" s="2" t="str">
         <v>SoundParam</v>
       </c>
-      <c r="N2" s="6" t="str">
+      <c r="N2" s="2" t="str">
         <v>Pos</v>
       </c>
-      <c r="O2" s="6" t="str">
+      <c r="O2" s="2" t="str">
         <v>Scale</v>
       </c>
-      <c r="P2" s="6" t="str">
+      <c r="P2" s="2" t="str">
         <v>GuidList</v>
       </c>
     </row>
-    <row customHeight="true" ht="61" r="3">
-      <c r="A3" s="2" t="str">
+    <row customHeight="true" ht="65" r="3">
+      <c r="A3" s="1" t="str">
         <v>序号
 10000：对局相关
 20000：武器相关
 30000：IAA相关</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>规则名称</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>说明</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>数值</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>时长（秒）</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>数</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>概率（％）</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="1" t="str">
         <v>索敌瞄准ui大小</v>
       </c>
-      <c r="I3" s="2" t="str">
+      <c r="I3" s="1" t="str">
         <v>颜色</v>
       </c>
-      <c r="J3" s="2" t="str">
+      <c r="J3" s="1" t="str">
         <v>三维向量</v>
       </c>
-      <c r="K3" s="2" t="str">
+      <c r="K3" s="1" t="str">
         <v>Guid</v>
       </c>
-      <c r="L3" s="6" t="str">
+      <c r="L3" s="2" t="str">
         <v>音量</v>
       </c>
-      <c r="M3" s="6" t="str">
+      <c r="M3" s="2" t="str">
         <v>范围音效参数</v>
       </c>
-      <c r="N3" s="6" t="str">
+      <c r="N3" s="2" t="str">
         <v>偏移</v>
       </c>
-      <c r="O3" s="6" t="str">
+      <c r="O3" s="2" t="str">
         <v>缩放</v>
       </c>
-      <c r="P3" s="6" t="str">
+      <c r="P3" s="2" t="str">
         <v>Guid数组</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="5">
-      <c r="A5" s="2">
+    <row customHeight="true" ht="23" r="4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="5">
+      <c r="A5" s="1">
         <v>10001</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>大厅等待时长</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
         <v>45</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="6">
-      <c r="A6" s="2">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="6">
+      <c r="A6" s="1">
         <v>10002</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>对局时长</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
         <v>180</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="7">
-      <c r="A7" s="2">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="7">
+      <c r="A7" s="1">
         <v>10003</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>分配身份时长</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="8">
-      <c r="A8" s="2">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="8">
+      <c r="A8" s="1">
         <v>10004</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>分配身份变换间隔</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>控制文本变化速度</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
         <v>0.2</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="9">
-      <c r="A9" s="2">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="9">
+      <c r="A9" s="1">
         <v>10005</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>确认身份时长</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="10">
-      <c r="A10" s="2">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="10">
+      <c r="A10" s="1">
         <v>10006</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="1" t="str">
         <v>初始权重</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="11">
-      <c r="A11" s="2">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="11">
+      <c r="A11" s="1">
         <v>10007</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="1" t="str">
         <v>增加权重</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="12">
-      <c r="A12" s="2">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="12">
+      <c r="A12" s="1">
         <v>10008</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="1" t="str">
         <v>初始概率</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
         <v>2</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="13">
-      <c r="A13" s="2">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="13">
+      <c r="A13" s="1">
         <v>10009</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="1" t="str">
         <v>增加概率</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
         <v>2</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="14">
-      <c r="A14" s="2">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="14">
+      <c r="A14" s="1">
         <v>10010</v>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B14" s="1" t="str">
         <v>死亡效果时长</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
         <v>6</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="15">
-      <c r="A15" s="2">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="15">
+      <c r="A15" s="1">
         <v>10011</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="1" t="str">
         <v>胜利宣告文本缩放时长</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
         <v>0.5</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="16">
-      <c r="A16" s="2">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="16">
+      <c r="A16" s="1">
         <v>10012</v>
       </c>
-      <c r="B16" s="2" t="str">
+      <c r="B16" s="1" t="str">
         <v>胜利宣告烟花缩放时长</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
         <v>0.5</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="17">
-      <c r="A17" s="2">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="17">
+      <c r="A17" s="1">
         <v>10013</v>
       </c>
-      <c r="B17" s="2" t="str">
+      <c r="B17" s="1" t="str">
         <v>胜利宣告总时长</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
         <v>6</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="18">
-      <c r="A18" s="2">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="18">
+      <c r="A18" s="1">
         <v>10014</v>
       </c>
-      <c r="B18" s="2" t="str">
+      <c r="B18" s="1" t="str">
         <v>金币袋初始上限</v>
       </c>
-      <c r="C18" s="2" t="str">
+      <c r="C18" s="1" t="str">
         <v>可以通过其他途径提升</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>60</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="19">
-      <c r="A19" s="2">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="19">
+      <c r="A19" s="1">
         <v>10015</v>
       </c>
-      <c r="B19" s="6" t="str">
+      <c r="B19" s="2" t="str">
         <v>生命值</v>
       </c>
-      <c r="C19" s="2" t="str">
+      <c r="C19" s="1" t="str">
         <v>角色基础数值</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>100</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="20">
-      <c r="A20" s="2">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="20">
+      <c r="A20" s="1">
         <v>10016</v>
       </c>
-      <c r="B20" s="6" t="str">
+      <c r="B20" s="2" t="str">
         <v>移动速度</v>
       </c>
-      <c r="C20" s="2" t="str">
+      <c r="C20" s="1" t="str">
         <v>角色基础数值</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>400</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="21">
-      <c r="A21" s="2">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="21">
+      <c r="A21" s="1">
         <v>10017</v>
       </c>
-      <c r="B21" s="2" t="str">
+      <c r="B21" s="1" t="str">
         <v>跳跃高度</v>
       </c>
-      <c r="C21" s="2" t="str">
+      <c r="C21" s="1" t="str">
         <v>角色基础数值</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>250</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="22">
-      <c r="A22" s="2">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="22">
+      <c r="A22" s="1">
         <v>10018</v>
       </c>
-      <c r="B22" s="6" t="str">
+      <c r="B22" s="2" t="str">
         <v>最大跳跃次数</v>
       </c>
-      <c r="C22" s="2" t="str">
+      <c r="C22" s="1" t="str">
         <v>角色基础数值</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="23">
-      <c r="A23" s="2">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="23">
+      <c r="A23" s="1">
         <v>10019</v>
       </c>
-      <c r="B23" s="2" t="str">
+      <c r="B23" s="1" t="str">
         <v>局内准备时长</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
         <v>10</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="24">
-      <c r="A24" s="2">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="24">
+      <c r="A24" s="1">
         <v>10020</v>
       </c>
-      <c r="B24" s="2" t="str">
+      <c r="B24" s="1" t="str">
         <v>金币刷新间隔</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
         <v>10</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="25">
-      <c r="A25" s="2">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="25">
+      <c r="A25" s="1">
         <v>10021</v>
       </c>
-      <c r="B25" s="4" t="str">
+      <c r="B25" s="3" t="str">
         <v>近战武器延迟检测时长</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="6">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2">
         <v>0.2</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="26">
-      <c r="A26" s="2">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="26">
+      <c r="A26" s="1">
         <v>10022</v>
       </c>
-      <c r="B26" s="4" t="str">
+      <c r="B26" s="3" t="str">
         <v>攻击动作和攻击特效间隔时长</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="6">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2">
         <v>0.4</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="27">
-      <c r="A27" s="2">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="27">
+      <c r="A27" s="1">
         <v>10023</v>
       </c>
-      <c r="B27" s="2" t="str">
+      <c r="B27" s="1" t="str">
         <v>死亡动作播放时长</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="6">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2">
         <v>0.5</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="28">
-      <c r="A28" s="2">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="28">
+      <c r="A28" s="1">
         <v>10024</v>
       </c>
-      <c r="B28" s="2" t="str">
+      <c r="B28" s="1" t="str">
         <v>凶手移动速度</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1">
         <v>440</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="29">
-      <c r="A29" s="2">
+      <c r="E28" s="2"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="29">
+      <c r="A29" s="1">
         <v>10025</v>
       </c>
-      <c r="B29" s="2" t="str">
+      <c r="B29" s="1" t="str">
         <v>参与对局奖励</v>
       </c>
-      <c r="C29" s="2" t="str">
+      <c r="C29" s="1" t="str">
         <v>参与对局可获得的奖励</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>10</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="30">
-      <c r="A30" s="2">
+      <c r="E29" s="2"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="30">
+      <c r="A30" s="1">
         <v>10026</v>
       </c>
-      <c r="B30" s="2" t="str">
+      <c r="B30" s="1" t="str">
         <v>存活人数默认颜色（白）</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2" t="str">
+      <c r="C30" s="1"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="str">
         <v>#FFFFFF</v>
       </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="31">
-      <c r="A31" s="2">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="31">
+      <c r="A31" s="1">
         <v>10027</v>
       </c>
-      <c r="B31" s="2" t="str">
+      <c r="B31" s="1" t="str">
         <v>存活人数激活颜色（红）</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2" t="str">
+      <c r="C31" s="1"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="str">
         <v>#FF1242</v>
       </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="32">
-      <c r="A32" s="2">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="32">
+      <c r="A32" s="1">
         <v>10028</v>
       </c>
-      <c r="B32" s="2" t="str">
+      <c r="B32" s="1" t="str">
         <v>学生每秒获得经验值</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="6">
+      <c r="C32" s="1"/>
+      <c r="D32" s="2">
         <v>5</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="33">
-      <c r="A33" s="2">
+      <c r="E32" s="2"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="33">
+      <c r="A33" s="1">
         <v>10029</v>
       </c>
-      <c r="B33" s="2" t="str">
+      <c r="B33" s="1" t="str">
         <v>准备倒计时中央停留时长</v>
       </c>
-      <c r="C33" s="2" t="str">
+      <c r="C33" s="1" t="str">
         <v>&lt;准备时长</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
         <v>1.5</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="34">
-      <c r="A34" s="2">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="34">
+      <c r="A34" s="1">
         <v>10030</v>
       </c>
-      <c r="B34" s="2" t="str">
+      <c r="B34" s="1" t="str">
         <v>结算-动画结束后的界面显示时长</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6">
+      <c r="C34" s="1"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2">
         <v>5</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="35">
-      <c r="A35" s="2">
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="35">
+      <c r="A35" s="1">
         <v>10031</v>
       </c>
-      <c r="B35" s="2" t="str">
+      <c r="B35" s="1" t="str">
         <v>掏枪图片GUID</v>
       </c>
-      <c r="C35" s="2" t="str">
+      <c r="C35" s="1" t="str">
         <v>暂时ID，后期需修改为正式图标</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1">
         <v>148770</v>
       </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="36">
-      <c r="A36" s="2">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="36">
+      <c r="A36" s="1">
         <v>10032</v>
       </c>
-      <c r="B36" s="2" t="str">
+      <c r="B36" s="1" t="str">
         <v>收枪图片GUID</v>
       </c>
-      <c r="C36" s="2" t="str">
+      <c r="C36" s="1" t="str">
         <v>暂时ID，后期需修改为正式图标</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1">
         <v>148769</v>
       </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="37">
-      <c r="A37" s="2">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="37">
+      <c r="A37" s="1">
         <v>10033</v>
       </c>
-      <c r="B37" s="2" t="str">
+      <c r="B37" s="1" t="str">
         <v>掏刀图片GUID</v>
       </c>
-      <c r="C37" s="2" t="str">
+      <c r="C37" s="1" t="str">
         <v>暂时ID，后期需修改为正式图标</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1">
         <v>148763</v>
       </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="38">
-      <c r="A38" s="2">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="38">
+      <c r="A38" s="1">
         <v>10034</v>
       </c>
-      <c r="B38" s="2" t="str">
+      <c r="B38" s="1" t="str">
         <v>收刀图片GUID</v>
       </c>
-      <c r="C38" s="2" t="str">
+      <c r="C38" s="1" t="str">
         <v>暂时ID，后期需修改为正式图标</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1">
         <v>148757</v>
       </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="39">
-      <c r="A39" s="2">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="39">
+      <c r="A39" s="1">
         <v>10035</v>
       </c>
-      <c r="B39" s="2" t="str">
+      <c r="B39" s="1" t="str">
         <v>投掷飞刀架势图片GUID</v>
       </c>
-      <c r="C39" s="2" t="str">
+      <c r="C39" s="1" t="str">
         <v>暂时ID，后期需修改为正式图标</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1">
         <v>148756</v>
       </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="40">
-      <c r="A40" s="2">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="40">
+      <c r="A40" s="1">
         <v>10036</v>
       </c>
-      <c r="B40" s="2" t="str">
+      <c r="B40" s="1" t="str">
         <v>投掷飞刀复原图片GUID</v>
       </c>
-      <c r="C40" s="2" t="str">
+      <c r="C40" s="1" t="str">
         <v>暂时ID，后期需修改为正式图标</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1">
         <v>148757</v>
       </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="41">
-      <c r="A41" s="2">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="41">
+      <c r="A41" s="1">
         <v>10037</v>
       </c>
-      <c r="B41" s="2" t="str">
+      <c r="B41" s="1" t="str">
         <v>场景内AI穿透名字屏蔽</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2" t="str">
+      <c r="C41" s="1"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="str">
         <v>6EB57DF3</v>
       </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="42">
-      <c r="A42" s="2">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="42">
+      <c r="A42" s="1">
         <v>10038</v>
       </c>
-      <c r="B42" s="2" t="str">
+      <c r="B42" s="1" t="str">
         <v>场景内AI穿透名字屏蔽</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2" t="str">
+      <c r="C42" s="1"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="str">
         <v>0E841BD3</v>
       </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="43">
-      <c r="A43" s="2">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="43">
+      <c r="A43" s="1">
         <v>10039</v>
       </c>
-      <c r="B43" s="2" t="str">
+      <c r="B43" s="1" t="str">
         <v>死亡动作恢复时间延迟</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6">
+      <c r="C43" s="1"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2">
         <v>7</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="44">
-      <c r="A44" s="2">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="44">
+      <c r="A44" s="1">
         <v>10040</v>
       </c>
-      <c r="B44" s="2" t="str">
+      <c r="B44" s="1" t="str">
         <v>Loading时间</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6">
+      <c r="C44" s="1"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2">
         <v>6</v>
       </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="45">
-      <c r="A45" s="2">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="45">
+      <c r="A45" s="1">
         <v>10041</v>
       </c>
-      <c r="B45" s="2" t="str">
+      <c r="B45" s="1" t="str">
         <v>尸体死亡姿态</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3" t="str">
+      <c r="C45" s="1"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2" t="str">
         <v>4174|122235|15847</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="46">
-      <c r="A46" s="7">
+    <row customHeight="true" ht="23" r="46">
+      <c r="A46" s="4">
         <v>10042</v>
       </c>
-      <c r="B46" s="7" t="str">
+      <c r="B46" s="4" t="str">
         <v>金币图标GUID</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="9">
+      <c r="C46" s="4"/>
+      <c r="D46" s="5">
         <v>163449</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-    </row>
-    <row customHeight="true" ht="21" r="47">
-      <c r="A47" s="7">
+      <c r="E46" s="5"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+    </row>
+    <row customHeight="true" ht="23" r="47">
+      <c r="A47" s="4">
         <v>10043</v>
       </c>
-      <c r="B47" s="7" t="str">
+      <c r="B47" s="4" t="str">
         <v>钻石图标GUID</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="6">
+      <c r="C47" s="4"/>
+      <c r="D47" s="2">
         <v>176091</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-    </row>
-    <row customHeight="true" ht="21" r="48">
-      <c r="A48" s="7">
+      <c r="E47" s="5"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+    </row>
+    <row customHeight="true" ht="23" r="48">
+      <c r="A48" s="4">
         <v>10044</v>
       </c>
-      <c r="B48" s="7" t="str">
+      <c r="B48" s="4" t="str">
         <v>广告券图标GUID</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="9">
+      <c r="C48" s="4"/>
+      <c r="D48" s="5">
         <v>181394</v>
       </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-    </row>
-    <row customHeight="true" ht="21" r="49">
-      <c r="A49" s="7">
+      <c r="E48" s="5"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+    </row>
+    <row customHeight="true" ht="23" r="49">
+      <c r="A49" s="4">
         <v>10045</v>
       </c>
-      <c r="B49" s="7" t="str">
+      <c r="B49" s="4" t="str">
         <v>超级特权钥匙图标GUID</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="9">
+      <c r="C49" s="4"/>
+      <c r="D49" s="5">
         <v>37744</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-    </row>
-    <row customHeight="true" ht="21" r="50">
-      <c r="A50" s="2">
+      <c r="E49" s="5"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+    </row>
+    <row customHeight="true" ht="23" r="50">
+      <c r="A50" s="1">
         <v>20001</v>
       </c>
-      <c r="B50" s="4" t="str">
+      <c r="B50" s="3" t="str">
         <v>子弹速度</v>
       </c>
-      <c r="C50" s="2" t="str">
+      <c r="C50" s="1" t="str">
         <v>BulletSpeed</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>6000</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="51">
-      <c r="A51" s="2">
+      <c r="E50" s="2"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="51">
+      <c r="A51" s="1">
         <v>20002</v>
       </c>
-      <c r="B51" s="4" t="str">
+      <c r="B51" s="3" t="str">
         <v>飞刀速度</v>
       </c>
-      <c r="C51" s="6" t="str">
+      <c r="C51" s="2" t="str">
         <v>KnifeSpeed</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>1500</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="52">
-      <c r="A52" s="2">
+      <c r="E51" s="2"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="52">
+      <c r="A52" s="1">
         <v>20004</v>
       </c>
-      <c r="B52" s="2" t="str">
+      <c r="B52" s="1" t="str">
         <v>射击速度</v>
       </c>
-      <c r="C52" s="2" t="str">
+      <c r="C52" s="1" t="str">
         <v>ShootSpeed</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>3</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="53">
-      <c r="A53" s="2">
+      <c r="E52" s="2"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="53">
+      <c r="A53" s="1">
         <v>20006</v>
       </c>
-      <c r="B53" s="4" t="str">
+      <c r="B53" s="3" t="str">
         <v>近战扇形角度</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="2">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="1">
         <v>180</v>
       </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="54">
-      <c r="A54" s="2">
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="54">
+      <c r="A54" s="1">
         <v>20008</v>
       </c>
-      <c r="B54" s="4" t="str">
+      <c r="B54" s="3" t="str">
         <v>近战扇形半径</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="2">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="1">
         <v>120</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="55">
-      <c r="A55" s="5">
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="55">
+      <c r="A55" s="6">
         <v>20010</v>
       </c>
-      <c r="B55" s="4" t="str">
+      <c r="B55" s="3" t="str">
         <v>近战扇形最高高度</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="2">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="1">
         <v>300</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="56">
-      <c r="A56" s="5">
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="56">
+      <c r="A56" s="6">
         <v>20012</v>
       </c>
-      <c r="B56" s="4" t="str">
+      <c r="B56" s="3" t="str">
         <v>近战扇形最低高度</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="2">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="1">
         <v>-300</v>
       </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="57">
-      <c r="A57" s="2">
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="57">
+      <c r="A57" s="1">
         <v>30001</v>
       </c>
-      <c r="B57" s="2" t="str">
+      <c r="B57" s="1" t="str">
         <v>死亡激励-金币数量</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1">
         <v>10</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="58">
-      <c r="A58" s="2">
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="58">
+      <c r="A58" s="1">
         <v>30002</v>
       </c>
-      <c r="B58" s="2" t="str">
+      <c r="B58" s="1" t="str">
         <v>死亡激励-界面显示时间</v>
       </c>
-      <c r="C58" s="2" t="str">
+      <c r="C58" s="1" t="str">
         <v>经过多久激励显示界面会自动关闭</v>
       </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1">
         <v>5</v>
       </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="59">
-      <c r="A59" s="2">
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="59">
+      <c r="A59" s="1">
         <v>30003</v>
       </c>
-      <c r="B59" s="2" t="str">
+      <c r="B59" s="1" t="str">
         <v>结算激励-额外奖励倍数m</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1">
         <v>1</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="60">
-      <c r="A60" s="2">
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="60">
+      <c r="A60" s="1">
         <v>30004</v>
       </c>
-      <c r="B60" s="2" t="str">
+      <c r="B60" s="1" t="str">
         <v>大厅激励-基础金币数量A</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1">
+        <v>50</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="61">
+      <c r="A61" s="1">
+        <v>30005</v>
+      </c>
+      <c r="B61" s="1" t="str">
+        <v>大厅激励-额外金币系数n</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1">
+        <v>50</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="62">
+      <c r="A62" s="1">
+        <v>30006</v>
+      </c>
+      <c r="B62" s="1" t="str">
+        <v>大厅激励-倒计时时长T</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1">
+        <v>180</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="63">
+      <c r="A63" s="1">
+        <v>30007</v>
+      </c>
+      <c r="B63" s="1" t="str">
+        <v>大厅激励-广告上限L</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1">
         <v>10</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="61">
-      <c r="A61" s="2">
-        <v>30005</v>
-      </c>
-      <c r="B61" s="2" t="str">
-        <v>大厅激励-额外金币系数n</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2">
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="64">
+      <c r="A64" s="1">
+        <v>30008</v>
+      </c>
+      <c r="B64" s="1" t="str">
+        <v>结算插屏-插屏间隔</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="65">
+      <c r="A65" s="18">
+        <v>30009</v>
+      </c>
+      <c r="B65" s="18" t="str">
+        <v>会员特权昵称变色</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18" t="str">
+        <v>#FF1242</v>
+      </c>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="23"/>
+      <c r="P65" s="23"/>
+    </row>
+    <row customHeight="true" ht="23" r="66">
+      <c r="A66" s="18">
+        <v>30010</v>
+      </c>
+      <c r="B66" s="3" t="str">
+        <v>会员界面开放场数要求</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1">
+        <v>10</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="67">
+      <c r="A67" s="1">
+        <v>40001</v>
+      </c>
+      <c r="B67" s="3" t="str">
+        <v>自动瞄准索敌半径</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="68">
+      <c r="A68" s="1">
+        <v>40002</v>
+      </c>
+      <c r="B68" s="1" t="str">
+        <v>初始瞄准ui大小</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1" t="str">
+        <v>190|190</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="69">
+      <c r="A69" s="1">
+        <v>40003</v>
+      </c>
+      <c r="B69" s="1" t="str">
+        <v>瞄准ui缩放下限</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="70">
+      <c r="A70" s="1">
+        <v>40004</v>
+      </c>
+      <c r="B70" s="3" t="str">
+        <v>攻击检测半径</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1">
+        <v>140</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="71">
+      <c r="A71" s="1">
+        <v>40005</v>
+      </c>
+      <c r="B71" s="1" t="str">
+        <v>等级UI缩小最大距离</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1">
+        <v>1800</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="72">
+      <c r="A72" s="1">
+        <v>40006</v>
+      </c>
+      <c r="B72" s="1" t="str">
+        <v>等级UI最小缩小</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="73">
+      <c r="A73" s="1">
+        <v>40007</v>
+      </c>
+      <c r="B73" s="3" t="str">
+        <v>警察开枪CD</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="1">
+        <v>3</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="74">
+      <c r="A74" s="1">
+        <v>40008</v>
+      </c>
+      <c r="B74" s="3" t="str">
+        <v>警察开枪动作/音效持续时间</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="75">
+      <c r="A75" s="1">
+        <v>40009</v>
+      </c>
+      <c r="B75" s="3" t="str">
+        <v>飞刀CD</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="1">
+        <v>3</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="76">
+      <c r="A76" s="6">
+        <v>40010</v>
+      </c>
+      <c r="B76" s="3" t="str">
+        <v>飞刀旋转速度</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1">
+        <v>360</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="77">
+      <c r="A77" s="1">
+        <v>40011</v>
+      </c>
+      <c r="B77" s="3" t="str">
+        <v>近战挥刀间隔</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="78">
+      <c r="A78" s="1">
+        <v>50001</v>
+      </c>
+      <c r="B78" s="2" t="str">
+        <v>黑幕时间</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2">
         <v>5</v>
       </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="62">
-      <c r="A62" s="2">
-        <v>30006</v>
-      </c>
-      <c r="B62" s="2" t="str">
-        <v>大厅激励-倒计时时长T</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2">
-        <v>180</v>
-      </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="63">
-      <c r="A63" s="2">
-        <v>30007</v>
-      </c>
-      <c r="B63" s="2" t="str">
-        <v>大厅激励-广告上限L</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2">
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="79">
+      <c r="A79" s="1">
+        <v>50002</v>
+      </c>
+      <c r="B79" s="1" t="str">
+        <v>展示时间</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1">
         <v>10</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="64">
-      <c r="A64" s="2">
-        <v>30008</v>
-      </c>
-      <c r="B64" s="2" t="str">
-        <v>结算插屏-插屏间隔</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2">
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="80">
+      <c r="A80" s="1">
+        <v>50003</v>
+      </c>
+      <c r="B80" s="1" t="str">
+        <v>终结者特效GUID</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1">
+        <v>31266</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="81">
+      <c r="A81" s="1">
+        <v>50004</v>
+      </c>
+      <c r="B81" s="1" t="str">
+        <v>终结者特效缩放</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="82">
+      <c r="A82" s="1">
+        <v>50005</v>
+      </c>
+      <c r="B82" s="1" t="str">
+        <v>终结者特效偏移</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1" t="str">
+        <v>0|0|35</v>
+      </c>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="83">
+      <c r="A83" s="1">
+        <v>50006</v>
+      </c>
+      <c r="B83" s="1" t="str">
+        <v>终结者特效旋转</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="84">
+      <c r="A84" s="1">
+        <v>50007</v>
+      </c>
+      <c r="B84" s="1" t="str">
+        <v>胜利展示动作</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <v>GUID | 速度</v>
+      </c>
+      <c r="D84" s="1">
+        <v>88448</v>
+      </c>
+      <c r="E84" s="1">
         <v>1</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="65">
-      <c r="A65" s="11">
-        <v>30009</v>
-      </c>
-      <c r="B65" s="11" t="str">
-        <v>会员特权昵称变色</v>
-      </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11" t="str">
-        <v>#FF1242</v>
-      </c>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="24"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="24"/>
-    </row>
-    <row customHeight="true" ht="21" r="66">
-      <c r="A66" s="11">
-        <v>30010</v>
-      </c>
-      <c r="B66" s="4" t="str">
-        <v>会员界面开放场数要求</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2">
-        <v>10</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="67">
-      <c r="A67" s="2">
-        <v>40001</v>
-      </c>
-      <c r="B67" s="4" t="str">
-        <v>自动瞄准索敌半径</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2">
-        <v>5000</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="68">
-      <c r="A68" s="2">
-        <v>40002</v>
-      </c>
-      <c r="B68" s="2" t="str">
-        <v>初始瞄准ui大小</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2" t="str">
-        <v>190|190</v>
-      </c>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="69">
-      <c r="A69" s="2">
-        <v>40003</v>
-      </c>
-      <c r="B69" s="2" t="str">
-        <v>瞄准ui缩放下限</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="70">
-      <c r="A70" s="2">
-        <v>40004</v>
-      </c>
-      <c r="B70" s="4" t="str">
-        <v>攻击检测半径</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2">
-        <v>140</v>
-      </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="71">
-      <c r="A71" s="2">
-        <v>40005</v>
-      </c>
-      <c r="B71" s="2" t="str">
-        <v>等级UI缩小最大距离</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2">
-        <v>1800</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="72">
-      <c r="A72" s="2">
-        <v>40006</v>
-      </c>
-      <c r="B72" s="2" t="str">
-        <v>等级UI最小缩小</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="73">
-      <c r="A73" s="2">
-        <v>40007</v>
-      </c>
-      <c r="B73" s="4" t="str">
-        <v>警察开枪CD</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="2">
-        <v>3</v>
-      </c>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="74">
-      <c r="A74" s="2">
-        <v>40008</v>
-      </c>
-      <c r="B74" s="4" t="str">
-        <v>警察开枪动作/音效持续时间</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="75">
-      <c r="A75" s="2">
-        <v>40009</v>
-      </c>
-      <c r="B75" s="4" t="str">
-        <v>飞刀CD</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="2">
-        <v>3</v>
-      </c>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="76">
-      <c r="A76" s="5">
-        <v>40010</v>
-      </c>
-      <c r="B76" s="4" t="str">
-        <v>飞刀旋转速度</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2">
-        <v>360</v>
-      </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="77">
-      <c r="A77" s="2">
-        <v>40011</v>
-      </c>
-      <c r="B77" s="4" t="str">
-        <v>近战挥刀间隔</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="2">
-        <v>1</v>
-      </c>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="78">
-      <c r="A78" s="2">
-        <v>50001</v>
-      </c>
-      <c r="B78" s="6" t="str">
-        <v>黑幕时间</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6">
-        <v>5</v>
-      </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="79">
-      <c r="A79" s="2">
-        <v>50002</v>
-      </c>
-      <c r="B79" s="2" t="str">
-        <v>展示时间</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2">
-        <v>10</v>
-      </c>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="80">
-      <c r="A80" s="2">
-        <v>50003</v>
-      </c>
-      <c r="B80" s="2" t="str">
-        <v>终结者特效GUID</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2">
-        <v>31266</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="81">
-      <c r="A81" s="2">
-        <v>50004</v>
-      </c>
-      <c r="B81" s="2" t="str">
-        <v>终结者特效缩放</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2" t="str">
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="85">
+      <c r="A85" s="1">
+        <v>50008</v>
+      </c>
+      <c r="B85" s="1" t="str">
+        <v>黑幕透明度不变时间比例</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="86">
+      <c r="A86" s="9">
+        <v>60001</v>
+      </c>
+      <c r="B86" s="9" t="str">
+        <v>击杀额外范围音效</v>
+      </c>
+      <c r="C86" s="9" t="str"/>
+      <c r="D86" s="9" t="str"/>
+      <c r="E86" s="9" t="str"/>
+      <c r="F86" s="9" t="str"/>
+      <c r="G86" s="9" t="str"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="12">
+        <v>184562</v>
+      </c>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="10"/>
+    </row>
+    <row customHeight="true" ht="23" r="87">
+      <c r="A87" s="9">
+        <v>60002</v>
+      </c>
+      <c r="B87" s="9" t="str">
+        <v>近战消灭特效</v>
+      </c>
+      <c r="C87" s="9" t="str"/>
+      <c r="D87" s="9" t="str"/>
+      <c r="E87" s="9" t="str"/>
+      <c r="F87" s="9" t="str"/>
+      <c r="G87" s="9" t="str"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="19">
+        <v>130642</v>
+      </c>
+      <c r="L87" s="9"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10" t="str">
+        <v>0|0|-50</v>
+      </c>
+      <c r="O87" s="10" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="82">
-      <c r="A82" s="2">
-        <v>50005</v>
-      </c>
-      <c r="B82" s="2" t="str">
-        <v>终结者特效偏移</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2" t="str">
-        <v>0|0|35</v>
-      </c>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="83">
-      <c r="A83" s="2">
-        <v>50006</v>
-      </c>
-      <c r="B83" s="2" t="str">
-        <v>终结者特效旋转</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2" t="str">
+      <c r="P87" s="10"/>
+    </row>
+    <row customHeight="true" ht="23" r="88">
+      <c r="A88" s="9">
+        <v>60003</v>
+      </c>
+      <c r="B88" s="9" t="str">
+        <v>远程消灭特效(枪和飞刀)</v>
+      </c>
+      <c r="C88" s="9" t="str"/>
+      <c r="D88" s="9" t="str"/>
+      <c r="E88" s="9" t="str"/>
+      <c r="F88" s="9" t="str"/>
+      <c r="G88" s="9" t="str"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="19">
+        <v>61006</v>
+      </c>
+      <c r="L88" s="9"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10" t="str">
+        <v>0|0|20</v>
+      </c>
+      <c r="O88" s="10" t="str">
+        <v>1.3|1.3|1.3</v>
+      </c>
+      <c r="P88" s="10"/>
+    </row>
+    <row customHeight="true" ht="23" r="89">
+      <c r="A89" s="9">
+        <v>60004</v>
+      </c>
+      <c r="B89" s="9" t="str">
+        <v>灵魂特效</v>
+      </c>
+      <c r="C89" s="9" t="str"/>
+      <c r="D89" s="9" t="str"/>
+      <c r="E89" s="9">
+        <v>20</v>
+      </c>
+      <c r="F89" s="9" t="str"/>
+      <c r="G89" s="9" t="str"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10" t="str">
+        <v>0|0|20</v>
+      </c>
+      <c r="O89" s="10" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="P89" s="10"/>
+    </row>
+    <row customHeight="true" ht="23" r="90">
+      <c r="A90" s="3">
+        <v>60005</v>
+      </c>
+      <c r="B90" s="3" t="str">
+        <v>击杀震屏xy轴幅度</v>
+      </c>
+      <c r="C90" s="3" t="str"/>
+      <c r="D90" s="3" t="str"/>
+      <c r="E90" s="3" t="str"/>
+      <c r="F90" s="7">
+        <v>-30</v>
+      </c>
+      <c r="G90" s="3" t="str"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+    </row>
+    <row customHeight="true" ht="23" r="91">
+      <c r="A91" s="3">
+        <v>60006</v>
+      </c>
+      <c r="B91" s="3" t="str">
+        <v>击杀震屏xy轴频率</v>
+      </c>
+      <c r="C91" s="3" t="str"/>
+      <c r="D91" s="3" t="str"/>
+      <c r="E91" s="3" t="str"/>
+      <c r="F91" s="7">
+        <v>20</v>
+      </c>
+      <c r="G91" s="3" t="str"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="8"/>
+    </row>
+    <row customHeight="true" ht="23" r="92">
+      <c r="A92" s="3">
+        <v>60007</v>
+      </c>
+      <c r="B92" s="3" t="str">
+        <v>击杀震屏内置CD</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3">
+        <v>2</v>
+      </c>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="8"/>
+    </row>
+    <row customHeight="true" ht="23" r="93">
+      <c r="A93" s="3">
+        <v>60008</v>
+      </c>
+      <c r="B93" s="3" t="str">
+        <v>死亡震屏roll轴幅度</v>
+      </c>
+      <c r="C93" s="3" t="str"/>
+      <c r="D93" s="3" t="str"/>
+      <c r="E93" s="3" t="str"/>
+      <c r="F93" s="7">
+        <v>8</v>
+      </c>
+      <c r="G93" s="3" t="str"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="8"/>
+    </row>
+    <row customHeight="true" ht="23" r="94">
+      <c r="A94" s="3">
+        <v>60009</v>
+      </c>
+      <c r="B94" s="3" t="str">
+        <v>死亡震屏roll轴频率</v>
+      </c>
+      <c r="C94" s="3" t="str"/>
+      <c r="D94" s="3" t="str"/>
+      <c r="E94" s="3" t="str"/>
+      <c r="F94" s="7">
+        <v>20</v>
+      </c>
+      <c r="G94" s="3" t="str"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8"/>
+      <c r="O94" s="8"/>
+      <c r="P94" s="8"/>
+    </row>
+    <row customHeight="true" ht="23" r="95">
+      <c r="A95" s="4">
+        <v>60010</v>
+      </c>
+      <c r="B95" s="4" t="str">
+        <v>消灭UI持续时间</v>
+      </c>
+      <c r="C95" s="4" t="str"/>
+      <c r="D95" s="4" t="str"/>
+      <c r="E95" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F95" s="4" t="str"/>
+      <c r="G95" s="4" t="str"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+    </row>
+    <row customHeight="true" ht="23" r="96">
+      <c r="A96" s="4">
+        <v>60011</v>
+      </c>
+      <c r="B96" s="4" t="str">
+        <v>消灭UI上升距离</v>
+      </c>
+      <c r="C96" s="4" t="str"/>
+      <c r="D96" s="4" t="str"/>
+      <c r="E96" s="4" t="str"/>
+      <c r="F96" s="4">
+        <v>250</v>
+      </c>
+      <c r="G96" s="4" t="str"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+    </row>
+    <row customHeight="true" ht="23" r="97">
+      <c r="A97" s="4">
+        <v>60012</v>
+      </c>
+      <c r="B97" s="4" t="str">
+        <v>消灭UI偏移x</v>
+      </c>
+      <c r="C97" s="4" t="str"/>
+      <c r="D97" s="4">
+        <v>-100</v>
+      </c>
+      <c r="E97" s="4" t="str"/>
+      <c r="F97" s="4" t="str"/>
+      <c r="G97" s="4" t="str"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+    </row>
+    <row customHeight="true" ht="23" r="98">
+      <c r="A98" s="4">
+        <v>60013</v>
+      </c>
+      <c r="B98" s="4" t="str">
+        <v>消灭UI偏移y</v>
+      </c>
+      <c r="C98" s="4" t="str"/>
+      <c r="D98" s="4">
+        <v>-40</v>
+      </c>
+      <c r="E98" s="4" t="str"/>
+      <c r="F98" s="4" t="str"/>
+      <c r="G98" s="4" t="str"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+    </row>
+    <row customHeight="true" ht="23" r="99">
+      <c r="A99" s="16">
+        <v>60014</v>
+      </c>
+      <c r="B99" s="16" t="str">
+        <v>终结击杀彩带特效</v>
+      </c>
+      <c r="C99" s="16" t="str"/>
+      <c r="D99" s="16" t="str"/>
+      <c r="E99" s="16" t="str"/>
+      <c r="F99" s="16" t="str"/>
+      <c r="G99" s="16" t="str"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16">
+        <v>73404</v>
+      </c>
+      <c r="L99" s="16"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="84">
-      <c r="A84" s="2">
-        <v>50007</v>
-      </c>
-      <c r="B84" s="2" t="str">
-        <v>胜利展示动作</v>
-      </c>
-      <c r="C84" s="2" t="str">
-        <v>GUID | 速度</v>
-      </c>
-      <c r="D84" s="2">
-        <v>88448</v>
-      </c>
-      <c r="E84" s="2">
-        <v>1</v>
-      </c>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="85">
-      <c r="A85" s="2">
-        <v>50008</v>
-      </c>
-      <c r="B85" s="2" t="str">
-        <v>黑幕透明度不变时间比例</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="86">
-      <c r="A86" s="20">
-        <v>60001</v>
-      </c>
-      <c r="B86" s="20" t="str">
-        <v>击杀额外范围音效</v>
-      </c>
-      <c r="C86" s="20" t="str"/>
-      <c r="D86" s="20" t="str"/>
-      <c r="E86" s="20" t="str"/>
-      <c r="F86" s="20" t="str"/>
-      <c r="G86" s="20" t="str"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="20"/>
-      <c r="K86" s="22">
-        <v>184562</v>
-      </c>
-      <c r="L86" s="23"/>
-      <c r="M86" s="23"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="21"/>
-      <c r="P86" s="21"/>
-    </row>
-    <row customHeight="true" ht="21" r="87">
-      <c r="A87" s="20">
-        <v>60002</v>
-      </c>
-      <c r="B87" s="20" t="str">
-        <v>近战消灭特效</v>
-      </c>
-      <c r="C87" s="20" t="str"/>
-      <c r="D87" s="20" t="str"/>
-      <c r="E87" s="20" t="str"/>
-      <c r="F87" s="20" t="str"/>
-      <c r="G87" s="20" t="str"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="20"/>
-      <c r="K87" s="25">
-        <v>130642</v>
-      </c>
-      <c r="L87" s="20"/>
-      <c r="M87" s="26"/>
-      <c r="N87" s="26" t="str">
-        <v>0|0|-50</v>
-      </c>
-      <c r="O87" s="26" t="str">
+      <c r="O99" s="17" t="str">
+        <v>1.25|1.25|1.25</v>
+      </c>
+      <c r="P99" s="17"/>
+    </row>
+    <row customHeight="true" ht="23" r="100">
+      <c r="A100" s="16">
+        <v>60015</v>
+      </c>
+      <c r="B100" s="16" t="str">
+        <v>警察打错自身特效</v>
+      </c>
+      <c r="C100" s="16" t="str"/>
+      <c r="D100" s="16" t="str"/>
+      <c r="E100" s="16" t="str"/>
+      <c r="F100" s="16" t="str"/>
+      <c r="G100" s="16" t="str"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="22">
+        <v>27421</v>
+      </c>
+      <c r="L100" s="16"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17" t="str">
+        <v>0|0|20</v>
+      </c>
+      <c r="O100" s="17" t="str">
+        <v>1.3|1.3|1.3</v>
+      </c>
+      <c r="P100" s="17"/>
+    </row>
+    <row customHeight="true" ht="23" r="101">
+      <c r="A101" s="13">
+        <v>60016</v>
+      </c>
+      <c r="B101" s="13" t="str">
+        <v>挥刀随即动作数组</v>
+      </c>
+      <c r="C101" s="13" t="str"/>
+      <c r="D101" s="13" t="str"/>
+      <c r="E101" s="13" t="str"/>
+      <c r="F101" s="13" t="str"/>
+      <c r="G101" s="13" t="str"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="14"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14" t="str">
+        <v>146118|146118</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="102">
+      <c r="A102" s="13">
+        <v>60017</v>
+      </c>
+      <c r="B102" s="13" t="str">
+        <v>弹孔特效</v>
+      </c>
+      <c r="C102" s="13" t="str"/>
+      <c r="D102" s="13" t="str"/>
+      <c r="E102" s="13" t="str"/>
+      <c r="F102" s="13" t="str"/>
+      <c r="G102" s="13" t="str"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="15">
+        <v>98962</v>
+      </c>
+      <c r="L102" s="13"/>
+      <c r="M102" s="14"/>
+      <c r="N102" s="14" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="O102" s="14" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="P87" s="26"/>
-    </row>
-    <row customHeight="true" ht="21" r="88">
-      <c r="A88" s="20">
-        <v>60003</v>
-      </c>
-      <c r="B88" s="20" t="str">
-        <v>远程消灭特效(枪和飞刀)</v>
-      </c>
-      <c r="C88" s="20" t="str"/>
-      <c r="D88" s="20" t="str"/>
-      <c r="E88" s="20" t="str"/>
-      <c r="F88" s="20" t="str"/>
-      <c r="G88" s="20" t="str"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="25">
-        <v>61006</v>
-      </c>
-      <c r="L88" s="20"/>
-      <c r="M88" s="26"/>
-      <c r="N88" s="26" t="str">
-        <v>0|0|20</v>
-      </c>
-      <c r="O88" s="26" t="str">
-        <v>1.3|1.3|1.3</v>
-      </c>
-      <c r="P88" s="26"/>
-    </row>
-    <row customHeight="true" ht="21" r="89">
-      <c r="A89" s="20">
-        <v>60004</v>
-      </c>
-      <c r="B89" s="20" t="str">
-        <v>灵魂特效</v>
-      </c>
-      <c r="C89" s="20" t="str"/>
-      <c r="D89" s="20" t="str"/>
-      <c r="E89" s="20">
-        <v>20</v>
-      </c>
-      <c r="F89" s="20" t="str"/>
-      <c r="G89" s="20" t="str"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="20"/>
-      <c r="L89" s="20"/>
-      <c r="M89" s="26"/>
-      <c r="N89" s="26" t="str">
-        <v>0|0|20</v>
-      </c>
-      <c r="O89" s="26" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="P89" s="26"/>
-    </row>
-    <row customHeight="true" ht="21" r="90">
-      <c r="A90" s="12">
-        <v>60005</v>
-      </c>
-      <c r="B90" s="12" t="str">
-        <v>击杀震屏xy轴幅度</v>
-      </c>
-      <c r="C90" s="12" t="str"/>
-      <c r="D90" s="12" t="str"/>
-      <c r="E90" s="12" t="str"/>
-      <c r="F90" s="14">
-        <v>-30</v>
-      </c>
-      <c r="G90" s="12" t="str"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="13"/>
-      <c r="O90" s="13"/>
-      <c r="P90" s="13"/>
-    </row>
-    <row customHeight="true" ht="21" r="91">
-      <c r="A91" s="12">
-        <v>60006</v>
-      </c>
-      <c r="B91" s="12" t="str">
-        <v>击杀震屏xy轴频率</v>
-      </c>
-      <c r="C91" s="12" t="str"/>
-      <c r="D91" s="12" t="str"/>
-      <c r="E91" s="12" t="str"/>
-      <c r="F91" s="14">
-        <v>20</v>
-      </c>
-      <c r="G91" s="12" t="str"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="13"/>
-      <c r="O91" s="13"/>
-      <c r="P91" s="13"/>
-    </row>
-    <row customHeight="true" ht="21" r="92">
-      <c r="A92" s="12">
-        <v>60007</v>
-      </c>
-      <c r="B92" s="12" t="str">
-        <v>击杀震屏内置CD</v>
-      </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12">
-        <v>2</v>
-      </c>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
-      <c r="M92" s="13"/>
-      <c r="N92" s="13"/>
-      <c r="O92" s="13"/>
-      <c r="P92" s="13"/>
-    </row>
-    <row customHeight="true" ht="21" r="93">
-      <c r="A93" s="12">
-        <v>60008</v>
-      </c>
-      <c r="B93" s="12" t="str">
-        <v>死亡震屏roll轴幅度</v>
-      </c>
-      <c r="C93" s="12" t="str"/>
-      <c r="D93" s="12" t="str"/>
-      <c r="E93" s="12" t="str"/>
-      <c r="F93" s="14">
-        <v>8</v>
-      </c>
-      <c r="G93" s="12" t="str"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
-      <c r="M93" s="13"/>
-      <c r="N93" s="13"/>
-      <c r="O93" s="13"/>
-      <c r="P93" s="13"/>
-    </row>
-    <row customHeight="true" ht="21" r="94">
-      <c r="A94" s="12">
-        <v>60009</v>
-      </c>
-      <c r="B94" s="12" t="str">
-        <v>死亡震屏roll轴频率</v>
-      </c>
-      <c r="C94" s="12" t="str"/>
-      <c r="D94" s="12" t="str"/>
-      <c r="E94" s="12" t="str"/>
-      <c r="F94" s="14">
-        <v>20</v>
-      </c>
-      <c r="G94" s="12" t="str"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
-      <c r="O94" s="13"/>
-      <c r="P94" s="13"/>
-    </row>
-    <row customHeight="true" ht="21" r="95">
-      <c r="A95" s="10">
-        <v>60010</v>
-      </c>
-      <c r="B95" s="10" t="str">
-        <v>消灭UI持续时间</v>
-      </c>
-      <c r="C95" s="10" t="str"/>
-      <c r="D95" s="10" t="str"/>
-      <c r="E95" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="F95" s="10" t="str"/>
-      <c r="G95" s="10" t="str"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="10"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="8"/>
-      <c r="P95" s="8"/>
-    </row>
-    <row customHeight="true" ht="21" r="96">
-      <c r="A96" s="10">
-        <v>60011</v>
-      </c>
-      <c r="B96" s="10" t="str">
-        <v>消灭UI上升距离</v>
-      </c>
-      <c r="C96" s="10" t="str"/>
-      <c r="D96" s="10" t="str"/>
-      <c r="E96" s="10" t="str"/>
-      <c r="F96" s="10">
-        <v>250</v>
-      </c>
-      <c r="G96" s="10" t="str"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="10"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8"/>
-      <c r="O96" s="8"/>
-      <c r="P96" s="8"/>
-    </row>
-    <row customHeight="true" ht="21" r="97">
-      <c r="A97" s="10">
-        <v>60012</v>
-      </c>
-      <c r="B97" s="10" t="str">
-        <v>消灭UI偏移x</v>
-      </c>
-      <c r="C97" s="10" t="str"/>
-      <c r="D97" s="10">
-        <v>-100</v>
-      </c>
-      <c r="E97" s="10" t="str"/>
-      <c r="F97" s="10" t="str"/>
-      <c r="G97" s="10" t="str"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="10"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
-      <c r="O97" s="8"/>
-      <c r="P97" s="8"/>
-    </row>
-    <row customHeight="true" ht="21" r="98">
-      <c r="A98" s="10">
-        <v>60013</v>
-      </c>
-      <c r="B98" s="10" t="str">
-        <v>消灭UI偏移y</v>
-      </c>
-      <c r="C98" s="10" t="str"/>
-      <c r="D98" s="10">
-        <v>-40</v>
-      </c>
-      <c r="E98" s="10" t="str"/>
-      <c r="F98" s="10" t="str"/>
-      <c r="G98" s="10" t="str"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10"/>
-      <c r="L98" s="10"/>
-      <c r="M98" s="8"/>
-      <c r="N98" s="8"/>
-      <c r="O98" s="8"/>
-      <c r="P98" s="8"/>
-    </row>
-    <row customHeight="true" ht="21" r="99">
-      <c r="A99" s="15">
-        <v>60014</v>
-      </c>
-      <c r="B99" s="15" t="str">
-        <v>终结击杀彩带特效</v>
-      </c>
-      <c r="C99" s="15" t="str"/>
-      <c r="D99" s="15" t="str"/>
-      <c r="E99" s="15" t="str"/>
-      <c r="F99" s="15" t="str"/>
-      <c r="G99" s="15" t="str"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="15">
-        <v>73404</v>
-      </c>
-      <c r="L99" s="15"/>
-      <c r="M99" s="16"/>
-      <c r="N99" s="16" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="O99" s="16" t="str">
-        <v>1.25|1.25|1.25</v>
-      </c>
-      <c r="P99" s="16"/>
-    </row>
-    <row customHeight="true" ht="21" r="100">
-      <c r="A100" s="15">
-        <v>60015</v>
-      </c>
-      <c r="B100" s="15" t="str">
-        <v>警察打错自身特效</v>
-      </c>
-      <c r="C100" s="15" t="str"/>
-      <c r="D100" s="15" t="str"/>
-      <c r="E100" s="15" t="str"/>
-      <c r="F100" s="15" t="str"/>
-      <c r="G100" s="15" t="str"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="29">
-        <v>27421</v>
-      </c>
-      <c r="L100" s="15"/>
-      <c r="M100" s="16"/>
-      <c r="N100" s="16" t="str">
-        <v>0|0|20</v>
-      </c>
-      <c r="O100" s="16" t="str">
-        <v>1.3|1.3|1.3</v>
-      </c>
-      <c r="P100" s="16"/>
-    </row>
-    <row customHeight="true" ht="21" r="101">
-      <c r="A101" s="17">
-        <v>60016</v>
-      </c>
-      <c r="B101" s="17" t="str">
-        <v>挥刀随即动作数组</v>
-      </c>
-      <c r="C101" s="17" t="str"/>
-      <c r="D101" s="17" t="str"/>
-      <c r="E101" s="17" t="str"/>
-      <c r="F101" s="17" t="str"/>
-      <c r="G101" s="17" t="str"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="17"/>
-      <c r="M101" s="18"/>
-      <c r="N101" s="18"/>
-      <c r="O101" s="18"/>
-      <c r="P101" s="18" t="str">
-        <v>146118|146118</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="102">
-      <c r="A102" s="17">
-        <v>60017</v>
-      </c>
-      <c r="B102" s="17" t="str">
-        <v>弹孔特效</v>
-      </c>
-      <c r="C102" s="17" t="str"/>
-      <c r="D102" s="17" t="str"/>
-      <c r="E102" s="17" t="str"/>
-      <c r="F102" s="17" t="str"/>
-      <c r="G102" s="17" t="str"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
-      <c r="K102" s="19">
-        <v>98962</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="18" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="O102" s="18" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="P102" s="18"/>
-    </row>
-    <row customHeight="true" ht="21" r="103">
+      <c r="P102" s="14"/>
+    </row>
+    <row customHeight="true" ht="23" r="103">
       <c r="A103" s="1">
         <v>60018</v>
       </c>
@@ -3434,7 +3312,7 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="104">
+    <row customHeight="true" ht="23" r="104">
       <c r="A104" s="1">
         <v>60019</v>
       </c>
@@ -3454,7 +3332,7 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="105">
+    <row customHeight="true" ht="23" r="105">
       <c r="A105" s="1">
         <v>60020</v>
       </c>
@@ -3474,55 +3352,55 @@
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="106">
-      <c r="A106" s="27">
+    <row customHeight="true" ht="23" r="106">
+      <c r="A106" s="20">
         <v>60021</v>
       </c>
-      <c r="B106" s="27" t="str">
+      <c r="B106" s="20" t="str">
         <v>弹道特效xy轴缩放</v>
       </c>
-      <c r="C106" s="27" t="str"/>
-      <c r="D106" s="27" t="str"/>
-      <c r="E106" s="27" t="str"/>
-      <c r="F106" s="27">
+      <c r="C106" s="20" t="str"/>
+      <c r="D106" s="20" t="str"/>
+      <c r="E106" s="20" t="str"/>
+      <c r="F106" s="20">
         <v>0.03</v>
       </c>
-      <c r="G106" s="27" t="str"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="27"/>
-      <c r="K106" s="27"/>
-      <c r="L106" s="27"/>
-      <c r="M106" s="28"/>
-      <c r="N106" s="28"/>
-      <c r="O106" s="28"/>
-      <c r="P106" s="28"/>
-    </row>
-    <row customHeight="true" ht="21" r="107">
-      <c r="A107" s="27">
+      <c r="G106" s="20" t="str"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="20"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="20"/>
+      <c r="M106" s="21"/>
+      <c r="N106" s="21"/>
+      <c r="O106" s="21"/>
+      <c r="P106" s="21"/>
+    </row>
+    <row customHeight="true" ht="23" r="107">
+      <c r="A107" s="20">
         <v>60022</v>
       </c>
-      <c r="B107" s="27" t="str">
+      <c r="B107" s="20" t="str">
         <v>弹道特效持续时间</v>
       </c>
-      <c r="C107" s="27" t="str"/>
-      <c r="D107" s="27" t="str"/>
-      <c r="E107" s="27">
+      <c r="C107" s="20" t="str"/>
+      <c r="D107" s="20" t="str"/>
+      <c r="E107" s="20">
         <v>0.3</v>
       </c>
-      <c r="F107" s="27" t="str"/>
-      <c r="G107" s="27" t="str"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27"/>
-      <c r="J107" s="27"/>
-      <c r="K107" s="27"/>
-      <c r="L107" s="27"/>
-      <c r="M107" s="28"/>
-      <c r="N107" s="28"/>
-      <c r="O107" s="28"/>
-      <c r="P107" s="28"/>
-    </row>
-    <row customHeight="true" ht="21" r="108">
+      <c r="F107" s="20" t="str"/>
+      <c r="G107" s="20" t="str"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="20"/>
+      <c r="K107" s="20"/>
+      <c r="L107" s="20"/>
+      <c r="M107" s="21"/>
+      <c r="N107" s="21"/>
+      <c r="O107" s="21"/>
+      <c r="P107" s="21"/>
+    </row>
+    <row customHeight="true" ht="23" r="108">
       <c r="A108" s="1">
         <v>70001</v>
       </c>
@@ -3542,7 +3420,7 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="109">
+    <row customHeight="true" ht="23" r="109">
       <c r="A109" s="1">
         <v>70002</v>
       </c>
@@ -3562,7 +3440,7 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="110">
+    <row customHeight="true" ht="23" r="110">
       <c r="A110" s="1">
         <v>70003</v>
       </c>
@@ -3581,14 +3459,14 @@
         <v>113907</v>
       </c>
       <c r="L110" s="1"/>
-      <c r="N110" s="3" t="str">
+      <c r="N110" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O110" s="3" t="str">
+      <c r="O110" s="2" t="str">
         <v>1|1|1</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="111">
+    <row customHeight="true" ht="23" r="111">
       <c r="A111" s="1" t="str"/>
       <c r="B111" s="1" t="str"/>
       <c r="C111" s="1" t="str"/>
@@ -3602,7 +3480,7 @@
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="112">
+    <row customHeight="true" ht="23" r="112">
       <c r="A112" s="1" t="str"/>
       <c r="B112" s="1" t="str"/>
       <c r="C112" s="1" t="str"/>
@@ -3616,7 +3494,7 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="113">
+    <row customHeight="true" ht="23" r="113">
       <c r="A113" s="1" t="str"/>
       <c r="B113" s="1" t="str"/>
       <c r="C113" s="1" t="str"/>
@@ -3630,7 +3508,7 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="114">
+    <row customHeight="true" ht="23" r="114">
       <c r="A114" s="1" t="str"/>
       <c r="B114" s="1" t="str"/>
       <c r="C114" s="1" t="str"/>
@@ -3644,7 +3522,7 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="115">
+    <row customHeight="true" ht="23" r="115">
       <c r="A115" s="1" t="str"/>
       <c r="B115" s="1" t="str"/>
       <c r="C115" s="1" t="str"/>
@@ -3658,7 +3536,7 @@
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="116">
+    <row customHeight="true" ht="23" r="116">
       <c r="A116" s="1" t="str"/>
       <c r="B116" s="1" t="str"/>
       <c r="C116" s="1" t="str"/>
@@ -3672,7 +3550,7 @@
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="117">
+    <row customHeight="true" ht="23" r="117">
       <c r="A117" s="1" t="str"/>
       <c r="B117" s="1" t="str"/>
       <c r="C117" s="1" t="str"/>
@@ -3686,7 +3564,7 @@
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="118">
+    <row customHeight="true" ht="23" r="118">
       <c r="A118" s="1" t="str"/>
       <c r="B118" s="1" t="str"/>
       <c r="C118" s="1" t="str"/>
@@ -3700,7 +3578,7 @@
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="119">
+    <row customHeight="true" ht="23" r="119">
       <c r="A119" s="1" t="str"/>
       <c r="B119" s="1" t="str"/>
       <c r="C119" s="1" t="str"/>
@@ -3714,7 +3592,7 @@
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="120">
+    <row customHeight="true" ht="23" r="120">
       <c r="A120" s="1" t="str"/>
       <c r="B120" s="1" t="str"/>
       <c r="C120" s="1" t="str"/>
@@ -3728,7 +3606,7 @@
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="121">
+    <row customHeight="true" ht="23" r="121">
       <c r="A121" s="1" t="str"/>
       <c r="B121" s="1" t="str"/>
       <c r="C121" s="1" t="str"/>
@@ -3742,7 +3620,7 @@
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="122">
+    <row customHeight="true" ht="23" r="122">
       <c r="A122" s="1" t="str"/>
       <c r="B122" s="1" t="str"/>
       <c r="C122" s="1" t="str"/>
@@ -3756,7 +3634,7 @@
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="123">
+    <row customHeight="true" ht="23" r="123">
       <c r="A123" s="1" t="str"/>
       <c r="B123" s="1" t="str"/>
       <c r="C123" s="1" t="str"/>
@@ -3770,7 +3648,7 @@
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="124">
+    <row customHeight="true" ht="23" r="124">
       <c r="A124" s="1" t="str"/>
       <c r="B124" s="1" t="str"/>
       <c r="C124" s="1" t="str"/>
@@ -3784,7 +3662,7 @@
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="125">
+    <row customHeight="true" ht="23" r="125">
       <c r="A125" s="1" t="str"/>
       <c r="B125" s="1" t="str"/>
       <c r="C125" s="1" t="str"/>
@@ -3798,7 +3676,7 @@
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="126">
+    <row customHeight="true" ht="23" r="126">
       <c r="A126" s="1" t="str"/>
       <c r="B126" s="1" t="str"/>
       <c r="C126" s="1" t="str"/>
@@ -3812,7 +3690,7 @@
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="127">
+    <row customHeight="true" ht="23" r="127">
       <c r="A127" s="1" t="str"/>
       <c r="B127" s="1" t="str"/>
       <c r="C127" s="1" t="str"/>
@@ -3826,7 +3704,7 @@
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="128">
+    <row customHeight="true" ht="23" r="128">
       <c r="A128" s="1" t="str"/>
       <c r="B128" s="1" t="str"/>
       <c r="C128" s="1" t="str"/>
@@ -3840,7 +3718,7 @@
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="129">
+    <row customHeight="true" ht="23" r="129">
       <c r="A129" s="1" t="str"/>
       <c r="B129" s="1" t="str"/>
       <c r="C129" s="1" t="str"/>
@@ -3854,7 +3732,7 @@
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="130">
+    <row customHeight="true" ht="23" r="130">
       <c r="A130" s="1" t="str"/>
       <c r="B130" s="1" t="str"/>
       <c r="C130" s="1" t="str"/>
@@ -3868,7 +3746,7 @@
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="131">
+    <row customHeight="true" ht="23" r="131">
       <c r="A131" s="1" t="str"/>
       <c r="B131" s="1" t="str"/>
       <c r="C131" s="1" t="str"/>
@@ -3882,7 +3760,7 @@
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="132">
+    <row customHeight="true" ht="23" r="132">
       <c r="A132" s="1" t="str"/>
       <c r="B132" s="1" t="str"/>
       <c r="C132" s="1" t="str"/>
@@ -3896,7 +3774,7 @@
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="133">
+    <row customHeight="true" ht="23" r="133">
       <c r="A133" s="1" t="str"/>
       <c r="B133" s="1" t="str"/>
       <c r="C133" s="1" t="str"/>
@@ -3910,7 +3788,7 @@
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="134">
+    <row customHeight="true" ht="23" r="134">
       <c r="A134" s="1" t="str"/>
       <c r="B134" s="1" t="str"/>
       <c r="C134" s="1" t="str"/>
@@ -3924,7 +3802,7 @@
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="135">
+    <row customHeight="true" ht="23" r="135">
       <c r="A135" s="1" t="str"/>
       <c r="B135" s="1" t="str"/>
       <c r="C135" s="1" t="str"/>
@@ -3938,7 +3816,7 @@
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="136">
+    <row customHeight="true" ht="23" r="136">
       <c r="A136" s="1" t="str"/>
       <c r="B136" s="1" t="str"/>
       <c r="C136" s="1" t="str"/>
@@ -3952,7 +3830,7 @@
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="137">
+    <row customHeight="true" ht="23" r="137">
       <c r="A137" s="1" t="str"/>
       <c r="B137" s="1" t="str"/>
       <c r="C137" s="1" t="str"/>
@@ -3966,7 +3844,7 @@
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="138">
+    <row customHeight="true" ht="23" r="138">
       <c r="A138" s="1" t="str"/>
       <c r="B138" s="1" t="str"/>
       <c r="C138" s="1" t="str"/>
@@ -3980,7 +3858,7 @@
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="139">
+    <row customHeight="true" ht="23" r="139">
       <c r="A139" s="1" t="str"/>
       <c r="B139" s="1" t="str"/>
       <c r="C139" s="1" t="str"/>
@@ -3994,7 +3872,7 @@
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="140">
+    <row customHeight="true" ht="23" r="140">
       <c r="A140" s="1" t="str"/>
       <c r="B140" s="1" t="str"/>
       <c r="C140" s="1" t="str"/>
@@ -4008,7 +3886,7 @@
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="141">
+    <row customHeight="true" ht="23" r="141">
       <c r="A141" s="1" t="str"/>
       <c r="B141" s="1" t="str"/>
       <c r="C141" s="1" t="str"/>
@@ -4022,7 +3900,7 @@
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="142">
+    <row customHeight="true" ht="23" r="142">
       <c r="A142" s="1" t="str"/>
       <c r="B142" s="1" t="str"/>
       <c r="C142" s="1" t="str"/>
@@ -4036,7 +3914,7 @@
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="143">
+    <row customHeight="true" ht="23" r="143">
       <c r="A143" s="1" t="str"/>
       <c r="B143" s="1" t="str"/>
       <c r="C143" s="1" t="str"/>
@@ -4050,7 +3928,7 @@
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="144">
+    <row customHeight="true" ht="23" r="144">
       <c r="A144" s="1" t="str"/>
       <c r="B144" s="1" t="str"/>
       <c r="C144" s="1" t="str"/>
@@ -4064,7 +3942,7 @@
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="145">
+    <row customHeight="true" ht="23" r="145">
       <c r="A145" s="1" t="str"/>
       <c r="B145" s="1" t="str"/>
       <c r="C145" s="1" t="str"/>
@@ -4078,7 +3956,7 @@
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="146">
+    <row customHeight="true" ht="23" r="146">
       <c r="A146" s="1" t="str"/>
       <c r="B146" s="1" t="str"/>
       <c r="C146" s="1" t="str"/>
@@ -4092,7 +3970,7 @@
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="147">
+    <row customHeight="true" ht="23" r="147">
       <c r="A147" s="1" t="str"/>
       <c r="B147" s="1" t="str"/>
       <c r="C147" s="1" t="str"/>
@@ -4106,7 +3984,7 @@
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="148">
+    <row customHeight="true" ht="23" r="148">
       <c r="A148" s="1" t="str"/>
       <c r="B148" s="1" t="str"/>
       <c r="C148" s="1" t="str"/>
@@ -4120,7 +3998,7 @@
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="149">
+    <row customHeight="true" ht="23" r="149">
       <c r="A149" s="1" t="str"/>
       <c r="B149" s="1" t="str"/>
       <c r="C149" s="1" t="str"/>
@@ -4134,7 +4012,7 @@
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="150">
+    <row customHeight="true" ht="23" r="150">
       <c r="A150" s="1" t="str"/>
       <c r="B150" s="1" t="str"/>
       <c r="C150" s="1" t="str"/>
@@ -4148,7 +4026,7 @@
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="151">
+    <row customHeight="true" ht="23" r="151">
       <c r="A151" s="1" t="str"/>
       <c r="B151" s="1" t="str"/>
       <c r="C151" s="1" t="str"/>
@@ -4162,7 +4040,7 @@
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="152">
+    <row customHeight="true" ht="23" r="152">
       <c r="A152" s="1" t="str"/>
       <c r="B152" s="1" t="str"/>
       <c r="C152" s="1" t="str"/>
@@ -4176,7 +4054,7 @@
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="153">
+    <row customHeight="true" ht="23" r="153">
       <c r="A153" s="1" t="str"/>
       <c r="B153" s="1" t="str"/>
       <c r="C153" s="1" t="str"/>
@@ -4190,7 +4068,7 @@
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="154">
+    <row customHeight="true" ht="23" r="154">
       <c r="A154" s="1" t="str"/>
       <c r="B154" s="1" t="str"/>
       <c r="C154" s="1" t="str"/>
@@ -4204,7 +4082,7 @@
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="155">
+    <row customHeight="true" ht="23" r="155">
       <c r="A155" s="1" t="str"/>
       <c r="B155" s="1" t="str"/>
       <c r="C155" s="1" t="str"/>
@@ -4218,7 +4096,7 @@
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="156">
+    <row customHeight="true" ht="23" r="156">
       <c r="A156" s="1" t="str"/>
       <c r="B156" s="1" t="str"/>
       <c r="C156" s="1" t="str"/>
@@ -4232,7 +4110,7 @@
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="157">
+    <row customHeight="true" ht="23" r="157">
       <c r="A157" s="1" t="str"/>
       <c r="B157" s="1" t="str"/>
       <c r="C157" s="1" t="str"/>
@@ -4246,7 +4124,7 @@
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="158">
+    <row customHeight="true" ht="23" r="158">
       <c r="A158" s="1" t="str"/>
       <c r="B158" s="1" t="str"/>
       <c r="C158" s="1" t="str"/>
@@ -4260,7 +4138,7 @@
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="159">
+    <row customHeight="true" ht="23" r="159">
       <c r="A159" s="1" t="str"/>
       <c r="B159" s="1" t="str"/>
       <c r="C159" s="1" t="str"/>
@@ -4274,7 +4152,7 @@
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="160">
+    <row customHeight="true" ht="23" r="160">
       <c r="A160" s="1" t="str"/>
       <c r="B160" s="1" t="str"/>
       <c r="C160" s="1" t="str"/>
@@ -4288,7 +4166,7 @@
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="161">
+    <row customHeight="true" ht="23" r="161">
       <c r="A161" s="1" t="str"/>
       <c r="B161" s="1" t="str"/>
       <c r="C161" s="1" t="str"/>
@@ -4302,7 +4180,7 @@
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="162">
+    <row customHeight="true" ht="23" r="162">
       <c r="A162" s="1" t="str"/>
       <c r="B162" s="1" t="str"/>
       <c r="C162" s="1" t="str"/>
@@ -4316,7 +4194,7 @@
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="163">
+    <row customHeight="true" ht="23" r="163">
       <c r="A163" s="1" t="str"/>
       <c r="B163" s="1" t="str"/>
       <c r="C163" s="1" t="str"/>
@@ -4330,7 +4208,7 @@
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="164">
+    <row customHeight="true" ht="23" r="164">
       <c r="A164" s="1" t="str"/>
       <c r="B164" s="1" t="str"/>
       <c r="C164" s="1" t="str"/>
@@ -4344,7 +4222,7 @@
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="165">
+    <row customHeight="true" ht="23" r="165">
       <c r="A165" s="1" t="str"/>
       <c r="B165" s="1" t="str"/>
       <c r="C165" s="1" t="str"/>
@@ -4358,7 +4236,7 @@
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="166">
+    <row customHeight="true" ht="23" r="166">
       <c r="A166" s="1" t="str"/>
       <c r="B166" s="1" t="str"/>
       <c r="C166" s="1" t="str"/>
@@ -4372,7 +4250,7 @@
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="167">
+    <row customHeight="true" ht="23" r="167">
       <c r="A167" s="1" t="str"/>
       <c r="B167" s="1" t="str"/>
       <c r="C167" s="1" t="str"/>
@@ -4386,7 +4264,7 @@
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="168">
+    <row customHeight="true" ht="23" r="168">
       <c r="A168" s="1" t="str"/>
       <c r="B168" s="1" t="str"/>
       <c r="C168" s="1" t="str"/>
@@ -4400,7 +4278,7 @@
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="169">
+    <row customHeight="true" ht="23" r="169">
       <c r="A169" s="1" t="str"/>
       <c r="B169" s="1" t="str"/>
       <c r="C169" s="1" t="str"/>
@@ -4414,7 +4292,7 @@
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="170">
+    <row customHeight="true" ht="23" r="170">
       <c r="A170" s="1" t="str"/>
       <c r="B170" s="1" t="str"/>
       <c r="C170" s="1" t="str"/>
@@ -4428,7 +4306,7 @@
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="171">
+    <row customHeight="true" ht="23" r="171">
       <c r="A171" s="1" t="str"/>
       <c r="B171" s="1" t="str"/>
       <c r="C171" s="1" t="str"/>
@@ -4442,7 +4320,7 @@
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="172">
+    <row customHeight="true" ht="23" r="172">
       <c r="A172" s="1" t="str"/>
       <c r="B172" s="1" t="str"/>
       <c r="C172" s="1" t="str"/>
@@ -4456,7 +4334,7 @@
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="173">
+    <row customHeight="true" ht="23" r="173">
       <c r="A173" s="1" t="str"/>
       <c r="B173" s="1" t="str"/>
       <c r="C173" s="1" t="str"/>
@@ -4470,7 +4348,7 @@
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="174">
+    <row customHeight="true" ht="23" r="174">
       <c r="A174" s="1" t="str"/>
       <c r="B174" s="1" t="str"/>
       <c r="C174" s="1" t="str"/>
@@ -4484,7 +4362,7 @@
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="175">
+    <row customHeight="true" ht="23" r="175">
       <c r="A175" s="1" t="str"/>
       <c r="B175" s="1" t="str"/>
       <c r="C175" s="1" t="str"/>
@@ -4498,7 +4376,7 @@
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="176">
+    <row customHeight="true" ht="23" r="176">
       <c r="A176" s="1" t="str"/>
       <c r="B176" s="1" t="str"/>
       <c r="C176" s="1" t="str"/>
@@ -4512,7 +4390,7 @@
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="177">
+    <row customHeight="true" ht="23" r="177">
       <c r="A177" s="1" t="str"/>
       <c r="B177" s="1" t="str"/>
       <c r="C177" s="1" t="str"/>
@@ -4526,7 +4404,7 @@
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="178">
+    <row customHeight="true" ht="23" r="178">
       <c r="A178" s="1" t="str"/>
       <c r="B178" s="1" t="str"/>
       <c r="C178" s="1" t="str"/>
@@ -4540,7 +4418,7 @@
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="179">
+    <row customHeight="true" ht="23" r="179">
       <c r="A179" s="1" t="str"/>
       <c r="B179" s="1" t="str"/>
       <c r="C179" s="1" t="str"/>
@@ -4554,7 +4432,7 @@
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="180">
+    <row customHeight="true" ht="23" r="180">
       <c r="A180" s="1" t="str"/>
       <c r="B180" s="1" t="str"/>
       <c r="C180" s="1" t="str"/>
@@ -4568,7 +4446,7 @@
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="181">
+    <row customHeight="true" ht="23" r="181">
       <c r="A181" s="1" t="str"/>
       <c r="B181" s="1" t="str"/>
       <c r="C181" s="1" t="str"/>
@@ -4582,7 +4460,7 @@
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="182">
+    <row customHeight="true" ht="23" r="182">
       <c r="A182" s="1" t="str"/>
       <c r="B182" s="1" t="str"/>
       <c r="C182" s="1" t="str"/>
@@ -4596,7 +4474,7 @@
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="183">
+    <row customHeight="true" ht="23" r="183">
       <c r="A183" s="1" t="str"/>
       <c r="B183" s="1" t="str"/>
       <c r="C183" s="1" t="str"/>
@@ -4610,7 +4488,7 @@
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="184">
+    <row customHeight="true" ht="23" r="184">
       <c r="A184" s="1" t="str"/>
       <c r="B184" s="1" t="str"/>
       <c r="C184" s="1" t="str"/>
@@ -4624,7 +4502,7 @@
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="185">
+    <row customHeight="true" ht="23" r="185">
       <c r="A185" s="1" t="str"/>
       <c r="B185" s="1" t="str"/>
       <c r="C185" s="1" t="str"/>
@@ -4638,7 +4516,7 @@
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="186">
+    <row customHeight="true" ht="23" r="186">
       <c r="A186" s="1" t="str"/>
       <c r="B186" s="1" t="str"/>
       <c r="C186" s="1" t="str"/>
@@ -4652,7 +4530,7 @@
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="187">
+    <row customHeight="true" ht="23" r="187">
       <c r="A187" s="1" t="str"/>
       <c r="B187" s="1" t="str"/>
       <c r="C187" s="1" t="str"/>
@@ -4666,7 +4544,7 @@
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="188">
+    <row customHeight="true" ht="23" r="188">
       <c r="A188" s="1" t="str"/>
       <c r="B188" s="1" t="str"/>
       <c r="C188" s="1" t="str"/>
@@ -4680,7 +4558,7 @@
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="189">
+    <row customHeight="true" ht="23" r="189">
       <c r="A189" s="1" t="str"/>
       <c r="B189" s="1" t="str"/>
       <c r="C189" s="1" t="str"/>
@@ -4694,7 +4572,7 @@
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="190">
+    <row customHeight="true" ht="23" r="190">
       <c r="A190" s="1" t="str"/>
       <c r="B190" s="1" t="str"/>
       <c r="C190" s="1" t="str"/>
@@ -4708,7 +4586,7 @@
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="191">
+    <row customHeight="true" ht="23" r="191">
       <c r="A191" s="1" t="str"/>
       <c r="B191" s="1" t="str"/>
       <c r="C191" s="1" t="str"/>
@@ -4722,7 +4600,7 @@
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="192">
+    <row customHeight="true" ht="23" r="192">
       <c r="A192" s="1" t="str"/>
       <c r="B192" s="1" t="str"/>
       <c r="C192" s="1" t="str"/>
@@ -4736,7 +4614,7 @@
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="193">
+    <row customHeight="true" ht="23" r="193">
       <c r="A193" s="1" t="str"/>
       <c r="B193" s="1" t="str"/>
       <c r="C193" s="1" t="str"/>
@@ -4750,7 +4628,7 @@
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="194">
+    <row customHeight="true" ht="23" r="194">
       <c r="A194" s="1" t="str"/>
       <c r="B194" s="1" t="str"/>
       <c r="C194" s="1" t="str"/>
@@ -4764,7 +4642,7 @@
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="195">
+    <row customHeight="true" ht="23" r="195">
       <c r="A195" s="1" t="str"/>
       <c r="B195" s="1" t="str"/>
       <c r="C195" s="1" t="str"/>
@@ -4778,7 +4656,7 @@
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="196">
+    <row customHeight="true" ht="23" r="196">
       <c r="A196" s="1" t="str"/>
       <c r="B196" s="1" t="str"/>
       <c r="C196" s="1" t="str"/>
@@ -4792,7 +4670,7 @@
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="197">
+    <row customHeight="true" ht="23" r="197">
       <c r="A197" s="1" t="str"/>
       <c r="B197" s="1" t="str"/>
       <c r="C197" s="1" t="str"/>
@@ -4806,7 +4684,7 @@
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="198">
+    <row customHeight="true" ht="23" r="198">
       <c r="A198" s="1" t="str"/>
       <c r="B198" s="1" t="str"/>
       <c r="C198" s="1" t="str"/>
@@ -4820,7 +4698,7 @@
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="199">
+    <row customHeight="true" ht="23" r="199">
       <c r="A199" s="1" t="str"/>
       <c r="B199" s="1" t="str"/>
       <c r="C199" s="1" t="str"/>
@@ -4834,7 +4712,7 @@
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="200">
+    <row customHeight="true" ht="23" r="200">
       <c r="A200" s="1" t="str"/>
       <c r="B200" s="1" t="str"/>
       <c r="C200" s="1" t="str"/>
@@ -4848,7 +4726,7 @@
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="201">
+    <row customHeight="true" ht="23" r="201">
       <c r="A201" s="1" t="str"/>
       <c r="B201" s="1" t="str"/>
       <c r="C201" s="1" t="str"/>
@@ -4862,7 +4740,7 @@
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="202">
+    <row customHeight="true" ht="23" r="202">
       <c r="A202" s="1" t="str"/>
       <c r="B202" s="1" t="str"/>
       <c r="C202" s="1" t="str"/>
@@ -4876,7 +4754,7 @@
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="203">
+    <row customHeight="true" ht="23" r="203">
       <c r="A203" s="1" t="str"/>
       <c r="B203" s="1" t="str"/>
       <c r="C203" s="1" t="str"/>
@@ -4890,7 +4768,7 @@
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="204">
+    <row customHeight="true" ht="23" r="204">
       <c r="A204" s="1" t="str"/>
       <c r="B204" s="1" t="str"/>
       <c r="C204" s="1" t="str"/>
@@ -4904,7 +4782,7 @@
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="205">
+    <row customHeight="true" ht="23" r="205">
       <c r="A205" s="1" t="str"/>
       <c r="B205" s="1" t="str"/>
       <c r="C205" s="1" t="str"/>
@@ -4918,7 +4796,7 @@
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="206">
+    <row customHeight="true" ht="23" r="206">
       <c r="A206" s="1" t="str"/>
       <c r="B206" s="1" t="str"/>
       <c r="C206" s="1" t="str"/>
@@ -4932,7 +4810,7 @@
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="207">
+    <row customHeight="true" ht="23" r="207">
       <c r="A207" s="1" t="str"/>
       <c r="B207" s="1" t="str"/>
       <c r="C207" s="1" t="str"/>
@@ -4946,7 +4824,7 @@
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="208">
+    <row customHeight="true" ht="23" r="208">
       <c r="A208" s="1" t="str"/>
       <c r="B208" s="1" t="str"/>
       <c r="C208" s="1" t="str"/>
@@ -4960,7 +4838,7 @@
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="209">
+    <row customHeight="true" ht="23" r="209">
       <c r="A209" s="1" t="str"/>
       <c r="B209" s="1" t="str"/>
       <c r="C209" s="1" t="str"/>
@@ -4974,7 +4852,7 @@
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="210">
+    <row customHeight="true" ht="23" r="210">
       <c r="A210" s="1" t="str"/>
       <c r="B210" s="1" t="str"/>
       <c r="C210" s="1" t="str"/>
@@ -4988,7 +4866,7 @@
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="211">
+    <row customHeight="true" ht="23" r="211">
       <c r="A211" s="1" t="str"/>
       <c r="B211" s="1" t="str"/>
       <c r="C211" s="1" t="str"/>
@@ -5002,7 +4880,7 @@
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="212">
+    <row customHeight="true" ht="23" r="212">
       <c r="A212" s="1" t="str"/>
       <c r="B212" s="1" t="str"/>
       <c r="C212" s="1" t="str"/>
@@ -5016,7 +4894,7 @@
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="213">
+    <row customHeight="true" ht="23" r="213">
       <c r="A213" s="1" t="str"/>
       <c r="B213" s="1" t="str"/>
       <c r="C213" s="1" t="str"/>
@@ -5030,7 +4908,7 @@
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="214">
+    <row customHeight="true" ht="23" r="214">
       <c r="A214" s="1" t="str"/>
       <c r="B214" s="1" t="str"/>
       <c r="C214" s="1" t="str"/>
@@ -5044,7 +4922,7 @@
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="215">
+    <row customHeight="true" ht="23" r="215">
       <c r="A215" s="1" t="str"/>
       <c r="B215" s="1" t="str"/>
       <c r="C215" s="1" t="str"/>
@@ -5058,7 +4936,7 @@
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="216">
+    <row customHeight="true" ht="23" r="216">
       <c r="A216" s="1" t="str"/>
       <c r="B216" s="1" t="str"/>
       <c r="C216" s="1" t="str"/>
@@ -5072,7 +4950,7 @@
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="217">
+    <row customHeight="true" ht="23" r="217">
       <c r="A217" s="1" t="str"/>
       <c r="B217" s="1" t="str"/>
       <c r="C217" s="1" t="str"/>
@@ -5086,7 +4964,7 @@
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="218">
+    <row customHeight="true" ht="23" r="218">
       <c r="A218" s="1" t="str"/>
       <c r="B218" s="1" t="str"/>
       <c r="C218" s="1" t="str"/>
@@ -5100,7 +4978,7 @@
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="219">
+    <row customHeight="true" ht="23" r="219">
       <c r="A219" s="1" t="str"/>
       <c r="B219" s="1" t="str"/>
       <c r="C219" s="1" t="str"/>
@@ -5114,7 +4992,7 @@
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="220">
+    <row customHeight="true" ht="23" r="220">
       <c r="A220" s="1" t="str"/>
       <c r="B220" s="1" t="str"/>
       <c r="C220" s="1" t="str"/>
@@ -5128,7 +5006,7 @@
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="221">
+    <row customHeight="true" ht="23" r="221">
       <c r="A221" s="1" t="str"/>
       <c r="B221" s="1" t="str"/>
       <c r="C221" s="1" t="str"/>
@@ -5142,7 +5020,7 @@
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="222">
+    <row customHeight="true" ht="23" r="222">
       <c r="A222" s="1" t="str"/>
       <c r="B222" s="1" t="str"/>
       <c r="C222" s="1" t="str"/>
@@ -5156,7 +5034,7 @@
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="223">
+    <row customHeight="true" ht="23" r="223">
       <c r="A223" s="1" t="str"/>
       <c r="B223" s="1" t="str"/>
       <c r="C223" s="1" t="str"/>
@@ -5170,7 +5048,7 @@
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="224">
+    <row customHeight="true" ht="23" r="224">
       <c r="A224" s="1" t="str"/>
       <c r="B224" s="1" t="str"/>
       <c r="C224" s="1" t="str"/>
@@ -5184,7 +5062,7 @@
       <c r="K224" s="1"/>
       <c r="L224" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="225">
+    <row customHeight="true" ht="23" r="225">
       <c r="A225" s="1" t="str"/>
       <c r="B225" s="1" t="str"/>
       <c r="C225" s="1" t="str"/>
@@ -5198,7 +5076,7 @@
       <c r="K225" s="1"/>
       <c r="L225" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="226">
+    <row customHeight="true" ht="23" r="226">
       <c r="A226" s="1" t="str"/>
       <c r="B226" s="1" t="str"/>
       <c r="C226" s="1" t="str"/>
@@ -5212,7 +5090,7 @@
       <c r="K226" s="1"/>
       <c r="L226" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="227">
+    <row customHeight="true" ht="23" r="227">
       <c r="A227" s="1" t="str"/>
       <c r="B227" s="1" t="str"/>
       <c r="C227" s="1" t="str"/>
@@ -5226,7 +5104,7 @@
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="228">
+    <row customHeight="true" ht="23" r="228">
       <c r="A228" s="1" t="str"/>
       <c r="B228" s="1" t="str"/>
       <c r="C228" s="1" t="str"/>
@@ -5240,7 +5118,7 @@
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="229">
+    <row customHeight="true" ht="23" r="229">
       <c r="A229" s="1" t="str"/>
       <c r="B229" s="1" t="str"/>
       <c r="C229" s="1" t="str"/>
@@ -5254,7 +5132,7 @@
       <c r="K229" s="1"/>
       <c r="L229" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="230">
+    <row customHeight="true" ht="23" r="230">
       <c r="A230" s="1" t="str"/>
       <c r="B230" s="1" t="str"/>
       <c r="C230" s="1" t="str"/>
@@ -5268,7 +5146,7 @@
       <c r="K230" s="1"/>
       <c r="L230" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="231">
+    <row customHeight="true" ht="23" r="231">
       <c r="A231" s="1" t="str"/>
       <c r="B231" s="1" t="str"/>
       <c r="C231" s="1" t="str"/>
@@ -5282,7 +5160,7 @@
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="232">
+    <row customHeight="true" ht="23" r="232">
       <c r="A232" s="1" t="str"/>
       <c r="B232" s="1" t="str"/>
       <c r="C232" s="1" t="str"/>
@@ -5296,7 +5174,7 @@
       <c r="K232" s="1"/>
       <c r="L232" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="233">
+    <row customHeight="true" ht="23" r="233">
       <c r="A233" s="1" t="str"/>
       <c r="B233" s="1" t="str"/>
       <c r="C233" s="1" t="str"/>
@@ -5310,7 +5188,7 @@
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="234">
+    <row customHeight="true" ht="23" r="234">
       <c r="A234" s="1" t="str"/>
       <c r="B234" s="1" t="str"/>
       <c r="C234" s="1" t="str"/>
@@ -5324,7 +5202,7 @@
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="235">
+    <row customHeight="true" ht="23" r="235">
       <c r="A235" s="1" t="str"/>
       <c r="B235" s="1" t="str"/>
       <c r="C235" s="1" t="str"/>
@@ -5338,7 +5216,7 @@
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="236">
+    <row customHeight="true" ht="23" r="236">
       <c r="A236" s="1" t="str"/>
       <c r="B236" s="1" t="str"/>
       <c r="C236" s="1" t="str"/>
@@ -5352,7 +5230,7 @@
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="237">
+    <row customHeight="true" ht="23" r="237">
       <c r="A237" s="1" t="str"/>
       <c r="B237" s="1" t="str"/>
       <c r="C237" s="1" t="str"/>
@@ -5366,7 +5244,7 @@
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="238">
+    <row customHeight="true" ht="23" r="238">
       <c r="A238" s="1" t="str"/>
       <c r="B238" s="1" t="str"/>
       <c r="C238" s="1" t="str"/>
@@ -5380,7 +5258,7 @@
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="239">
+    <row customHeight="true" ht="23" r="239">
       <c r="A239" s="1" t="str"/>
       <c r="B239" s="1" t="str"/>
       <c r="C239" s="1" t="str"/>
@@ -5394,7 +5272,7 @@
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="240">
+    <row customHeight="true" ht="23" r="240">
       <c r="A240" s="1" t="str"/>
       <c r="B240" s="1" t="str"/>
       <c r="C240" s="1" t="str"/>
@@ -5408,7 +5286,7 @@
       <c r="K240" s="1"/>
       <c r="L240" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="241">
+    <row customHeight="true" ht="23" r="241">
       <c r="A241" s="1" t="str"/>
       <c r="B241" s="1" t="str"/>
       <c r="C241" s="1" t="str"/>

--- a/wolf/Excel/Rule_规则表.xlsx
+++ b/wolf/Excel/Rule_规则表.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="30">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -43,7 +43,133 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -51,202 +177,34 @@
     </font>
     <font>
       <sz val="9.75"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF606266"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FFF54A45"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF606266"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="23">
     <fill>
       <patternFill patternType="none">
         <fgColor/>
@@ -262,36 +220,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD5F6F2"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC3DD40"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -315,7 +243,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
+        <fgColor rgb="FFFED4A4"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFED4A4"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -333,7 +273,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAF1D1"/>
+        <fgColor rgb="FFDEE0E3"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE0E3"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE0E3"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9F5D6"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9F5D6"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -351,13 +315,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDEE0E3"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEE0E3"/>
+        <fgColor rgb="FFC3DD40"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -375,84 +333,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
+        <fgColor rgb="FFEEF6C6"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDEE0E3"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEE0E3"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFED4A4"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFED4A4"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
+        <fgColor rgb="FFFAF1D1"/>
         <bgColor/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -625,95 +517,77 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="24">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="4" fontId="5" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="5" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="6" fontId="7" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="7" fontId="8" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="4" fontId="7" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="8" fontId="9" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="9" fontId="10" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="5" fontId="8" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="10" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="6" fontId="9" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="11" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="12" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="7" fontId="10" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="13" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="8" fontId="11" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="14" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="9" fontId="12" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="15" fontId="16" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="16" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="10" fontId="13" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="17" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="11" fontId="14" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="18" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="12" fontId="15" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="19" fontId="20" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="20" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="21" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="13" fontId="16" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="14" fontId="17" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="15" fontId="18" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="16" fontId="19" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="17" fontId="20" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="18" fontId="21" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="19" fontId="22" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="20" fontId="23" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="21" fontId="24" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="22" fontId="25" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="23" fontId="26" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="24" fontId="27" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="25" fontId="28" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="26" fontId="29" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="22" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1041,1076 +915,1080 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
-      <c r="A1" s="2" t="str">
+    <row customHeight="true" ht="23" r="1">
+      <c r="A1" s="1" t="str">
         <v>Int</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>String</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>String</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>Int</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Float</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Float</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>Float</v>
       </c>
-      <c r="H1" s="6" t="str">
+      <c r="H1" s="3" t="str">
         <v>Float[]</v>
       </c>
-      <c r="I1" s="6" t="str">
+      <c r="I1" s="3" t="str">
         <v>String</v>
       </c>
-      <c r="J1" s="6" t="str">
+      <c r="J1" s="3" t="str">
         <v>Vector3</v>
       </c>
-      <c r="K1" s="6" t="str">
+      <c r="K1" s="3" t="str">
         <v>String</v>
       </c>
-      <c r="L1" s="6" t="str">
+      <c r="L1" s="3" t="str">
         <v>Float</v>
       </c>
-      <c r="M1" s="6" t="str">
+      <c r="M1" s="3" t="str">
         <v>Float[]</v>
       </c>
-      <c r="N1" s="6" t="str">
+      <c r="N1" s="3" t="str">
         <v>Vector3</v>
       </c>
-      <c r="O1" s="6" t="str">
+      <c r="O1" s="3" t="str">
         <v>Vector3</v>
       </c>
-      <c r="P1" s="6" t="str">
+      <c r="P1" s="3" t="str">
         <v>String[]</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="2">
-      <c r="A2" s="2" t="str">
+    <row customHeight="true" ht="23" r="2">
+      <c r="A2" s="1" t="str">
         <v>ID</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>Name</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>Comnment</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>Num</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>Time</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>Weight</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>Prob</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>AimingSize</v>
       </c>
-      <c r="I2" s="2" t="str">
+      <c r="I2" s="1" t="str">
         <v>Color</v>
       </c>
-      <c r="J2" s="2" t="str">
+      <c r="J2" s="1" t="str">
         <v>Vector3</v>
       </c>
-      <c r="K2" s="2" t="str">
+      <c r="K2" s="1" t="str">
         <v>Guid</v>
       </c>
-      <c r="L2" s="6" t="str">
+      <c r="L2" s="3" t="str">
         <v>Volume</v>
       </c>
-      <c r="M2" s="6" t="str">
+      <c r="M2" s="3" t="str">
         <v>SoundParam</v>
       </c>
-      <c r="N2" s="6" t="str">
+      <c r="N2" s="3" t="str">
         <v>Pos</v>
       </c>
-      <c r="O2" s="6" t="str">
+      <c r="O2" s="3" t="str">
         <v>Scale</v>
       </c>
-      <c r="P2" s="6" t="str">
+      <c r="P2" s="3" t="str">
         <v>GuidList</v>
       </c>
     </row>
-    <row customHeight="true" ht="61" r="3">
-      <c r="A3" s="2" t="str">
+    <row customHeight="true" ht="65" r="3">
+      <c r="A3" s="1" t="str">
         <v>序号
 10000：对局相关
 20000：武器相关
 30000：IAA相关</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>规则名称</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>说明</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>数值</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>时长（秒）</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>数</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>概率（％）</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="1" t="str">
         <v>索敌瞄准ui大小</v>
       </c>
-      <c r="I3" s="2" t="str">
+      <c r="I3" s="1" t="str">
         <v>颜色</v>
       </c>
-      <c r="J3" s="2" t="str">
+      <c r="J3" s="1" t="str">
         <v>三维向量</v>
       </c>
-      <c r="K3" s="2" t="str">
+      <c r="K3" s="1" t="str">
         <v>Guid</v>
       </c>
-      <c r="L3" s="6" t="str">
+      <c r="L3" s="3" t="str">
         <v>音量</v>
       </c>
-      <c r="M3" s="6" t="str">
+      <c r="M3" s="3" t="str">
         <v>范围音效参数</v>
       </c>
-      <c r="N3" s="6" t="str">
+      <c r="N3" s="3" t="str">
         <v>偏移</v>
       </c>
-      <c r="O3" s="6" t="str">
+      <c r="O3" s="3" t="str">
         <v>缩放</v>
       </c>
-      <c r="P3" s="6" t="str">
+      <c r="P3" s="3" t="str">
         <v>Guid数组</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="5">
-      <c r="A5" s="2">
+    <row customHeight="true" ht="23" r="4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="5">
+      <c r="A5" s="1">
         <v>10001</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>大厅等待时长</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
         <v>45</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row customHeight="true" ht="21" r="6">
-      <c r="A6" s="2">
+    <row customHeight="true" ht="23" r="6">
+      <c r="A6" s="1">
         <v>10002</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>对局时长</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
         <v>180</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="7">
-      <c r="A7" s="2">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="7">
+      <c r="A7" s="1">
         <v>10003</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>分配身份时长</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="8">
-      <c r="A8" s="2">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="8">
+      <c r="A8" s="1">
         <v>10004</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>分配身份变换间隔</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>控制文本变化速度</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
         <v>0.2</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="9">
-      <c r="A9" s="2">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="9">
+      <c r="A9" s="1">
         <v>10005</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>确认身份时长</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="10">
-      <c r="A10" s="2">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="10">
+      <c r="A10" s="1">
         <v>10006</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="1" t="str">
         <v>初始权重</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="11">
-      <c r="A11" s="2">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="11">
+      <c r="A11" s="1">
         <v>10007</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="1" t="str">
         <v>增加权重</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="12">
-      <c r="A12" s="2">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="12">
+      <c r="A12" s="1">
         <v>10008</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="1" t="str">
         <v>初始概率</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
         <v>2</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="13">
-      <c r="A13" s="2">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="13">
+      <c r="A13" s="1">
         <v>10009</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="1" t="str">
         <v>增加概率</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
         <v>2</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="14">
-      <c r="A14" s="2">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="14">
+      <c r="A14" s="1">
         <v>10010</v>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B14" s="1" t="str">
         <v>死亡效果时长</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
         <v>6</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="15">
-      <c r="A15" s="2">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="15">
+      <c r="A15" s="1">
         <v>10011</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="1" t="str">
         <v>胜利宣告文本缩放时长</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
         <v>0.5</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="16">
-      <c r="A16" s="2">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="16">
+      <c r="A16" s="1">
         <v>10012</v>
       </c>
-      <c r="B16" s="2" t="str">
+      <c r="B16" s="1" t="str">
         <v>胜利宣告烟花缩放时长</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
         <v>0.5</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="17">
-      <c r="A17" s="2">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="17">
+      <c r="A17" s="1">
         <v>10013</v>
       </c>
-      <c r="B17" s="2" t="str">
+      <c r="B17" s="1" t="str">
         <v>胜利宣告总时长</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
         <v>6</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="18">
-      <c r="A18" s="2">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="18">
+      <c r="A18" s="1">
         <v>10014</v>
       </c>
-      <c r="B18" s="2" t="str">
+      <c r="B18" s="1" t="str">
         <v>金币袋初始上限</v>
       </c>
-      <c r="C18" s="2" t="str">
+      <c r="C18" s="1" t="str">
         <v>可以通过其他途径提升</v>
       </c>
-      <c r="D18" s="2">
-        <v>60</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="19">
-      <c r="A19" s="2">
+      <c r="D18" s="1">
+        <v>120</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="19">
+      <c r="A19" s="1">
         <v>10015</v>
       </c>
-      <c r="B19" s="6" t="str">
+      <c r="B19" s="3" t="str">
         <v>生命值</v>
       </c>
-      <c r="C19" s="2" t="str">
+      <c r="C19" s="1" t="str">
         <v>角色基础数值</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>100</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="20">
-      <c r="A20" s="2">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="20">
+      <c r="A20" s="1">
         <v>10016</v>
       </c>
-      <c r="B20" s="6" t="str">
+      <c r="B20" s="3" t="str">
         <v>移动速度</v>
       </c>
-      <c r="C20" s="2" t="str">
+      <c r="C20" s="1" t="str">
         <v>角色基础数值</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>400</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="21">
-      <c r="A21" s="2">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="21">
+      <c r="A21" s="1">
         <v>10017</v>
       </c>
-      <c r="B21" s="2" t="str">
+      <c r="B21" s="1" t="str">
         <v>跳跃高度</v>
       </c>
-      <c r="C21" s="2" t="str">
+      <c r="C21" s="1" t="str">
         <v>角色基础数值</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>250</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="22">
-      <c r="A22" s="2">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="22">
+      <c r="A22" s="1">
         <v>10018</v>
       </c>
-      <c r="B22" s="6" t="str">
+      <c r="B22" s="3" t="str">
         <v>最大跳跃次数</v>
       </c>
-      <c r="C22" s="2" t="str">
+      <c r="C22" s="1" t="str">
         <v>角色基础数值</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="23">
-      <c r="A23" s="2">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="23">
+      <c r="A23" s="1">
         <v>10019</v>
       </c>
-      <c r="B23" s="2" t="str">
+      <c r="B23" s="1" t="str">
         <v>局内准备时长</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
         <v>10</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="24">
-      <c r="A24" s="2">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="24">
+      <c r="A24" s="1">
         <v>10020</v>
       </c>
-      <c r="B24" s="2" t="str">
+      <c r="B24" s="1" t="str">
         <v>金币刷新间隔</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
         <v>10</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="25">
-      <c r="A25" s="2">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="25">
+      <c r="A25" s="1">
         <v>10021</v>
       </c>
-      <c r="B25" s="4" t="str">
+      <c r="B25" s="2" t="str">
         <v>近战武器延迟检测时长</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="6">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3">
         <v>0.2</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="26">
-      <c r="A26" s="2">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="26">
+      <c r="A26" s="1">
         <v>10022</v>
       </c>
-      <c r="B26" s="4" t="str">
+      <c r="B26" s="2" t="str">
         <v>攻击动作和攻击特效间隔时长</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="6">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3">
         <v>0.4</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="27">
-      <c r="A27" s="2">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="27">
+      <c r="A27" s="1">
         <v>10023</v>
       </c>
-      <c r="B27" s="2" t="str">
+      <c r="B27" s="1" t="str">
         <v>死亡动作播放时长</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="6">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3">
         <v>0.5</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="28">
-      <c r="A28" s="2">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="28">
+      <c r="A28" s="1">
         <v>10024</v>
       </c>
-      <c r="B28" s="2" t="str">
+      <c r="B28" s="1" t="str">
         <v>凶手移动速度</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1">
         <v>440</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="29">
-      <c r="A29" s="2">
+      <c r="E28" s="3"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="29">
+      <c r="A29" s="1">
         <v>10025</v>
       </c>
-      <c r="B29" s="2" t="str">
+      <c r="B29" s="1" t="str">
         <v>参与对局奖励</v>
       </c>
-      <c r="C29" s="2" t="str">
+      <c r="C29" s="1" t="str">
         <v>参与对局可获得的奖励</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>10</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
-    <row customHeight="true" ht="21" r="30">
-      <c r="A30" s="2">
+    <row customHeight="true" ht="23" r="30">
+      <c r="A30" s="1">
         <v>10026</v>
       </c>
-      <c r="B30" s="2" t="str">
+      <c r="B30" s="1" t="str">
         <v>存活人数默认颜色（白）</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2" t="str">
+      <c r="C30" s="1"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="str">
         <v>#FFFFFF</v>
       </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
-    <row customHeight="true" ht="21" r="31">
-      <c r="A31" s="2">
+    <row customHeight="true" ht="23" r="31">
+      <c r="A31" s="1">
         <v>10027</v>
       </c>
-      <c r="B31" s="2" t="str">
+      <c r="B31" s="1" t="str">
         <v>存活人数激活颜色（红）</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2" t="str">
+      <c r="C31" s="1"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="str">
         <v>#FF1242</v>
       </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
     </row>
-    <row customHeight="true" ht="21" r="32">
-      <c r="A32" s="2">
+    <row customHeight="true" ht="23" r="32">
+      <c r="A32" s="1">
         <v>10028</v>
       </c>
-      <c r="B32" s="2" t="str">
+      <c r="B32" s="1" t="str">
         <v>学生每秒获得经验值</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="6">
+      <c r="C32" s="1"/>
+      <c r="D32" s="3">
         <v>5</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
     </row>
-    <row customHeight="true" ht="21" r="33">
-      <c r="A33" s="2">
+    <row customHeight="true" ht="23" r="33">
+      <c r="A33" s="1">
         <v>10029</v>
       </c>
-      <c r="B33" s="2" t="str">
+      <c r="B33" s="1" t="str">
         <v>准备倒计时中央停留时长</v>
       </c>
-      <c r="C33" s="2" t="str">
+      <c r="C33" s="1" t="str">
         <v>&lt;准备时长</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
         <v>1.5</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
     </row>
-    <row customHeight="true" ht="21" r="34">
-      <c r="A34" s="2">
+    <row customHeight="true" ht="23" r="34">
+      <c r="A34" s="1">
         <v>10030</v>
       </c>
-      <c r="B34" s="2" t="str">
+      <c r="B34" s="1" t="str">
         <v>结算-动画结束后的界面显示时长</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6">
+      <c r="C34" s="1"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3">
         <v>5</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="35">
-      <c r="A35" s="2">
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="35">
+      <c r="A35" s="1">
         <v>10031</v>
       </c>
-      <c r="B35" s="2" t="str">
+      <c r="B35" s="1" t="str">
         <v>掏枪图片GUID</v>
       </c>
-      <c r="C35" s="2" t="str">
+      <c r="C35" s="1" t="str">
         <v>暂时ID，后期需修改为正式图标</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1">
         <v>148770</v>
       </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="36">
-      <c r="A36" s="2">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="36">
+      <c r="A36" s="1">
         <v>10032</v>
       </c>
-      <c r="B36" s="2" t="str">
+      <c r="B36" s="1" t="str">
         <v>收枪图片GUID</v>
       </c>
-      <c r="C36" s="2" t="str">
+      <c r="C36" s="1" t="str">
         <v>暂时ID，后期需修改为正式图标</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1">
         <v>148769</v>
       </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="37">
-      <c r="A37" s="2">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="37">
+      <c r="A37" s="1">
         <v>10033</v>
       </c>
-      <c r="B37" s="2" t="str">
+      <c r="B37" s="1" t="str">
         <v>掏刀图片GUID</v>
       </c>
-      <c r="C37" s="2" t="str">
+      <c r="C37" s="1" t="str">
         <v>暂时ID，后期需修改为正式图标</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1">
         <v>148763</v>
       </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="38">
-      <c r="A38" s="2">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="38">
+      <c r="A38" s="1">
         <v>10034</v>
       </c>
-      <c r="B38" s="2" t="str">
+      <c r="B38" s="1" t="str">
         <v>收刀图片GUID</v>
       </c>
-      <c r="C38" s="2" t="str">
+      <c r="C38" s="1" t="str">
         <v>暂时ID，后期需修改为正式图标</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1">
         <v>148757</v>
       </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="39">
-      <c r="A39" s="2">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="39">
+      <c r="A39" s="1">
         <v>10035</v>
       </c>
-      <c r="B39" s="2" t="str">
+      <c r="B39" s="1" t="str">
         <v>投掷飞刀架势图片GUID</v>
       </c>
-      <c r="C39" s="2" t="str">
+      <c r="C39" s="1" t="str">
         <v>暂时ID，后期需修改为正式图标</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1">
         <v>148756</v>
       </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="40">
-      <c r="A40" s="2">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="40">
+      <c r="A40" s="1">
         <v>10036</v>
       </c>
-      <c r="B40" s="2" t="str">
+      <c r="B40" s="1" t="str">
         <v>投掷飞刀复原图片GUID</v>
       </c>
-      <c r="C40" s="2" t="str">
+      <c r="C40" s="1" t="str">
         <v>暂时ID，后期需修改为正式图标</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1">
         <v>148757</v>
       </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="41">
-      <c r="A41" s="2">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="41">
+      <c r="A41" s="1">
         <v>10037</v>
       </c>
-      <c r="B41" s="2" t="str">
+      <c r="B41" s="1" t="str">
         <v>场景内AI穿透名字屏蔽</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2" t="str">
+      <c r="C41" s="1"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="str">
         <v>6EB57DF3</v>
       </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
     </row>
-    <row customHeight="true" ht="21" r="42">
-      <c r="A42" s="2">
+    <row customHeight="true" ht="23" r="42">
+      <c r="A42" s="1">
         <v>10038</v>
       </c>
-      <c r="B42" s="2" t="str">
+      <c r="B42" s="1" t="str">
         <v>场景内AI穿透名字屏蔽</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2" t="str">
+      <c r="C42" s="1"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="str">
         <v>0E841BD3</v>
       </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
     </row>
-    <row customHeight="true" ht="21" r="43">
-      <c r="A43" s="2">
+    <row customHeight="true" ht="23" r="43">
+      <c r="A43" s="1">
         <v>10039</v>
       </c>
-      <c r="B43" s="2" t="str">
+      <c r="B43" s="1" t="str">
         <v>死亡动作恢复时间延迟</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6">
+      <c r="C43" s="1"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3">
         <v>7</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
     </row>
-    <row customHeight="true" ht="21" r="44">
-      <c r="A44" s="2">
+    <row customHeight="true" ht="23" r="44">
+      <c r="A44" s="1">
         <v>10040</v>
       </c>
-      <c r="B44" s="2" t="str">
+      <c r="B44" s="1" t="str">
         <v>Loading时间</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6">
+      <c r="C44" s="1"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3">
         <v>6</v>
       </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
     </row>
-    <row customHeight="true" ht="21" r="45">
-      <c r="A45" s="2">
+    <row customHeight="true" ht="23" r="45">
+      <c r="A45" s="1">
         <v>10041</v>
       </c>
-      <c r="B45" s="2" t="str">
+      <c r="B45" s="1" t="str">
         <v>尸体死亡姿态</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -2118,1251 +1996,1251 @@
         <v>4174|122235|15847</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="46">
-      <c r="A46" s="7">
+    <row customHeight="true" ht="23" r="46">
+      <c r="A46" s="15">
         <v>10042</v>
       </c>
-      <c r="B46" s="7" t="str">
+      <c r="B46" s="15" t="str">
         <v>金币图标GUID</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="9">
+      <c r="C46" s="15"/>
+      <c r="D46" s="16">
         <v>163449</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-    </row>
-    <row customHeight="true" ht="21" r="47">
-      <c r="A47" s="7">
+      <c r="E46" s="16"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+    </row>
+    <row customHeight="true" ht="23" r="47">
+      <c r="A47" s="15">
         <v>10043</v>
       </c>
-      <c r="B47" s="7" t="str">
+      <c r="B47" s="15" t="str">
         <v>钻石图标GUID</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="6">
+      <c r="C47" s="15"/>
+      <c r="D47" s="3">
         <v>176091</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-    </row>
-    <row customHeight="true" ht="21" r="48">
-      <c r="A48" s="7">
+      <c r="E47" s="16"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+    </row>
+    <row customHeight="true" ht="23" r="48">
+      <c r="A48" s="15">
         <v>10044</v>
       </c>
-      <c r="B48" s="7" t="str">
+      <c r="B48" s="15" t="str">
         <v>广告券图标GUID</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="9">
+      <c r="C48" s="15"/>
+      <c r="D48" s="16">
         <v>181394</v>
       </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-    </row>
-    <row customHeight="true" ht="21" r="49">
-      <c r="A49" s="7">
+      <c r="E48" s="16"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+    </row>
+    <row customHeight="true" ht="23" r="49">
+      <c r="A49" s="15">
         <v>10045</v>
       </c>
-      <c r="B49" s="7" t="str">
+      <c r="B49" s="15" t="str">
         <v>超级特权钥匙图标GUID</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="9">
+      <c r="C49" s="15"/>
+      <c r="D49" s="16">
         <v>37744</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-    </row>
-    <row customHeight="true" ht="21" r="50">
-      <c r="A50" s="2">
+      <c r="E49" s="16"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+    </row>
+    <row customHeight="true" ht="23" r="50">
+      <c r="A50" s="1">
         <v>20001</v>
       </c>
-      <c r="B50" s="4" t="str">
+      <c r="B50" s="2" t="str">
         <v>子弹速度</v>
       </c>
-      <c r="C50" s="2" t="str">
+      <c r="C50" s="1" t="str">
         <v>BulletSpeed</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>6000</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="51">
-      <c r="A51" s="2">
+      <c r="E50" s="3"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="51">
+      <c r="A51" s="1">
         <v>20002</v>
       </c>
-      <c r="B51" s="4" t="str">
+      <c r="B51" s="2" t="str">
         <v>飞刀速度</v>
       </c>
-      <c r="C51" s="6" t="str">
+      <c r="C51" s="3" t="str">
         <v>KnifeSpeed</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>1500</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="52">
-      <c r="A52" s="2">
+      <c r="E51" s="3"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="52">
+      <c r="A52" s="1">
         <v>20004</v>
       </c>
-      <c r="B52" s="2" t="str">
+      <c r="B52" s="1" t="str">
         <v>射击速度</v>
       </c>
-      <c r="C52" s="2" t="str">
+      <c r="C52" s="1" t="str">
         <v>ShootSpeed</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>3</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="53">
-      <c r="A53" s="2">
+      <c r="E52" s="3"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="53">
+      <c r="A53" s="1">
         <v>20006</v>
       </c>
-      <c r="B53" s="4" t="str">
+      <c r="B53" s="2" t="str">
         <v>近战扇形角度</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="2">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="1">
         <v>180</v>
       </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="54">
-      <c r="A54" s="2">
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="54">
+      <c r="A54" s="1">
         <v>20008</v>
       </c>
-      <c r="B54" s="4" t="str">
+      <c r="B54" s="2" t="str">
         <v>近战扇形半径</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="2">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="1">
         <v>120</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="55">
-      <c r="A55" s="5">
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="55">
+      <c r="A55" s="19">
         <v>20010</v>
       </c>
-      <c r="B55" s="4" t="str">
+      <c r="B55" s="2" t="str">
         <v>近战扇形最高高度</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="2">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="1">
         <v>300</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="56">
-      <c r="A56" s="5">
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="56">
+      <c r="A56" s="19">
         <v>20012</v>
       </c>
-      <c r="B56" s="4" t="str">
+      <c r="B56" s="2" t="str">
         <v>近战扇形最低高度</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="2">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="1">
         <v>-300</v>
       </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="57">
-      <c r="A57" s="2">
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="57">
+      <c r="A57" s="1">
         <v>30001</v>
       </c>
-      <c r="B57" s="2" t="str">
+      <c r="B57" s="1" t="str">
         <v>死亡激励-金币数量</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1">
         <v>10</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
     </row>
-    <row customHeight="true" ht="21" r="58">
-      <c r="A58" s="2">
+    <row customHeight="true" ht="23" r="58">
+      <c r="A58" s="1">
         <v>30002</v>
       </c>
-      <c r="B58" s="2" t="str">
+      <c r="B58" s="1" t="str">
         <v>死亡激励-界面显示时间</v>
       </c>
-      <c r="C58" s="2" t="str">
+      <c r="C58" s="1" t="str">
         <v>经过多久激励显示界面会自动关闭</v>
       </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1">
         <v>5</v>
       </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
     </row>
-    <row customHeight="true" ht="21" r="59">
-      <c r="A59" s="2">
+    <row customHeight="true" ht="23" r="59">
+      <c r="A59" s="1">
         <v>30003</v>
       </c>
-      <c r="B59" s="2" t="str">
+      <c r="B59" s="1" t="str">
         <v>结算激励-额外奖励倍数m</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1">
         <v>1</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
     </row>
-    <row customHeight="true" ht="21" r="60">
-      <c r="A60" s="2">
+    <row customHeight="true" ht="23" r="60">
+      <c r="A60" s="1">
         <v>30004</v>
       </c>
-      <c r="B60" s="2" t="str">
+      <c r="B60" s="1" t="str">
         <v>大厅激励-基础金币数量A</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1">
         <v>10</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
     </row>
-    <row customHeight="true" ht="21" r="61">
-      <c r="A61" s="2">
+    <row customHeight="true" ht="23" r="61">
+      <c r="A61" s="1">
         <v>30005</v>
       </c>
-      <c r="B61" s="2" t="str">
+      <c r="B61" s="1" t="str">
         <v>大厅激励-额外金币系数n</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1">
         <v>5</v>
       </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
     </row>
-    <row customHeight="true" ht="21" r="62">
-      <c r="A62" s="2">
+    <row customHeight="true" ht="23" r="62">
+      <c r="A62" s="1">
         <v>30006</v>
       </c>
-      <c r="B62" s="2" t="str">
+      <c r="B62" s="1" t="str">
         <v>大厅激励-倒计时时长T</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1">
         <v>180</v>
       </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
     </row>
-    <row customHeight="true" ht="21" r="63">
-      <c r="A63" s="2">
+    <row customHeight="true" ht="23" r="63">
+      <c r="A63" s="1">
         <v>30007</v>
       </c>
-      <c r="B63" s="2" t="str">
+      <c r="B63" s="1" t="str">
         <v>大厅激励-广告上限L</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1">
         <v>10</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
     </row>
-    <row customHeight="true" ht="21" r="64">
-      <c r="A64" s="2">
+    <row customHeight="true" ht="23" r="64">
+      <c r="A64" s="1">
         <v>30008</v>
       </c>
-      <c r="B64" s="2" t="str">
+      <c r="B64" s="1" t="str">
         <v>结算插屏-插屏间隔</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1">
         <v>1</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
     </row>
-    <row customHeight="true" ht="21" r="65">
-      <c r="A65" s="11">
+    <row customHeight="true" ht="23" r="65">
+      <c r="A65" s="4">
         <v>30009</v>
       </c>
-      <c r="B65" s="11" t="str">
+      <c r="B65" s="4" t="str">
         <v>会员特权昵称变色</v>
       </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11" t="str">
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4" t="str">
         <v>#FF1242</v>
       </c>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="24"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="24"/>
-    </row>
-    <row customHeight="true" ht="21" r="66">
-      <c r="A66" s="11">
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+    </row>
+    <row customHeight="true" ht="23" r="66">
+      <c r="A66" s="4">
         <v>30010</v>
       </c>
-      <c r="B66" s="4" t="str">
+      <c r="B66" s="2" t="str">
         <v>会员界面开放场数要求</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1">
         <v>10</v>
       </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="67">
-      <c r="A67" s="2">
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="67">
+      <c r="A67" s="1">
         <v>40001</v>
       </c>
-      <c r="B67" s="4" t="str">
+      <c r="B67" s="2" t="str">
         <v>自动瞄准索敌半径</v>
       </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1">
         <v>5000</v>
       </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="68">
-      <c r="A68" s="2">
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="68">
+      <c r="A68" s="1">
         <v>40002</v>
       </c>
-      <c r="B68" s="2" t="str">
+      <c r="B68" s="1" t="str">
         <v>初始瞄准ui大小</v>
       </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2" t="str">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1" t="str">
         <v>190|190</v>
       </c>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="69">
-      <c r="A69" s="2">
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="69">
+      <c r="A69" s="1">
         <v>40003</v>
       </c>
-      <c r="B69" s="2" t="str">
+      <c r="B69" s="1" t="str">
         <v>瞄准ui缩放下限</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="2">
+      <c r="C69" s="1"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="1">
         <v>0.2</v>
       </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="70">
-      <c r="A70" s="2">
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="70">
+      <c r="A70" s="1">
         <v>40004</v>
       </c>
-      <c r="B70" s="4" t="str">
+      <c r="B70" s="2" t="str">
         <v>攻击检测半径</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2">
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1">
         <v>140</v>
       </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="71">
-      <c r="A71" s="2">
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="71">
+      <c r="A71" s="1">
         <v>40005</v>
       </c>
-      <c r="B71" s="2" t="str">
+      <c r="B71" s="1" t="str">
         <v>等级UI缩小最大距离</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1">
         <v>1800</v>
       </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="72">
-      <c r="A72" s="2">
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="72">
+      <c r="A72" s="1">
         <v>40006</v>
       </c>
-      <c r="B72" s="2" t="str">
+      <c r="B72" s="1" t="str">
         <v>等级UI最小缩小</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="2">
+      <c r="C72" s="1"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="1">
         <v>0.4</v>
       </c>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="73">
-      <c r="A73" s="2">
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="73">
+      <c r="A73" s="1">
         <v>40007</v>
       </c>
-      <c r="B73" s="4" t="str">
+      <c r="B73" s="2" t="str">
         <v>警察开枪CD</v>
       </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="2">
+      <c r="C73" s="1"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="1">
         <v>3</v>
       </c>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="74">
-      <c r="A74" s="2">
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="74">
+      <c r="A74" s="1">
         <v>40008</v>
       </c>
-      <c r="B74" s="4" t="str">
+      <c r="B74" s="2" t="str">
         <v>警察开枪动作/音效持续时间</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="2">
+      <c r="C74" s="1"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="1">
         <v>3.2</v>
       </c>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="75">
-      <c r="A75" s="2">
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="75">
+      <c r="A75" s="1">
         <v>40009</v>
       </c>
-      <c r="B75" s="4" t="str">
+      <c r="B75" s="2" t="str">
         <v>飞刀CD</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="2">
+      <c r="C75" s="1"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="1">
         <v>3</v>
       </c>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="76">
-      <c r="A76" s="5">
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="76">
+      <c r="A76" s="19">
         <v>40010</v>
       </c>
-      <c r="B76" s="4" t="str">
+      <c r="B76" s="2" t="str">
         <v>飞刀旋转速度</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2">
+      <c r="C76" s="1"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1">
         <v>360</v>
       </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="77">
-      <c r="A77" s="2">
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="77">
+      <c r="A77" s="1">
         <v>40011</v>
       </c>
-      <c r="B77" s="4" t="str">
+      <c r="B77" s="2" t="str">
         <v>近战挥刀间隔</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="2">
+      <c r="C77" s="1"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="1">
         <v>1</v>
       </c>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="78">
-      <c r="A78" s="2">
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="78">
+      <c r="A78" s="1">
         <v>50001</v>
       </c>
-      <c r="B78" s="6" t="str">
+      <c r="B78" s="3" t="str">
         <v>黑幕时间</v>
       </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6">
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3">
         <v>5</v>
       </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="79">
-      <c r="A79" s="2">
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="79">
+      <c r="A79" s="1">
         <v>50002</v>
       </c>
-      <c r="B79" s="2" t="str">
+      <c r="B79" s="1" t="str">
         <v>展示时间</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2">
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1">
         <v>10</v>
       </c>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="80">
-      <c r="A80" s="2">
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="80">
+      <c r="A80" s="1">
         <v>50003</v>
       </c>
-      <c r="B80" s="2" t="str">
+      <c r="B80" s="1" t="str">
         <v>终结者特效GUID</v>
       </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2">
+      <c r="C80" s="1"/>
+      <c r="D80" s="1">
         <v>31266</v>
       </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="81">
-      <c r="A81" s="2">
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="81">
+      <c r="A81" s="1">
         <v>50004</v>
       </c>
-      <c r="B81" s="2" t="str">
+      <c r="B81" s="1" t="str">
         <v>终结者特效缩放</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2" t="str">
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="82">
-      <c r="A82" s="2">
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="82">
+      <c r="A82" s="1">
         <v>50005</v>
       </c>
-      <c r="B82" s="2" t="str">
+      <c r="B82" s="1" t="str">
         <v>终结者特效偏移</v>
       </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2" t="str">
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1" t="str">
         <v>0|0|35</v>
       </c>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="83">
-      <c r="A83" s="2">
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="83">
+      <c r="A83" s="1">
         <v>50006</v>
       </c>
-      <c r="B83" s="2" t="str">
+      <c r="B83" s="1" t="str">
         <v>终结者特效旋转</v>
       </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2" t="str">
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="84">
-      <c r="A84" s="2">
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="84">
+      <c r="A84" s="1">
         <v>50007</v>
       </c>
-      <c r="B84" s="2" t="str">
+      <c r="B84" s="1" t="str">
         <v>胜利展示动作</v>
       </c>
-      <c r="C84" s="2" t="str">
+      <c r="C84" s="1" t="str">
         <v>GUID | 速度</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="1">
         <v>88448</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="1">
         <v>1</v>
       </c>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="85">
-      <c r="A85" s="2">
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="85">
+      <c r="A85" s="1">
         <v>50008</v>
       </c>
-      <c r="B85" s="2" t="str">
+      <c r="B85" s="1" t="str">
         <v>黑幕透明度不变时间比例</v>
       </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2">
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1">
         <v>0.6</v>
       </c>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-    </row>
-    <row customHeight="true" ht="21" r="86">
-      <c r="A86" s="20">
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="86">
+      <c r="A86" s="12">
         <v>60001</v>
       </c>
-      <c r="B86" s="20" t="str">
+      <c r="B86" s="12" t="str">
         <v>击杀额外范围音效</v>
       </c>
-      <c r="C86" s="20" t="str"/>
-      <c r="D86" s="20" t="str"/>
-      <c r="E86" s="20" t="str"/>
-      <c r="F86" s="20" t="str"/>
-      <c r="G86" s="20" t="str"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="20"/>
-      <c r="K86" s="22">
+      <c r="C86" s="12" t="str"/>
+      <c r="D86" s="12" t="str"/>
+      <c r="E86" s="12" t="str"/>
+      <c r="F86" s="12" t="str"/>
+      <c r="G86" s="12" t="str"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="20">
         <v>184562</v>
       </c>
-      <c r="L86" s="23"/>
-      <c r="M86" s="23"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="21"/>
-      <c r="P86" s="21"/>
-    </row>
-    <row customHeight="true" ht="21" r="87">
-      <c r="A87" s="20">
+      <c r="L86" s="21"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="13"/>
+    </row>
+    <row customHeight="true" ht="23" r="87">
+      <c r="A87" s="12">
         <v>60002</v>
       </c>
-      <c r="B87" s="20" t="str">
+      <c r="B87" s="12" t="str">
         <v>近战消灭特效</v>
       </c>
-      <c r="C87" s="20" t="str"/>
-      <c r="D87" s="20" t="str"/>
-      <c r="E87" s="20" t="str"/>
-      <c r="F87" s="20" t="str"/>
-      <c r="G87" s="20" t="str"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="20"/>
-      <c r="K87" s="25">
+      <c r="C87" s="12" t="str"/>
+      <c r="D87" s="12" t="str"/>
+      <c r="E87" s="12" t="str"/>
+      <c r="F87" s="12" t="str"/>
+      <c r="G87" s="12" t="str"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="14">
         <v>130642</v>
       </c>
-      <c r="L87" s="20"/>
-      <c r="M87" s="26"/>
-      <c r="N87" s="26" t="str">
+      <c r="L87" s="12"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13" t="str">
         <v>0|0|-50</v>
       </c>
-      <c r="O87" s="26" t="str">
+      <c r="O87" s="13" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="P87" s="26"/>
-    </row>
-    <row customHeight="true" ht="21" r="88">
-      <c r="A88" s="20">
+      <c r="P87" s="13"/>
+    </row>
+    <row customHeight="true" ht="23" r="88">
+      <c r="A88" s="12">
         <v>60003</v>
       </c>
-      <c r="B88" s="20" t="str">
+      <c r="B88" s="12" t="str">
         <v>远程消灭特效(枪和飞刀)</v>
       </c>
-      <c r="C88" s="20" t="str"/>
-      <c r="D88" s="20" t="str"/>
-      <c r="E88" s="20" t="str"/>
-      <c r="F88" s="20" t="str"/>
-      <c r="G88" s="20" t="str"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="25">
+      <c r="C88" s="12" t="str"/>
+      <c r="D88" s="12" t="str"/>
+      <c r="E88" s="12" t="str"/>
+      <c r="F88" s="12" t="str"/>
+      <c r="G88" s="12" t="str"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="14">
         <v>61006</v>
       </c>
-      <c r="L88" s="20"/>
-      <c r="M88" s="26"/>
-      <c r="N88" s="26" t="str">
+      <c r="L88" s="12"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13" t="str">
         <v>0|0|20</v>
       </c>
-      <c r="O88" s="26" t="str">
+      <c r="O88" s="13" t="str">
         <v>1.3|1.3|1.3</v>
       </c>
-      <c r="P88" s="26"/>
-    </row>
-    <row customHeight="true" ht="21" r="89">
-      <c r="A89" s="20">
+      <c r="P88" s="13"/>
+    </row>
+    <row customHeight="true" ht="23" r="89">
+      <c r="A89" s="12">
         <v>60004</v>
       </c>
-      <c r="B89" s="20" t="str">
+      <c r="B89" s="12" t="str">
         <v>灵魂特效</v>
       </c>
-      <c r="C89" s="20" t="str"/>
-      <c r="D89" s="20" t="str"/>
-      <c r="E89" s="20">
+      <c r="C89" s="12" t="str"/>
+      <c r="D89" s="12" t="str"/>
+      <c r="E89" s="12">
         <v>20</v>
       </c>
-      <c r="F89" s="20" t="str"/>
-      <c r="G89" s="20" t="str"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="20"/>
-      <c r="L89" s="20"/>
-      <c r="M89" s="26"/>
-      <c r="N89" s="26" t="str">
+      <c r="F89" s="12" t="str"/>
+      <c r="G89" s="12" t="str"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="13" t="str">
         <v>0|0|20</v>
       </c>
-      <c r="O89" s="26" t="str">
+      <c r="O89" s="13" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="P89" s="26"/>
-    </row>
-    <row customHeight="true" ht="21" r="90">
-      <c r="A90" s="12">
+      <c r="P89" s="13"/>
+    </row>
+    <row customHeight="true" ht="23" r="90">
+      <c r="A90" s="2">
         <v>60005</v>
       </c>
-      <c r="B90" s="12" t="str">
+      <c r="B90" s="2" t="str">
         <v>击杀震屏xy轴幅度</v>
       </c>
-      <c r="C90" s="12" t="str"/>
-      <c r="D90" s="12" t="str"/>
-      <c r="E90" s="12" t="str"/>
-      <c r="F90" s="14">
+      <c r="C90" s="2" t="str"/>
+      <c r="D90" s="2" t="str"/>
+      <c r="E90" s="2" t="str"/>
+      <c r="F90" s="6">
         <v>-30</v>
       </c>
-      <c r="G90" s="12" t="str"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="13"/>
-      <c r="O90" s="13"/>
-      <c r="P90" s="13"/>
-    </row>
-    <row customHeight="true" ht="21" r="91">
-      <c r="A91" s="12">
+      <c r="G90" s="2" t="str"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+    </row>
+    <row customHeight="true" ht="23" r="91">
+      <c r="A91" s="2">
         <v>60006</v>
       </c>
-      <c r="B91" s="12" t="str">
+      <c r="B91" s="2" t="str">
         <v>击杀震屏xy轴频率</v>
       </c>
-      <c r="C91" s="12" t="str"/>
-      <c r="D91" s="12" t="str"/>
-      <c r="E91" s="12" t="str"/>
-      <c r="F91" s="14">
+      <c r="C91" s="2" t="str"/>
+      <c r="D91" s="2" t="str"/>
+      <c r="E91" s="2" t="str"/>
+      <c r="F91" s="6">
         <v>20</v>
       </c>
-      <c r="G91" s="12" t="str"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="13"/>
-      <c r="O91" s="13"/>
-      <c r="P91" s="13"/>
-    </row>
-    <row customHeight="true" ht="21" r="92">
-      <c r="A92" s="12">
+      <c r="G91" s="2" t="str"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+    </row>
+    <row customHeight="true" ht="23" r="92">
+      <c r="A92" s="2">
         <v>60007</v>
       </c>
-      <c r="B92" s="12" t="str">
+      <c r="B92" s="2" t="str">
         <v>击杀震屏内置CD</v>
       </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12">
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2">
         <v>2</v>
       </c>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
-      <c r="M92" s="13"/>
-      <c r="N92" s="13"/>
-      <c r="O92" s="13"/>
-      <c r="P92" s="13"/>
-    </row>
-    <row customHeight="true" ht="21" r="93">
-      <c r="A93" s="12">
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+    </row>
+    <row customHeight="true" ht="23" r="93">
+      <c r="A93" s="2">
         <v>60008</v>
       </c>
-      <c r="B93" s="12" t="str">
+      <c r="B93" s="2" t="str">
         <v>死亡震屏roll轴幅度</v>
       </c>
-      <c r="C93" s="12" t="str"/>
-      <c r="D93" s="12" t="str"/>
-      <c r="E93" s="12" t="str"/>
-      <c r="F93" s="14">
+      <c r="C93" s="2" t="str"/>
+      <c r="D93" s="2" t="str"/>
+      <c r="E93" s="2" t="str"/>
+      <c r="F93" s="6">
         <v>8</v>
       </c>
-      <c r="G93" s="12" t="str"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
-      <c r="M93" s="13"/>
-      <c r="N93" s="13"/>
-      <c r="O93" s="13"/>
-      <c r="P93" s="13"/>
-    </row>
-    <row customHeight="true" ht="21" r="94">
-      <c r="A94" s="12">
+      <c r="G93" s="2" t="str"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+    </row>
+    <row customHeight="true" ht="23" r="94">
+      <c r="A94" s="2">
         <v>60009</v>
       </c>
-      <c r="B94" s="12" t="str">
+      <c r="B94" s="2" t="str">
         <v>死亡震屏roll轴频率</v>
       </c>
-      <c r="C94" s="12" t="str"/>
-      <c r="D94" s="12" t="str"/>
-      <c r="E94" s="12" t="str"/>
-      <c r="F94" s="14">
+      <c r="C94" s="2" t="str"/>
+      <c r="D94" s="2" t="str"/>
+      <c r="E94" s="2" t="str"/>
+      <c r="F94" s="6">
         <v>20</v>
       </c>
-      <c r="G94" s="12" t="str"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
-      <c r="O94" s="13"/>
-      <c r="P94" s="13"/>
-    </row>
-    <row customHeight="true" ht="21" r="95">
-      <c r="A95" s="10">
+      <c r="G94" s="2" t="str"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+    </row>
+    <row customHeight="true" ht="23" r="95">
+      <c r="A95" s="15">
         <v>60010</v>
       </c>
-      <c r="B95" s="10" t="str">
+      <c r="B95" s="15" t="str">
         <v>消灭UI持续时间</v>
       </c>
-      <c r="C95" s="10" t="str"/>
-      <c r="D95" s="10" t="str"/>
-      <c r="E95" s="10">
+      <c r="C95" s="15" t="str"/>
+      <c r="D95" s="15" t="str"/>
+      <c r="E95" s="15">
         <v>0.5</v>
       </c>
-      <c r="F95" s="10" t="str"/>
-      <c r="G95" s="10" t="str"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="10"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="8"/>
-      <c r="P95" s="8"/>
-    </row>
-    <row customHeight="true" ht="21" r="96">
-      <c r="A96" s="10">
+      <c r="F95" s="15" t="str"/>
+      <c r="G95" s="15" t="str"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="16"/>
+      <c r="P95" s="16"/>
+    </row>
+    <row customHeight="true" ht="23" r="96">
+      <c r="A96" s="15">
         <v>60011</v>
       </c>
-      <c r="B96" s="10" t="str">
+      <c r="B96" s="15" t="str">
         <v>消灭UI上升距离</v>
       </c>
-      <c r="C96" s="10" t="str"/>
-      <c r="D96" s="10" t="str"/>
-      <c r="E96" s="10" t="str"/>
-      <c r="F96" s="10">
+      <c r="C96" s="15" t="str"/>
+      <c r="D96" s="15" t="str"/>
+      <c r="E96" s="15" t="str"/>
+      <c r="F96" s="15">
         <v>250</v>
       </c>
-      <c r="G96" s="10" t="str"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="10"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8"/>
-      <c r="O96" s="8"/>
-      <c r="P96" s="8"/>
-    </row>
-    <row customHeight="true" ht="21" r="97">
-      <c r="A97" s="10">
+      <c r="G96" s="15" t="str"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="16"/>
+      <c r="P96" s="16"/>
+    </row>
+    <row customHeight="true" ht="23" r="97">
+      <c r="A97" s="15">
         <v>60012</v>
       </c>
-      <c r="B97" s="10" t="str">
+      <c r="B97" s="15" t="str">
         <v>消灭UI偏移x</v>
       </c>
-      <c r="C97" s="10" t="str"/>
-      <c r="D97" s="10">
+      <c r="C97" s="15" t="str"/>
+      <c r="D97" s="15">
         <v>-100</v>
       </c>
-      <c r="E97" s="10" t="str"/>
-      <c r="F97" s="10" t="str"/>
-      <c r="G97" s="10" t="str"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="10"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
-      <c r="O97" s="8"/>
-      <c r="P97" s="8"/>
-    </row>
-    <row customHeight="true" ht="21" r="98">
-      <c r="A98" s="10">
+      <c r="E97" s="15" t="str"/>
+      <c r="F97" s="15" t="str"/>
+      <c r="G97" s="15" t="str"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="15"/>
+      <c r="L97" s="15"/>
+      <c r="M97" s="16"/>
+      <c r="N97" s="16"/>
+      <c r="O97" s="16"/>
+      <c r="P97" s="16"/>
+    </row>
+    <row customHeight="true" ht="23" r="98">
+      <c r="A98" s="15">
         <v>60013</v>
       </c>
-      <c r="B98" s="10" t="str">
+      <c r="B98" s="15" t="str">
         <v>消灭UI偏移y</v>
       </c>
-      <c r="C98" s="10" t="str"/>
-      <c r="D98" s="10">
+      <c r="C98" s="15" t="str"/>
+      <c r="D98" s="15">
         <v>-40</v>
       </c>
-      <c r="E98" s="10" t="str"/>
-      <c r="F98" s="10" t="str"/>
-      <c r="G98" s="10" t="str"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10"/>
-      <c r="L98" s="10"/>
-      <c r="M98" s="8"/>
-      <c r="N98" s="8"/>
-      <c r="O98" s="8"/>
-      <c r="P98" s="8"/>
-    </row>
-    <row customHeight="true" ht="21" r="99">
-      <c r="A99" s="15">
+      <c r="E98" s="15" t="str"/>
+      <c r="F98" s="15" t="str"/>
+      <c r="G98" s="15" t="str"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="15"/>
+      <c r="M98" s="16"/>
+      <c r="N98" s="16"/>
+      <c r="O98" s="16"/>
+      <c r="P98" s="16"/>
+    </row>
+    <row customHeight="true" ht="23" r="99">
+      <c r="A99" s="10">
         <v>60014</v>
       </c>
-      <c r="B99" s="15" t="str">
+      <c r="B99" s="10" t="str">
         <v>终结击杀彩带特效</v>
       </c>
-      <c r="C99" s="15" t="str"/>
-      <c r="D99" s="15" t="str"/>
-      <c r="E99" s="15" t="str"/>
-      <c r="F99" s="15" t="str"/>
-      <c r="G99" s="15" t="str"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="15">
+      <c r="C99" s="10" t="str"/>
+      <c r="D99" s="10" t="str"/>
+      <c r="E99" s="10" t="str"/>
+      <c r="F99" s="10" t="str"/>
+      <c r="G99" s="10" t="str"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10">
         <v>73404</v>
       </c>
-      <c r="L99" s="15"/>
-      <c r="M99" s="16"/>
-      <c r="N99" s="16" t="str">
+      <c r="L99" s="10"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O99" s="16" t="str">
+      <c r="O99" s="11" t="str">
         <v>1.25|1.25|1.25</v>
       </c>
-      <c r="P99" s="16"/>
-    </row>
-    <row customHeight="true" ht="21" r="100">
-      <c r="A100" s="15">
+      <c r="P99" s="11"/>
+    </row>
+    <row customHeight="true" ht="23" r="100">
+      <c r="A100" s="10">
         <v>60015</v>
       </c>
-      <c r="B100" s="15" t="str">
+      <c r="B100" s="10" t="str">
         <v>警察打错自身特效</v>
       </c>
-      <c r="C100" s="15" t="str"/>
-      <c r="D100" s="15" t="str"/>
-      <c r="E100" s="15" t="str"/>
-      <c r="F100" s="15" t="str"/>
-      <c r="G100" s="15" t="str"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="29">
+      <c r="C100" s="10" t="str"/>
+      <c r="D100" s="10" t="str"/>
+      <c r="E100" s="10" t="str"/>
+      <c r="F100" s="10" t="str"/>
+      <c r="G100" s="10" t="str"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="22">
         <v>27421</v>
       </c>
-      <c r="L100" s="15"/>
-      <c r="M100" s="16"/>
-      <c r="N100" s="16" t="str">
+      <c r="L100" s="10"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11" t="str">
         <v>0|0|20</v>
       </c>
-      <c r="O100" s="16" t="str">
+      <c r="O100" s="11" t="str">
         <v>1.3|1.3|1.3</v>
       </c>
-      <c r="P100" s="16"/>
-    </row>
-    <row customHeight="true" ht="21" r="101">
+      <c r="P100" s="11"/>
+    </row>
+    <row customHeight="true" ht="23" r="101">
       <c r="A101" s="17">
         <v>60016</v>
       </c>
@@ -3386,7 +3264,7 @@
         <v>146118|146118</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="102">
+    <row customHeight="true" ht="23" r="102">
       <c r="A102" s="17">
         <v>60017</v>
       </c>
@@ -3401,7 +3279,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
       <c r="J102" s="17"/>
-      <c r="K102" s="19">
+      <c r="K102" s="23">
         <v>98962</v>
       </c>
       <c r="L102" s="17"/>
@@ -3414,7 +3292,7 @@
       </c>
       <c r="P102" s="18"/>
     </row>
-    <row customHeight="true" ht="21" r="103">
+    <row customHeight="true" ht="23" r="103">
       <c r="A103" s="1">
         <v>60018</v>
       </c>
@@ -3434,7 +3312,7 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="104">
+    <row customHeight="true" ht="23" r="104">
       <c r="A104" s="1">
         <v>60019</v>
       </c>
@@ -3454,7 +3332,7 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="105">
+    <row customHeight="true" ht="23" r="105">
       <c r="A105" s="1">
         <v>60020</v>
       </c>
@@ -3474,55 +3352,55 @@
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="106">
-      <c r="A106" s="27">
+    <row customHeight="true" ht="23" r="106">
+      <c r="A106" s="7">
         <v>60021</v>
       </c>
-      <c r="B106" s="27" t="str">
+      <c r="B106" s="7" t="str">
         <v>弹道特效xy轴缩放</v>
       </c>
-      <c r="C106" s="27" t="str"/>
-      <c r="D106" s="27" t="str"/>
-      <c r="E106" s="27" t="str"/>
-      <c r="F106" s="27">
+      <c r="C106" s="7" t="str"/>
+      <c r="D106" s="7" t="str"/>
+      <c r="E106" s="7" t="str"/>
+      <c r="F106" s="7">
         <v>0.03</v>
       </c>
-      <c r="G106" s="27" t="str"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="27"/>
-      <c r="K106" s="27"/>
-      <c r="L106" s="27"/>
-      <c r="M106" s="28"/>
-      <c r="N106" s="28"/>
-      <c r="O106" s="28"/>
-      <c r="P106" s="28"/>
-    </row>
-    <row customHeight="true" ht="21" r="107">
-      <c r="A107" s="27">
+      <c r="G106" s="7" t="str"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="8"/>
+      <c r="N106" s="8"/>
+      <c r="O106" s="8"/>
+      <c r="P106" s="8"/>
+    </row>
+    <row customHeight="true" ht="23" r="107">
+      <c r="A107" s="7">
         <v>60022</v>
       </c>
-      <c r="B107" s="27" t="str">
+      <c r="B107" s="7" t="str">
         <v>弹道特效持续时间</v>
       </c>
-      <c r="C107" s="27" t="str"/>
-      <c r="D107" s="27" t="str"/>
-      <c r="E107" s="27">
+      <c r="C107" s="7" t="str"/>
+      <c r="D107" s="7" t="str"/>
+      <c r="E107" s="7">
         <v>0.3</v>
       </c>
-      <c r="F107" s="27" t="str"/>
-      <c r="G107" s="27" t="str"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27"/>
-      <c r="J107" s="27"/>
-      <c r="K107" s="27"/>
-      <c r="L107" s="27"/>
-      <c r="M107" s="28"/>
-      <c r="N107" s="28"/>
-      <c r="O107" s="28"/>
-      <c r="P107" s="28"/>
-    </row>
-    <row customHeight="true" ht="21" r="108">
+      <c r="F107" s="7" t="str"/>
+      <c r="G107" s="7" t="str"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="8"/>
+      <c r="P107" s="8"/>
+    </row>
+    <row customHeight="true" ht="23" r="108">
       <c r="A108" s="1">
         <v>70001</v>
       </c>
@@ -3542,7 +3420,7 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="109">
+    <row customHeight="true" ht="23" r="109">
       <c r="A109" s="1">
         <v>70002</v>
       </c>
@@ -3562,7 +3440,7 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="110">
+    <row customHeight="true" ht="23" r="110">
       <c r="A110" s="1">
         <v>70003</v>
       </c>
@@ -3588,7 +3466,7 @@
         <v>1|1|1</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="111">
+    <row customHeight="true" ht="23" r="111">
       <c r="A111" s="1" t="str"/>
       <c r="B111" s="1" t="str"/>
       <c r="C111" s="1" t="str"/>
@@ -3602,7 +3480,7 @@
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="112">
+    <row customHeight="true" ht="23" r="112">
       <c r="A112" s="1" t="str"/>
       <c r="B112" s="1" t="str"/>
       <c r="C112" s="1" t="str"/>
@@ -3616,7 +3494,7 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="113">
+    <row customHeight="true" ht="23" r="113">
       <c r="A113" s="1" t="str"/>
       <c r="B113" s="1" t="str"/>
       <c r="C113" s="1" t="str"/>
@@ -3630,7 +3508,7 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="114">
+    <row customHeight="true" ht="23" r="114">
       <c r="A114" s="1" t="str"/>
       <c r="B114" s="1" t="str"/>
       <c r="C114" s="1" t="str"/>
@@ -3644,7 +3522,7 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="115">
+    <row customHeight="true" ht="23" r="115">
       <c r="A115" s="1" t="str"/>
       <c r="B115" s="1" t="str"/>
       <c r="C115" s="1" t="str"/>
@@ -3658,7 +3536,7 @@
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="116">
+    <row customHeight="true" ht="23" r="116">
       <c r="A116" s="1" t="str"/>
       <c r="B116" s="1" t="str"/>
       <c r="C116" s="1" t="str"/>
@@ -3672,7 +3550,7 @@
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="117">
+    <row customHeight="true" ht="23" r="117">
       <c r="A117" s="1" t="str"/>
       <c r="B117" s="1" t="str"/>
       <c r="C117" s="1" t="str"/>
@@ -3686,7 +3564,7 @@
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="118">
+    <row customHeight="true" ht="23" r="118">
       <c r="A118" s="1" t="str"/>
       <c r="B118" s="1" t="str"/>
       <c r="C118" s="1" t="str"/>
@@ -3700,7 +3578,7 @@
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="119">
+    <row customHeight="true" ht="23" r="119">
       <c r="A119" s="1" t="str"/>
       <c r="B119" s="1" t="str"/>
       <c r="C119" s="1" t="str"/>
@@ -3714,7 +3592,7 @@
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="120">
+    <row customHeight="true" ht="23" r="120">
       <c r="A120" s="1" t="str"/>
       <c r="B120" s="1" t="str"/>
       <c r="C120" s="1" t="str"/>
@@ -3728,7 +3606,7 @@
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="121">
+    <row customHeight="true" ht="23" r="121">
       <c r="A121" s="1" t="str"/>
       <c r="B121" s="1" t="str"/>
       <c r="C121" s="1" t="str"/>
@@ -3742,7 +3620,7 @@
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="122">
+    <row customHeight="true" ht="23" r="122">
       <c r="A122" s="1" t="str"/>
       <c r="B122" s="1" t="str"/>
       <c r="C122" s="1" t="str"/>
@@ -3756,7 +3634,7 @@
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="123">
+    <row customHeight="true" ht="23" r="123">
       <c r="A123" s="1" t="str"/>
       <c r="B123" s="1" t="str"/>
       <c r="C123" s="1" t="str"/>
@@ -3770,7 +3648,7 @@
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="124">
+    <row customHeight="true" ht="23" r="124">
       <c r="A124" s="1" t="str"/>
       <c r="B124" s="1" t="str"/>
       <c r="C124" s="1" t="str"/>
@@ -3784,7 +3662,7 @@
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="125">
+    <row customHeight="true" ht="23" r="125">
       <c r="A125" s="1" t="str"/>
       <c r="B125" s="1" t="str"/>
       <c r="C125" s="1" t="str"/>
@@ -3798,7 +3676,7 @@
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="126">
+    <row customHeight="true" ht="23" r="126">
       <c r="A126" s="1" t="str"/>
       <c r="B126" s="1" t="str"/>
       <c r="C126" s="1" t="str"/>
@@ -3812,7 +3690,7 @@
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="127">
+    <row customHeight="true" ht="23" r="127">
       <c r="A127" s="1" t="str"/>
       <c r="B127" s="1" t="str"/>
       <c r="C127" s="1" t="str"/>
@@ -3826,7 +3704,7 @@
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="128">
+    <row customHeight="true" ht="23" r="128">
       <c r="A128" s="1" t="str"/>
       <c r="B128" s="1" t="str"/>
       <c r="C128" s="1" t="str"/>
@@ -3840,7 +3718,7 @@
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="129">
+    <row customHeight="true" ht="23" r="129">
       <c r="A129" s="1" t="str"/>
       <c r="B129" s="1" t="str"/>
       <c r="C129" s="1" t="str"/>
@@ -3854,7 +3732,7 @@
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="130">
+    <row customHeight="true" ht="23" r="130">
       <c r="A130" s="1" t="str"/>
       <c r="B130" s="1" t="str"/>
       <c r="C130" s="1" t="str"/>
@@ -3868,7 +3746,7 @@
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="131">
+    <row customHeight="true" ht="23" r="131">
       <c r="A131" s="1" t="str"/>
       <c r="B131" s="1" t="str"/>
       <c r="C131" s="1" t="str"/>
@@ -3882,7 +3760,7 @@
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="132">
+    <row customHeight="true" ht="23" r="132">
       <c r="A132" s="1" t="str"/>
       <c r="B132" s="1" t="str"/>
       <c r="C132" s="1" t="str"/>
@@ -3896,7 +3774,7 @@
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="133">
+    <row customHeight="true" ht="23" r="133">
       <c r="A133" s="1" t="str"/>
       <c r="B133" s="1" t="str"/>
       <c r="C133" s="1" t="str"/>
@@ -3910,7 +3788,7 @@
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="134">
+    <row customHeight="true" ht="23" r="134">
       <c r="A134" s="1" t="str"/>
       <c r="B134" s="1" t="str"/>
       <c r="C134" s="1" t="str"/>
@@ -3924,7 +3802,7 @@
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="135">
+    <row customHeight="true" ht="23" r="135">
       <c r="A135" s="1" t="str"/>
       <c r="B135" s="1" t="str"/>
       <c r="C135" s="1" t="str"/>
@@ -3938,7 +3816,7 @@
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="136">
+    <row customHeight="true" ht="23" r="136">
       <c r="A136" s="1" t="str"/>
       <c r="B136" s="1" t="str"/>
       <c r="C136" s="1" t="str"/>
@@ -3952,7 +3830,7 @@
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="137">
+    <row customHeight="true" ht="23" r="137">
       <c r="A137" s="1" t="str"/>
       <c r="B137" s="1" t="str"/>
       <c r="C137" s="1" t="str"/>
@@ -3966,7 +3844,7 @@
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="138">
+    <row customHeight="true" ht="23" r="138">
       <c r="A138" s="1" t="str"/>
       <c r="B138" s="1" t="str"/>
       <c r="C138" s="1" t="str"/>
@@ -3980,7 +3858,7 @@
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="139">
+    <row customHeight="true" ht="23" r="139">
       <c r="A139" s="1" t="str"/>
       <c r="B139" s="1" t="str"/>
       <c r="C139" s="1" t="str"/>
@@ -3994,7 +3872,7 @@
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="140">
+    <row customHeight="true" ht="23" r="140">
       <c r="A140" s="1" t="str"/>
       <c r="B140" s="1" t="str"/>
       <c r="C140" s="1" t="str"/>
@@ -4008,7 +3886,7 @@
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="141">
+    <row customHeight="true" ht="23" r="141">
       <c r="A141" s="1" t="str"/>
       <c r="B141" s="1" t="str"/>
       <c r="C141" s="1" t="str"/>
@@ -4022,7 +3900,7 @@
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="142">
+    <row customHeight="true" ht="23" r="142">
       <c r="A142" s="1" t="str"/>
       <c r="B142" s="1" t="str"/>
       <c r="C142" s="1" t="str"/>
@@ -4036,7 +3914,7 @@
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="143">
+    <row customHeight="true" ht="23" r="143">
       <c r="A143" s="1" t="str"/>
       <c r="B143" s="1" t="str"/>
       <c r="C143" s="1" t="str"/>
@@ -4050,7 +3928,7 @@
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="144">
+    <row customHeight="true" ht="23" r="144">
       <c r="A144" s="1" t="str"/>
       <c r="B144" s="1" t="str"/>
       <c r="C144" s="1" t="str"/>
@@ -4064,7 +3942,7 @@
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="145">
+    <row customHeight="true" ht="23" r="145">
       <c r="A145" s="1" t="str"/>
       <c r="B145" s="1" t="str"/>
       <c r="C145" s="1" t="str"/>
@@ -4078,7 +3956,7 @@
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="146">
+    <row customHeight="true" ht="23" r="146">
       <c r="A146" s="1" t="str"/>
       <c r="B146" s="1" t="str"/>
       <c r="C146" s="1" t="str"/>
@@ -4092,7 +3970,7 @@
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="147">
+    <row customHeight="true" ht="23" r="147">
       <c r="A147" s="1" t="str"/>
       <c r="B147" s="1" t="str"/>
       <c r="C147" s="1" t="str"/>
@@ -4106,7 +3984,7 @@
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="148">
+    <row customHeight="true" ht="23" r="148">
       <c r="A148" s="1" t="str"/>
       <c r="B148" s="1" t="str"/>
       <c r="C148" s="1" t="str"/>
@@ -4120,7 +3998,7 @@
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="149">
+    <row customHeight="true" ht="23" r="149">
       <c r="A149" s="1" t="str"/>
       <c r="B149" s="1" t="str"/>
       <c r="C149" s="1" t="str"/>
@@ -4134,7 +4012,7 @@
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="150">
+    <row customHeight="true" ht="23" r="150">
       <c r="A150" s="1" t="str"/>
       <c r="B150" s="1" t="str"/>
       <c r="C150" s="1" t="str"/>
@@ -4148,7 +4026,7 @@
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="151">
+    <row customHeight="true" ht="23" r="151">
       <c r="A151" s="1" t="str"/>
       <c r="B151" s="1" t="str"/>
       <c r="C151" s="1" t="str"/>
@@ -4162,7 +4040,7 @@
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="152">
+    <row customHeight="true" ht="23" r="152">
       <c r="A152" s="1" t="str"/>
       <c r="B152" s="1" t="str"/>
       <c r="C152" s="1" t="str"/>
@@ -4176,7 +4054,7 @@
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="153">
+    <row customHeight="true" ht="23" r="153">
       <c r="A153" s="1" t="str"/>
       <c r="B153" s="1" t="str"/>
       <c r="C153" s="1" t="str"/>
@@ -4190,7 +4068,7 @@
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="154">
+    <row customHeight="true" ht="23" r="154">
       <c r="A154" s="1" t="str"/>
       <c r="B154" s="1" t="str"/>
       <c r="C154" s="1" t="str"/>
@@ -4204,7 +4082,7 @@
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="155">
+    <row customHeight="true" ht="23" r="155">
       <c r="A155" s="1" t="str"/>
       <c r="B155" s="1" t="str"/>
       <c r="C155" s="1" t="str"/>
@@ -4218,7 +4096,7 @@
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="156">
+    <row customHeight="true" ht="23" r="156">
       <c r="A156" s="1" t="str"/>
       <c r="B156" s="1" t="str"/>
       <c r="C156" s="1" t="str"/>
@@ -4232,7 +4110,7 @@
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="157">
+    <row customHeight="true" ht="23" r="157">
       <c r="A157" s="1" t="str"/>
       <c r="B157" s="1" t="str"/>
       <c r="C157" s="1" t="str"/>
@@ -4246,7 +4124,7 @@
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="158">
+    <row customHeight="true" ht="23" r="158">
       <c r="A158" s="1" t="str"/>
       <c r="B158" s="1" t="str"/>
       <c r="C158" s="1" t="str"/>
@@ -4260,7 +4138,7 @@
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="159">
+    <row customHeight="true" ht="23" r="159">
       <c r="A159" s="1" t="str"/>
       <c r="B159" s="1" t="str"/>
       <c r="C159" s="1" t="str"/>
@@ -4274,7 +4152,7 @@
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="160">
+    <row customHeight="true" ht="23" r="160">
       <c r="A160" s="1" t="str"/>
       <c r="B160" s="1" t="str"/>
       <c r="C160" s="1" t="str"/>
@@ -4288,7 +4166,7 @@
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="161">
+    <row customHeight="true" ht="23" r="161">
       <c r="A161" s="1" t="str"/>
       <c r="B161" s="1" t="str"/>
       <c r="C161" s="1" t="str"/>
@@ -4302,7 +4180,7 @@
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="162">
+    <row customHeight="true" ht="23" r="162">
       <c r="A162" s="1" t="str"/>
       <c r="B162" s="1" t="str"/>
       <c r="C162" s="1" t="str"/>
@@ -4316,7 +4194,7 @@
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="163">
+    <row customHeight="true" ht="23" r="163">
       <c r="A163" s="1" t="str"/>
       <c r="B163" s="1" t="str"/>
       <c r="C163" s="1" t="str"/>
@@ -4330,7 +4208,7 @@
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="164">
+    <row customHeight="true" ht="23" r="164">
       <c r="A164" s="1" t="str"/>
       <c r="B164" s="1" t="str"/>
       <c r="C164" s="1" t="str"/>
@@ -4344,7 +4222,7 @@
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="165">
+    <row customHeight="true" ht="23" r="165">
       <c r="A165" s="1" t="str"/>
       <c r="B165" s="1" t="str"/>
       <c r="C165" s="1" t="str"/>
@@ -4358,7 +4236,7 @@
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="166">
+    <row customHeight="true" ht="23" r="166">
       <c r="A166" s="1" t="str"/>
       <c r="B166" s="1" t="str"/>
       <c r="C166" s="1" t="str"/>
@@ -4372,7 +4250,7 @@
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="167">
+    <row customHeight="true" ht="23" r="167">
       <c r="A167" s="1" t="str"/>
       <c r="B167" s="1" t="str"/>
       <c r="C167" s="1" t="str"/>
@@ -4386,7 +4264,7 @@
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="168">
+    <row customHeight="true" ht="23" r="168">
       <c r="A168" s="1" t="str"/>
       <c r="B168" s="1" t="str"/>
       <c r="C168" s="1" t="str"/>
@@ -4400,7 +4278,7 @@
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="169">
+    <row customHeight="true" ht="23" r="169">
       <c r="A169" s="1" t="str"/>
       <c r="B169" s="1" t="str"/>
       <c r="C169" s="1" t="str"/>
@@ -4414,7 +4292,7 @@
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="170">
+    <row customHeight="true" ht="23" r="170">
       <c r="A170" s="1" t="str"/>
       <c r="B170" s="1" t="str"/>
       <c r="C170" s="1" t="str"/>
@@ -4428,7 +4306,7 @@
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="171">
+    <row customHeight="true" ht="23" r="171">
       <c r="A171" s="1" t="str"/>
       <c r="B171" s="1" t="str"/>
       <c r="C171" s="1" t="str"/>
@@ -4442,7 +4320,7 @@
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="172">
+    <row customHeight="true" ht="23" r="172">
       <c r="A172" s="1" t="str"/>
       <c r="B172" s="1" t="str"/>
       <c r="C172" s="1" t="str"/>
@@ -4456,7 +4334,7 @@
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="173">
+    <row customHeight="true" ht="23" r="173">
       <c r="A173" s="1" t="str"/>
       <c r="B173" s="1" t="str"/>
       <c r="C173" s="1" t="str"/>
@@ -4470,7 +4348,7 @@
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="174">
+    <row customHeight="true" ht="23" r="174">
       <c r="A174" s="1" t="str"/>
       <c r="B174" s="1" t="str"/>
       <c r="C174" s="1" t="str"/>
@@ -4484,7 +4362,7 @@
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="175">
+    <row customHeight="true" ht="23" r="175">
       <c r="A175" s="1" t="str"/>
       <c r="B175" s="1" t="str"/>
       <c r="C175" s="1" t="str"/>
@@ -4498,7 +4376,7 @@
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="176">
+    <row customHeight="true" ht="23" r="176">
       <c r="A176" s="1" t="str"/>
       <c r="B176" s="1" t="str"/>
       <c r="C176" s="1" t="str"/>
@@ -4512,7 +4390,7 @@
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="177">
+    <row customHeight="true" ht="23" r="177">
       <c r="A177" s="1" t="str"/>
       <c r="B177" s="1" t="str"/>
       <c r="C177" s="1" t="str"/>
@@ -4526,7 +4404,7 @@
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="178">
+    <row customHeight="true" ht="23" r="178">
       <c r="A178" s="1" t="str"/>
       <c r="B178" s="1" t="str"/>
       <c r="C178" s="1" t="str"/>
@@ -4540,7 +4418,7 @@
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="179">
+    <row customHeight="true" ht="23" r="179">
       <c r="A179" s="1" t="str"/>
       <c r="B179" s="1" t="str"/>
       <c r="C179" s="1" t="str"/>
@@ -4554,7 +4432,7 @@
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="180">
+    <row customHeight="true" ht="23" r="180">
       <c r="A180" s="1" t="str"/>
       <c r="B180" s="1" t="str"/>
       <c r="C180" s="1" t="str"/>
@@ -4568,7 +4446,7 @@
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="181">
+    <row customHeight="true" ht="23" r="181">
       <c r="A181" s="1" t="str"/>
       <c r="B181" s="1" t="str"/>
       <c r="C181" s="1" t="str"/>
@@ -4582,7 +4460,7 @@
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="182">
+    <row customHeight="true" ht="23" r="182">
       <c r="A182" s="1" t="str"/>
       <c r="B182" s="1" t="str"/>
       <c r="C182" s="1" t="str"/>
@@ -4596,7 +4474,7 @@
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="183">
+    <row customHeight="true" ht="23" r="183">
       <c r="A183" s="1" t="str"/>
       <c r="B183" s="1" t="str"/>
       <c r="C183" s="1" t="str"/>
@@ -4610,7 +4488,7 @@
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="184">
+    <row customHeight="true" ht="23" r="184">
       <c r="A184" s="1" t="str"/>
       <c r="B184" s="1" t="str"/>
       <c r="C184" s="1" t="str"/>
@@ -4624,7 +4502,7 @@
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="185">
+    <row customHeight="true" ht="23" r="185">
       <c r="A185" s="1" t="str"/>
       <c r="B185" s="1" t="str"/>
       <c r="C185" s="1" t="str"/>
@@ -4638,7 +4516,7 @@
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="186">
+    <row customHeight="true" ht="23" r="186">
       <c r="A186" s="1" t="str"/>
       <c r="B186" s="1" t="str"/>
       <c r="C186" s="1" t="str"/>
@@ -4652,7 +4530,7 @@
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="187">
+    <row customHeight="true" ht="23" r="187">
       <c r="A187" s="1" t="str"/>
       <c r="B187" s="1" t="str"/>
       <c r="C187" s="1" t="str"/>
@@ -4666,7 +4544,7 @@
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="188">
+    <row customHeight="true" ht="23" r="188">
       <c r="A188" s="1" t="str"/>
       <c r="B188" s="1" t="str"/>
       <c r="C188" s="1" t="str"/>
@@ -4680,7 +4558,7 @@
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="189">
+    <row customHeight="true" ht="23" r="189">
       <c r="A189" s="1" t="str"/>
       <c r="B189" s="1" t="str"/>
       <c r="C189" s="1" t="str"/>
@@ -4694,7 +4572,7 @@
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="190">
+    <row customHeight="true" ht="23" r="190">
       <c r="A190" s="1" t="str"/>
       <c r="B190" s="1" t="str"/>
       <c r="C190" s="1" t="str"/>
@@ -4708,7 +4586,7 @@
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="191">
+    <row customHeight="true" ht="23" r="191">
       <c r="A191" s="1" t="str"/>
       <c r="B191" s="1" t="str"/>
       <c r="C191" s="1" t="str"/>
@@ -4722,7 +4600,7 @@
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="192">
+    <row customHeight="true" ht="23" r="192">
       <c r="A192" s="1" t="str"/>
       <c r="B192" s="1" t="str"/>
       <c r="C192" s="1" t="str"/>
@@ -4736,7 +4614,7 @@
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="193">
+    <row customHeight="true" ht="23" r="193">
       <c r="A193" s="1" t="str"/>
       <c r="B193" s="1" t="str"/>
       <c r="C193" s="1" t="str"/>
@@ -4750,7 +4628,7 @@
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="194">
+    <row customHeight="true" ht="23" r="194">
       <c r="A194" s="1" t="str"/>
       <c r="B194" s="1" t="str"/>
       <c r="C194" s="1" t="str"/>
@@ -4764,7 +4642,7 @@
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="195">
+    <row customHeight="true" ht="23" r="195">
       <c r="A195" s="1" t="str"/>
       <c r="B195" s="1" t="str"/>
       <c r="C195" s="1" t="str"/>
@@ -4778,7 +4656,7 @@
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="196">
+    <row customHeight="true" ht="23" r="196">
       <c r="A196" s="1" t="str"/>
       <c r="B196" s="1" t="str"/>
       <c r="C196" s="1" t="str"/>
@@ -4792,7 +4670,7 @@
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="197">
+    <row customHeight="true" ht="23" r="197">
       <c r="A197" s="1" t="str"/>
       <c r="B197" s="1" t="str"/>
       <c r="C197" s="1" t="str"/>
@@ -4806,7 +4684,7 @@
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="198">
+    <row customHeight="true" ht="23" r="198">
       <c r="A198" s="1" t="str"/>
       <c r="B198" s="1" t="str"/>
       <c r="C198" s="1" t="str"/>
@@ -4820,7 +4698,7 @@
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="199">
+    <row customHeight="true" ht="23" r="199">
       <c r="A199" s="1" t="str"/>
       <c r="B199" s="1" t="str"/>
       <c r="C199" s="1" t="str"/>
@@ -4834,7 +4712,7 @@
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="200">
+    <row customHeight="true" ht="23" r="200">
       <c r="A200" s="1" t="str"/>
       <c r="B200" s="1" t="str"/>
       <c r="C200" s="1" t="str"/>
@@ -4848,7 +4726,7 @@
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="201">
+    <row customHeight="true" ht="23" r="201">
       <c r="A201" s="1" t="str"/>
       <c r="B201" s="1" t="str"/>
       <c r="C201" s="1" t="str"/>
@@ -4862,7 +4740,7 @@
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="202">
+    <row customHeight="true" ht="23" r="202">
       <c r="A202" s="1" t="str"/>
       <c r="B202" s="1" t="str"/>
       <c r="C202" s="1" t="str"/>
@@ -4876,7 +4754,7 @@
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="203">
+    <row customHeight="true" ht="23" r="203">
       <c r="A203" s="1" t="str"/>
       <c r="B203" s="1" t="str"/>
       <c r="C203" s="1" t="str"/>
@@ -4890,7 +4768,7 @@
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="204">
+    <row customHeight="true" ht="23" r="204">
       <c r="A204" s="1" t="str"/>
       <c r="B204" s="1" t="str"/>
       <c r="C204" s="1" t="str"/>
@@ -4904,7 +4782,7 @@
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="205">
+    <row customHeight="true" ht="23" r="205">
       <c r="A205" s="1" t="str"/>
       <c r="B205" s="1" t="str"/>
       <c r="C205" s="1" t="str"/>
@@ -4918,7 +4796,7 @@
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="206">
+    <row customHeight="true" ht="23" r="206">
       <c r="A206" s="1" t="str"/>
       <c r="B206" s="1" t="str"/>
       <c r="C206" s="1" t="str"/>
@@ -4932,7 +4810,7 @@
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="207">
+    <row customHeight="true" ht="23" r="207">
       <c r="A207" s="1" t="str"/>
       <c r="B207" s="1" t="str"/>
       <c r="C207" s="1" t="str"/>
@@ -4946,7 +4824,7 @@
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="208">
+    <row customHeight="true" ht="23" r="208">
       <c r="A208" s="1" t="str"/>
       <c r="B208" s="1" t="str"/>
       <c r="C208" s="1" t="str"/>
@@ -4960,7 +4838,7 @@
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="209">
+    <row customHeight="true" ht="23" r="209">
       <c r="A209" s="1" t="str"/>
       <c r="B209" s="1" t="str"/>
       <c r="C209" s="1" t="str"/>
@@ -4974,7 +4852,7 @@
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="210">
+    <row customHeight="true" ht="23" r="210">
       <c r="A210" s="1" t="str"/>
       <c r="B210" s="1" t="str"/>
       <c r="C210" s="1" t="str"/>
@@ -4988,7 +4866,7 @@
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="211">
+    <row customHeight="true" ht="23" r="211">
       <c r="A211" s="1" t="str"/>
       <c r="B211" s="1" t="str"/>
       <c r="C211" s="1" t="str"/>
@@ -5002,7 +4880,7 @@
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="212">
+    <row customHeight="true" ht="23" r="212">
       <c r="A212" s="1" t="str"/>
       <c r="B212" s="1" t="str"/>
       <c r="C212" s="1" t="str"/>
@@ -5016,7 +4894,7 @@
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="213">
+    <row customHeight="true" ht="23" r="213">
       <c r="A213" s="1" t="str"/>
       <c r="B213" s="1" t="str"/>
       <c r="C213" s="1" t="str"/>
@@ -5030,7 +4908,7 @@
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="214">
+    <row customHeight="true" ht="23" r="214">
       <c r="A214" s="1" t="str"/>
       <c r="B214" s="1" t="str"/>
       <c r="C214" s="1" t="str"/>
@@ -5044,7 +4922,7 @@
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="215">
+    <row customHeight="true" ht="23" r="215">
       <c r="A215" s="1" t="str"/>
       <c r="B215" s="1" t="str"/>
       <c r="C215" s="1" t="str"/>
@@ -5058,7 +4936,7 @@
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="216">
+    <row customHeight="true" ht="23" r="216">
       <c r="A216" s="1" t="str"/>
       <c r="B216" s="1" t="str"/>
       <c r="C216" s="1" t="str"/>
@@ -5072,7 +4950,7 @@
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="217">
+    <row customHeight="true" ht="23" r="217">
       <c r="A217" s="1" t="str"/>
       <c r="B217" s="1" t="str"/>
       <c r="C217" s="1" t="str"/>
@@ -5086,7 +4964,7 @@
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="218">
+    <row customHeight="true" ht="23" r="218">
       <c r="A218" s="1" t="str"/>
       <c r="B218" s="1" t="str"/>
       <c r="C218" s="1" t="str"/>
@@ -5100,7 +4978,7 @@
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="219">
+    <row customHeight="true" ht="23" r="219">
       <c r="A219" s="1" t="str"/>
       <c r="B219" s="1" t="str"/>
       <c r="C219" s="1" t="str"/>
@@ -5114,7 +4992,7 @@
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="220">
+    <row customHeight="true" ht="23" r="220">
       <c r="A220" s="1" t="str"/>
       <c r="B220" s="1" t="str"/>
       <c r="C220" s="1" t="str"/>
@@ -5128,7 +5006,7 @@
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="221">
+    <row customHeight="true" ht="23" r="221">
       <c r="A221" s="1" t="str"/>
       <c r="B221" s="1" t="str"/>
       <c r="C221" s="1" t="str"/>
@@ -5142,7 +5020,7 @@
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="222">
+    <row customHeight="true" ht="23" r="222">
       <c r="A222" s="1" t="str"/>
       <c r="B222" s="1" t="str"/>
       <c r="C222" s="1" t="str"/>
@@ -5156,7 +5034,7 @@
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="223">
+    <row customHeight="true" ht="23" r="223">
       <c r="A223" s="1" t="str"/>
       <c r="B223" s="1" t="str"/>
       <c r="C223" s="1" t="str"/>
@@ -5170,7 +5048,7 @@
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="224">
+    <row customHeight="true" ht="23" r="224">
       <c r="A224" s="1" t="str"/>
       <c r="B224" s="1" t="str"/>
       <c r="C224" s="1" t="str"/>
@@ -5184,7 +5062,7 @@
       <c r="K224" s="1"/>
       <c r="L224" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="225">
+    <row customHeight="true" ht="23" r="225">
       <c r="A225" s="1" t="str"/>
       <c r="B225" s="1" t="str"/>
       <c r="C225" s="1" t="str"/>
@@ -5198,7 +5076,7 @@
       <c r="K225" s="1"/>
       <c r="L225" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="226">
+    <row customHeight="true" ht="23" r="226">
       <c r="A226" s="1" t="str"/>
       <c r="B226" s="1" t="str"/>
       <c r="C226" s="1" t="str"/>
@@ -5212,7 +5090,7 @@
       <c r="K226" s="1"/>
       <c r="L226" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="227">
+    <row customHeight="true" ht="23" r="227">
       <c r="A227" s="1" t="str"/>
       <c r="B227" s="1" t="str"/>
       <c r="C227" s="1" t="str"/>
@@ -5226,7 +5104,7 @@
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="228">
+    <row customHeight="true" ht="23" r="228">
       <c r="A228" s="1" t="str"/>
       <c r="B228" s="1" t="str"/>
       <c r="C228" s="1" t="str"/>
@@ -5240,7 +5118,7 @@
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="229">
+    <row customHeight="true" ht="23" r="229">
       <c r="A229" s="1" t="str"/>
       <c r="B229" s="1" t="str"/>
       <c r="C229" s="1" t="str"/>
@@ -5254,7 +5132,7 @@
       <c r="K229" s="1"/>
       <c r="L229" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="230">
+    <row customHeight="true" ht="23" r="230">
       <c r="A230" s="1" t="str"/>
       <c r="B230" s="1" t="str"/>
       <c r="C230" s="1" t="str"/>
@@ -5268,7 +5146,7 @@
       <c r="K230" s="1"/>
       <c r="L230" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="231">
+    <row customHeight="true" ht="23" r="231">
       <c r="A231" s="1" t="str"/>
       <c r="B231" s="1" t="str"/>
       <c r="C231" s="1" t="str"/>
@@ -5282,7 +5160,7 @@
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="232">
+    <row customHeight="true" ht="23" r="232">
       <c r="A232" s="1" t="str"/>
       <c r="B232" s="1" t="str"/>
       <c r="C232" s="1" t="str"/>
@@ -5296,7 +5174,7 @@
       <c r="K232" s="1"/>
       <c r="L232" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="233">
+    <row customHeight="true" ht="23" r="233">
       <c r="A233" s="1" t="str"/>
       <c r="B233" s="1" t="str"/>
       <c r="C233" s="1" t="str"/>
@@ -5310,7 +5188,7 @@
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="234">
+    <row customHeight="true" ht="23" r="234">
       <c r="A234" s="1" t="str"/>
       <c r="B234" s="1" t="str"/>
       <c r="C234" s="1" t="str"/>
@@ -5324,7 +5202,7 @@
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="235">
+    <row customHeight="true" ht="23" r="235">
       <c r="A235" s="1" t="str"/>
       <c r="B235" s="1" t="str"/>
       <c r="C235" s="1" t="str"/>
@@ -5338,7 +5216,7 @@
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="236">
+    <row customHeight="true" ht="23" r="236">
       <c r="A236" s="1" t="str"/>
       <c r="B236" s="1" t="str"/>
       <c r="C236" s="1" t="str"/>
@@ -5352,7 +5230,7 @@
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="237">
+    <row customHeight="true" ht="23" r="237">
       <c r="A237" s="1" t="str"/>
       <c r="B237" s="1" t="str"/>
       <c r="C237" s="1" t="str"/>
@@ -5366,7 +5244,7 @@
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="238">
+    <row customHeight="true" ht="23" r="238">
       <c r="A238" s="1" t="str"/>
       <c r="B238" s="1" t="str"/>
       <c r="C238" s="1" t="str"/>
@@ -5380,7 +5258,7 @@
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="239">
+    <row customHeight="true" ht="23" r="239">
       <c r="A239" s="1" t="str"/>
       <c r="B239" s="1" t="str"/>
       <c r="C239" s="1" t="str"/>
@@ -5394,7 +5272,7 @@
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="240">
+    <row customHeight="true" ht="23" r="240">
       <c r="A240" s="1" t="str"/>
       <c r="B240" s="1" t="str"/>
       <c r="C240" s="1" t="str"/>
@@ -5408,7 +5286,7 @@
       <c r="K240" s="1"/>
       <c r="L240" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="241">
+    <row customHeight="true" ht="23" r="241">
       <c r="A241" s="1" t="str"/>
       <c r="B241" s="1" t="str"/>
       <c r="C241" s="1" t="str"/>

--- a/wolf/Excel/Rule_规则表.xlsx
+++ b/wolf/Excel/Rule_规则表.xlsx
@@ -34,94 +34,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="24">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,35 +58,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFF54A45"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,27 +66,6 @@
     <font>
       <sz val="9.75"/>
       <color rgb="FF606266"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,6 +92,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDEE0E3"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE0E3"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE0E3"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFDDDEF"/>
         <bgColor/>
       </patternFill>
@@ -243,6 +134,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFAF1D1"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF1D1"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9F5D6"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9F5D6"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3DD40"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFED4A4"/>
         <bgColor/>
       </patternFill>
@@ -255,7 +176,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
+        <fgColor rgb="FFEEF6C6"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -279,61 +200,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDEE0E3"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEE0E3"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAF1D1"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAF1D1"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC3DD40"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF5F7FA"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEE0E3"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -524,70 +391,70 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="4" fontId="5" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="6" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="5" fontId="6" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="8" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="9" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="6" fontId="7" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="10" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="7" fontId="8" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="11" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="8" fontId="9" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="12" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="9" fontId="10" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="13" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="10" fontId="11" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="14" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="15" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="11" fontId="12" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="16" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="12" fontId="13" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="17" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="18" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="19" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="13" fontId="14" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="14" fontId="15" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="15" fontId="16" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="20" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="16" fontId="17" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="17" fontId="18" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="18" fontId="19" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="19" fontId="20" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="21" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="20" fontId="21" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="21" fontId="22" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="22" fontId="23" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="22" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -959,31 +826,31 @@
       <c r="G1" s="1" t="str">
         <v>Float</v>
       </c>
-      <c r="H1" s="3" t="str">
+      <c r="H1" s="2" t="str">
         <v>Float[]</v>
       </c>
-      <c r="I1" s="3" t="str">
+      <c r="I1" s="2" t="str">
         <v>String</v>
       </c>
-      <c r="J1" s="3" t="str">
+      <c r="J1" s="2" t="str">
         <v>Vector3</v>
       </c>
-      <c r="K1" s="3" t="str">
+      <c r="K1" s="2" t="str">
         <v>String</v>
       </c>
-      <c r="L1" s="3" t="str">
+      <c r="L1" s="2" t="str">
         <v>Float</v>
       </c>
-      <c r="M1" s="3" t="str">
+      <c r="M1" s="2" t="str">
         <v>Float[]</v>
       </c>
-      <c r="N1" s="3" t="str">
+      <c r="N1" s="2" t="str">
         <v>Vector3</v>
       </c>
-      <c r="O1" s="3" t="str">
+      <c r="O1" s="2" t="str">
         <v>Vector3</v>
       </c>
-      <c r="P1" s="3" t="str">
+      <c r="P1" s="2" t="str">
         <v>String[]</v>
       </c>
     </row>
@@ -1021,19 +888,19 @@
       <c r="K2" s="1" t="str">
         <v>Guid</v>
       </c>
-      <c r="L2" s="3" t="str">
+      <c r="L2" s="2" t="str">
         <v>Volume</v>
       </c>
-      <c r="M2" s="3" t="str">
+      <c r="M2" s="2" t="str">
         <v>SoundParam</v>
       </c>
-      <c r="N2" s="3" t="str">
+      <c r="N2" s="2" t="str">
         <v>Pos</v>
       </c>
-      <c r="O2" s="3" t="str">
+      <c r="O2" s="2" t="str">
         <v>Scale</v>
       </c>
-      <c r="P2" s="3" t="str">
+      <c r="P2" s="2" t="str">
         <v>GuidList</v>
       </c>
     </row>
@@ -1074,19 +941,19 @@
       <c r="K3" s="1" t="str">
         <v>Guid</v>
       </c>
-      <c r="L3" s="3" t="str">
+      <c r="L3" s="2" t="str">
         <v>音量</v>
       </c>
-      <c r="M3" s="3" t="str">
+      <c r="M3" s="2" t="str">
         <v>范围音效参数</v>
       </c>
-      <c r="N3" s="3" t="str">
+      <c r="N3" s="2" t="str">
         <v>偏移</v>
       </c>
-      <c r="O3" s="3" t="str">
+      <c r="O3" s="2" t="str">
         <v>缩放</v>
       </c>
-      <c r="P3" s="3" t="str">
+      <c r="P3" s="2" t="str">
         <v>Guid数组</v>
       </c>
     </row>
@@ -1123,10 +990,10 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="6">
       <c r="A6" s="1">
@@ -1138,7 +1005,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1396,7 +1263,7 @@
       <c r="A19" s="1">
         <v>10015</v>
       </c>
-      <c r="B19" s="3" t="str">
+      <c r="B19" s="2" t="str">
         <v>生命值</v>
       </c>
       <c r="C19" s="1" t="str">
@@ -1418,7 +1285,7 @@
       <c r="A20" s="1">
         <v>10016</v>
       </c>
-      <c r="B20" s="3" t="str">
+      <c r="B20" s="2" t="str">
         <v>移动速度</v>
       </c>
       <c r="C20" s="1" t="str">
@@ -1462,7 +1329,7 @@
       <c r="A22" s="1">
         <v>10018</v>
       </c>
-      <c r="B22" s="3" t="str">
+      <c r="B22" s="2" t="str">
         <v>最大跳跃次数</v>
       </c>
       <c r="C22" s="1" t="str">
@@ -1524,12 +1391,12 @@
       <c r="A25" s="1">
         <v>10021</v>
       </c>
-      <c r="B25" s="2" t="str">
+      <c r="B25" s="3" t="str">
         <v>近战武器延迟检测时长</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>0.2</v>
       </c>
       <c r="F25" s="1"/>
@@ -1544,12 +1411,12 @@
       <c r="A26" s="1">
         <v>10022</v>
       </c>
-      <c r="B26" s="2" t="str">
+      <c r="B26" s="3" t="str">
         <v>攻击动作和攻击特效间隔时长</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>0.4</v>
       </c>
       <c r="F26" s="1"/>
@@ -1569,7 +1436,7 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>0.5</v>
       </c>
       <c r="F27" s="1"/>
@@ -1591,7 +1458,7 @@
       <c r="D28" s="1">
         <v>440</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1613,7 +1480,7 @@
       <c r="D29" s="1">
         <v>10</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="2"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1621,10 +1488,10 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="30">
       <c r="A30" s="1">
@@ -1634,8 +1501,8 @@
         <v>存活人数默认颜色（白）</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1645,10 +1512,10 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="31">
       <c r="A31" s="1">
@@ -1658,8 +1525,8 @@
         <v>存活人数激活颜色（红）</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1669,10 +1536,10 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="32">
       <c r="A32" s="1">
@@ -1682,10 +1549,10 @@
         <v>学生每秒获得经验值</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>5</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="2"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1693,10 +1560,10 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="33">
       <c r="A33" s="1">
@@ -1708,8 +1575,8 @@
       <c r="C33" s="1" t="str">
         <v>&lt;准备时长</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
         <v>1.5</v>
       </c>
       <c r="F33" s="1"/>
@@ -1719,10 +1586,10 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="34">
       <c r="A34" s="1">
@@ -1732,8 +1599,8 @@
         <v>结算-动画结束后的界面显示时长</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2">
         <v>5</v>
       </c>
       <c r="F34" s="1"/>
@@ -1754,8 +1621,8 @@
       <c r="C35" s="1" t="str">
         <v>暂时ID，后期需修改为正式图标</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1776,8 +1643,8 @@
       <c r="C36" s="1" t="str">
         <v>暂时ID，后期需修改为正式图标</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1798,8 +1665,8 @@
       <c r="C37" s="1" t="str">
         <v>暂时ID，后期需修改为正式图标</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1820,8 +1687,8 @@
       <c r="C38" s="1" t="str">
         <v>暂时ID，后期需修改为正式图标</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1842,8 +1709,8 @@
       <c r="C39" s="1" t="str">
         <v>暂时ID，后期需修改为正式图标</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1864,8 +1731,8 @@
       <c r="C40" s="1" t="str">
         <v>暂时ID，后期需修改为正式图标</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -1884,8 +1751,8 @@
         <v>场景内AI穿透名字屏蔽</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -1895,10 +1762,10 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="42">
       <c r="A42" s="1">
@@ -1908,8 +1775,8 @@
         <v>场景内AI穿透名字屏蔽</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -1919,10 +1786,10 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="43">
       <c r="A43" s="1">
@@ -1932,8 +1799,8 @@
         <v>死亡动作恢复时间延迟</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2">
         <v>7</v>
       </c>
       <c r="F43" s="1"/>
@@ -1943,10 +1810,10 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="44">
       <c r="A44" s="1">
@@ -1956,8 +1823,8 @@
         <v>Loading时间</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3">
+      <c r="D44" s="2"/>
+      <c r="E44" s="2">
         <v>6</v>
       </c>
       <c r="F44" s="1"/>
@@ -1967,10 +1834,10 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="45">
       <c r="A45" s="1">
@@ -1980,8 +1847,8 @@
         <v>尸体死亡姿态</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -1989,114 +1856,114 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3" t="str">
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2" t="str">
         <v>4174|122235|15847</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="46">
-      <c r="A46" s="15">
+      <c r="A46" s="14">
         <v>10042</v>
       </c>
-      <c r="B46" s="15" t="str">
+      <c r="B46" s="14" t="str">
         <v>金币图标GUID</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="16">
+      <c r="C46" s="14"/>
+      <c r="D46" s="13">
         <v>163449</v>
       </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
     </row>
     <row customHeight="true" ht="23" r="47">
-      <c r="A47" s="15">
+      <c r="A47" s="14">
         <v>10043</v>
       </c>
-      <c r="B47" s="15" t="str">
+      <c r="B47" s="14" t="str">
         <v>钻石图标GUID</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="3">
+      <c r="C47" s="14"/>
+      <c r="D47" s="2">
         <v>176091</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
     </row>
     <row customHeight="true" ht="23" r="48">
-      <c r="A48" s="15">
+      <c r="A48" s="14">
         <v>10044</v>
       </c>
-      <c r="B48" s="15" t="str">
+      <c r="B48" s="14" t="str">
         <v>广告券图标GUID</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="16">
+      <c r="C48" s="14"/>
+      <c r="D48" s="13">
         <v>181394</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
     </row>
     <row customHeight="true" ht="23" r="49">
-      <c r="A49" s="15">
+      <c r="A49" s="14">
         <v>10045</v>
       </c>
-      <c r="B49" s="15" t="str">
+      <c r="B49" s="14" t="str">
         <v>超级特权钥匙图标GUID</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="16">
+      <c r="C49" s="14"/>
+      <c r="D49" s="13">
         <v>37744</v>
       </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
     </row>
     <row customHeight="true" ht="23" r="50">
       <c r="A50" s="1">
         <v>20001</v>
       </c>
-      <c r="B50" s="2" t="str">
+      <c r="B50" s="3" t="str">
         <v>子弹速度</v>
       </c>
       <c r="C50" s="1" t="str">
@@ -2105,7 +1972,7 @@
       <c r="D50" s="1">
         <v>6000</v>
       </c>
-      <c r="E50" s="3"/>
+      <c r="E50" s="2"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2118,16 +1985,16 @@
       <c r="A51" s="1">
         <v>20002</v>
       </c>
-      <c r="B51" s="2" t="str">
+      <c r="B51" s="3" t="str">
         <v>飞刀速度</v>
       </c>
-      <c r="C51" s="3" t="str">
+      <c r="C51" s="2" t="str">
         <v>KnifeSpeed</v>
       </c>
       <c r="D51" s="1">
         <v>1500</v>
       </c>
-      <c r="E51" s="3"/>
+      <c r="E51" s="2"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2149,7 +2016,7 @@
       <c r="D52" s="1">
         <v>3</v>
       </c>
-      <c r="E52" s="3"/>
+      <c r="E52" s="2"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -2162,12 +2029,12 @@
       <c r="A53" s="1">
         <v>20006</v>
       </c>
-      <c r="B53" s="2" t="str">
+      <c r="B53" s="3" t="str">
         <v>近战扇形角度</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="3"/>
+      <c r="E53" s="2"/>
       <c r="F53" s="1">
         <v>180</v>
       </c>
@@ -2182,12 +2049,12 @@
       <c r="A54" s="1">
         <v>20008</v>
       </c>
-      <c r="B54" s="2" t="str">
+      <c r="B54" s="3" t="str">
         <v>近战扇形半径</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="3"/>
+      <c r="E54" s="2"/>
       <c r="F54" s="1">
         <v>120</v>
       </c>
@@ -2199,15 +2066,15 @@
       <c r="L54" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="55">
-      <c r="A55" s="19">
+      <c r="A55" s="15">
         <v>20010</v>
       </c>
-      <c r="B55" s="2" t="str">
+      <c r="B55" s="3" t="str">
         <v>近战扇形最高高度</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="3"/>
+      <c r="E55" s="2"/>
       <c r="F55" s="1">
         <v>300</v>
       </c>
@@ -2219,15 +2086,15 @@
       <c r="L55" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="56">
-      <c r="A56" s="19">
+      <c r="A56" s="15">
         <v>20012</v>
       </c>
-      <c r="B56" s="2" t="str">
+      <c r="B56" s="3" t="str">
         <v>近战扇形最低高度</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="3"/>
+      <c r="E56" s="2"/>
       <c r="F56" s="1">
         <v>-300</v>
       </c>
@@ -2257,10 +2124,10 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="58">
       <c r="A58" s="1">
@@ -2283,10 +2150,10 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="59">
       <c r="A59" s="1">
@@ -2307,10 +2174,10 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="60">
       <c r="A60" s="1">
@@ -2331,10 +2198,10 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="61">
       <c r="A61" s="1">
@@ -2355,10 +2222,10 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="62">
       <c r="A62" s="1">
@@ -2379,10 +2246,10 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="63">
       <c r="A63" s="1">
@@ -2403,10 +2270,10 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="64">
       <c r="A64" s="1">
@@ -2427,40 +2294,40 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="65">
-      <c r="A65" s="4">
+      <c r="A65" s="7">
         <v>30009</v>
       </c>
-      <c r="B65" s="4" t="str">
+      <c r="B65" s="7" t="str">
         <v>会员特权昵称变色</v>
       </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4" t="str">
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7" t="str">
         <v>#FF1242</v>
       </c>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
     </row>
     <row customHeight="true" ht="23" r="66">
-      <c r="A66" s="4">
+      <c r="A66" s="7">
         <v>30010</v>
       </c>
-      <c r="B66" s="2" t="str">
+      <c r="B66" s="3" t="str">
         <v>会员界面开放场数要求</v>
       </c>
       <c r="C66" s="1"/>
@@ -2480,7 +2347,7 @@
       <c r="A67" s="1">
         <v>40001</v>
       </c>
-      <c r="B67" s="2" t="str">
+      <c r="B67" s="3" t="str">
         <v>自动瞄准索敌半径</v>
       </c>
       <c r="C67" s="1"/>
@@ -2524,7 +2391,7 @@
         <v>瞄准ui缩放下限</v>
       </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="3"/>
+      <c r="D69" s="2"/>
       <c r="E69" s="1">
         <v>0.2</v>
       </c>
@@ -2540,7 +2407,7 @@
       <c r="A70" s="1">
         <v>40004</v>
       </c>
-      <c r="B70" s="2" t="str">
+      <c r="B70" s="3" t="str">
         <v>攻击检测半径</v>
       </c>
       <c r="C70" s="1"/>
@@ -2584,7 +2451,7 @@
         <v>等级UI最小缩小</v>
       </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="3"/>
+      <c r="D72" s="2"/>
       <c r="E72" s="1">
         <v>0.4</v>
       </c>
@@ -2600,11 +2467,11 @@
       <c r="A73" s="1">
         <v>40007</v>
       </c>
-      <c r="B73" s="2" t="str">
+      <c r="B73" s="3" t="str">
         <v>警察开枪CD</v>
       </c>
       <c r="C73" s="1"/>
-      <c r="D73" s="3"/>
+      <c r="D73" s="2"/>
       <c r="E73" s="1">
         <v>3</v>
       </c>
@@ -2620,11 +2487,11 @@
       <c r="A74" s="1">
         <v>40008</v>
       </c>
-      <c r="B74" s="2" t="str">
+      <c r="B74" s="3" t="str">
         <v>警察开枪动作/音效持续时间</v>
       </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="3"/>
+      <c r="D74" s="2"/>
       <c r="E74" s="1">
         <v>3.2</v>
       </c>
@@ -2640,11 +2507,11 @@
       <c r="A75" s="1">
         <v>40009</v>
       </c>
-      <c r="B75" s="2" t="str">
+      <c r="B75" s="3" t="str">
         <v>飞刀CD</v>
       </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="3"/>
+      <c r="D75" s="2"/>
       <c r="E75" s="1">
         <v>3</v>
       </c>
@@ -2657,14 +2524,14 @@
       <c r="L75" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="76">
-      <c r="A76" s="19">
+      <c r="A76" s="15">
         <v>40010</v>
       </c>
-      <c r="B76" s="2" t="str">
+      <c r="B76" s="3" t="str">
         <v>飞刀旋转速度</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="3"/>
+      <c r="D76" s="2"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1">
         <v>360</v>
@@ -2680,11 +2547,11 @@
       <c r="A77" s="1">
         <v>40011</v>
       </c>
-      <c r="B77" s="2" t="str">
+      <c r="B77" s="3" t="str">
         <v>近战挥刀间隔</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="3"/>
+      <c r="D77" s="2"/>
       <c r="E77" s="1">
         <v>1</v>
       </c>
@@ -2700,12 +2567,12 @@
       <c r="A78" s="1">
         <v>50001</v>
       </c>
-      <c r="B78" s="3" t="str">
+      <c r="B78" s="2" t="str">
         <v>黑幕时间</v>
       </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3">
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2">
         <v>5</v>
       </c>
       <c r="F78" s="1"/>
@@ -2861,436 +2728,436 @@
       <c r="L85" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="86">
-      <c r="A86" s="12">
+      <c r="A86" s="4">
         <v>60001</v>
       </c>
-      <c r="B86" s="12" t="str">
+      <c r="B86" s="4" t="str">
         <v>击杀额外范围音效</v>
       </c>
-      <c r="C86" s="12" t="str"/>
-      <c r="D86" s="12" t="str"/>
-      <c r="E86" s="12" t="str"/>
-      <c r="F86" s="12" t="str"/>
-      <c r="G86" s="12" t="str"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="20">
+      <c r="C86" s="4" t="str"/>
+      <c r="D86" s="4" t="str"/>
+      <c r="E86" s="4" t="str"/>
+      <c r="F86" s="4" t="str"/>
+      <c r="G86" s="4" t="str"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="22">
         <v>184562</v>
       </c>
       <c r="L86" s="21"/>
       <c r="M86" s="21"/>
-      <c r="N86" s="13"/>
-      <c r="O86" s="13"/>
-      <c r="P86" s="13"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
     </row>
     <row customHeight="true" ht="23" r="87">
-      <c r="A87" s="12">
+      <c r="A87" s="4">
         <v>60002</v>
       </c>
-      <c r="B87" s="12" t="str">
+      <c r="B87" s="4" t="str">
         <v>近战消灭特效</v>
       </c>
-      <c r="C87" s="12" t="str"/>
-      <c r="D87" s="12" t="str"/>
-      <c r="E87" s="12" t="str"/>
-      <c r="F87" s="12" t="str"/>
-      <c r="G87" s="12" t="str"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="14">
+      <c r="C87" s="4" t="str"/>
+      <c r="D87" s="4" t="str"/>
+      <c r="E87" s="4" t="str"/>
+      <c r="F87" s="4" t="str"/>
+      <c r="G87" s="4" t="str"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="6">
         <v>130642</v>
       </c>
-      <c r="L87" s="12"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13" t="str">
+      <c r="L87" s="4"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5" t="str">
         <v>0|0|-50</v>
       </c>
-      <c r="O87" s="13" t="str">
+      <c r="O87" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="P87" s="13"/>
+      <c r="P87" s="5"/>
     </row>
     <row customHeight="true" ht="23" r="88">
-      <c r="A88" s="12">
+      <c r="A88" s="4">
         <v>60003</v>
       </c>
-      <c r="B88" s="12" t="str">
+      <c r="B88" s="4" t="str">
         <v>远程消灭特效(枪和飞刀)</v>
       </c>
-      <c r="C88" s="12" t="str"/>
-      <c r="D88" s="12" t="str"/>
-      <c r="E88" s="12" t="str"/>
-      <c r="F88" s="12" t="str"/>
-      <c r="G88" s="12" t="str"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="14">
+      <c r="C88" s="4" t="str"/>
+      <c r="D88" s="4" t="str"/>
+      <c r="E88" s="4" t="str"/>
+      <c r="F88" s="4" t="str"/>
+      <c r="G88" s="4" t="str"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="6">
         <v>61006</v>
       </c>
-      <c r="L88" s="12"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13" t="str">
+      <c r="L88" s="4"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5" t="str">
         <v>0|0|20</v>
       </c>
-      <c r="O88" s="13" t="str">
+      <c r="O88" s="5" t="str">
         <v>1.3|1.3|1.3</v>
       </c>
-      <c r="P88" s="13"/>
+      <c r="P88" s="5"/>
     </row>
     <row customHeight="true" ht="23" r="89">
-      <c r="A89" s="12">
+      <c r="A89" s="4">
         <v>60004</v>
       </c>
-      <c r="B89" s="12" t="str">
+      <c r="B89" s="4" t="str">
         <v>灵魂特效</v>
       </c>
-      <c r="C89" s="12" t="str"/>
-      <c r="D89" s="12" t="str"/>
-      <c r="E89" s="12">
+      <c r="C89" s="4" t="str"/>
+      <c r="D89" s="4" t="str"/>
+      <c r="E89" s="4">
         <v>20</v>
       </c>
-      <c r="F89" s="12" t="str"/>
-      <c r="G89" s="12" t="str"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="13"/>
-      <c r="N89" s="13" t="str">
+      <c r="F89" s="4" t="str"/>
+      <c r="G89" s="4" t="str"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5" t="str">
         <v>0|0|20</v>
       </c>
-      <c r="O89" s="13" t="str">
+      <c r="O89" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="P89" s="13"/>
+      <c r="P89" s="5"/>
     </row>
     <row customHeight="true" ht="23" r="90">
-      <c r="A90" s="2">
+      <c r="A90" s="3">
         <v>60005</v>
       </c>
-      <c r="B90" s="2" t="str">
+      <c r="B90" s="3" t="str">
         <v>击杀震屏xy轴幅度</v>
       </c>
-      <c r="C90" s="2" t="str"/>
-      <c r="D90" s="2" t="str"/>
-      <c r="E90" s="2" t="str"/>
-      <c r="F90" s="6">
+      <c r="C90" s="3" t="str"/>
+      <c r="D90" s="3" t="str"/>
+      <c r="E90" s="3" t="str"/>
+      <c r="F90" s="10">
         <v>-30</v>
       </c>
-      <c r="G90" s="2" t="str"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
+      <c r="G90" s="3" t="str"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
     </row>
     <row customHeight="true" ht="23" r="91">
-      <c r="A91" s="2">
+      <c r="A91" s="3">
         <v>60006</v>
       </c>
-      <c r="B91" s="2" t="str">
+      <c r="B91" s="3" t="str">
         <v>击杀震屏xy轴频率</v>
       </c>
-      <c r="C91" s="2" t="str"/>
-      <c r="D91" s="2" t="str"/>
-      <c r="E91" s="2" t="str"/>
-      <c r="F91" s="6">
+      <c r="C91" s="3" t="str"/>
+      <c r="D91" s="3" t="str"/>
+      <c r="E91" s="3" t="str"/>
+      <c r="F91" s="10">
         <v>20</v>
       </c>
-      <c r="G91" s="2" t="str"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="5"/>
-      <c r="P91" s="5"/>
+      <c r="G91" s="3" t="str"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
     </row>
     <row customHeight="true" ht="23" r="92">
-      <c r="A92" s="2">
+      <c r="A92" s="3">
         <v>60007</v>
       </c>
-      <c r="B92" s="2" t="str">
+      <c r="B92" s="3" t="str">
         <v>击杀震屏内置CD</v>
       </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2">
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3">
         <v>2</v>
       </c>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
-      <c r="P92" s="5"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="9"/>
     </row>
     <row customHeight="true" ht="23" r="93">
-      <c r="A93" s="2">
+      <c r="A93" s="3">
         <v>60008</v>
       </c>
-      <c r="B93" s="2" t="str">
+      <c r="B93" s="3" t="str">
         <v>死亡震屏roll轴幅度</v>
       </c>
-      <c r="C93" s="2" t="str"/>
-      <c r="D93" s="2" t="str"/>
-      <c r="E93" s="2" t="str"/>
-      <c r="F93" s="6">
+      <c r="C93" s="3" t="str"/>
+      <c r="D93" s="3" t="str"/>
+      <c r="E93" s="3" t="str"/>
+      <c r="F93" s="10">
         <v>8</v>
       </c>
-      <c r="G93" s="2" t="str"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
+      <c r="G93" s="3" t="str"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
     </row>
     <row customHeight="true" ht="23" r="94">
-      <c r="A94" s="2">
+      <c r="A94" s="3">
         <v>60009</v>
       </c>
-      <c r="B94" s="2" t="str">
+      <c r="B94" s="3" t="str">
         <v>死亡震屏roll轴频率</v>
       </c>
-      <c r="C94" s="2" t="str"/>
-      <c r="D94" s="2" t="str"/>
-      <c r="E94" s="2" t="str"/>
-      <c r="F94" s="6">
+      <c r="C94" s="3" t="str"/>
+      <c r="D94" s="3" t="str"/>
+      <c r="E94" s="3" t="str"/>
+      <c r="F94" s="10">
         <v>20</v>
       </c>
-      <c r="G94" s="2" t="str"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5"/>
-      <c r="P94" s="5"/>
+      <c r="G94" s="3" t="str"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
     </row>
     <row customHeight="true" ht="23" r="95">
-      <c r="A95" s="15">
+      <c r="A95" s="14">
         <v>60010</v>
       </c>
-      <c r="B95" s="15" t="str">
+      <c r="B95" s="14" t="str">
         <v>消灭UI持续时间</v>
       </c>
-      <c r="C95" s="15" t="str"/>
-      <c r="D95" s="15" t="str"/>
-      <c r="E95" s="15">
+      <c r="C95" s="14" t="str"/>
+      <c r="D95" s="14" t="str"/>
+      <c r="E95" s="14">
         <v>0.5</v>
       </c>
-      <c r="F95" s="15" t="str"/>
-      <c r="G95" s="15" t="str"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="15"/>
-      <c r="L95" s="15"/>
-      <c r="M95" s="16"/>
-      <c r="N95" s="16"/>
-      <c r="O95" s="16"/>
-      <c r="P95" s="16"/>
+      <c r="F95" s="14" t="str"/>
+      <c r="G95" s="14" t="str"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="13"/>
+      <c r="O95" s="13"/>
+      <c r="P95" s="13"/>
     </row>
     <row customHeight="true" ht="23" r="96">
-      <c r="A96" s="15">
+      <c r="A96" s="14">
         <v>60011</v>
       </c>
-      <c r="B96" s="15" t="str">
+      <c r="B96" s="14" t="str">
         <v>消灭UI上升距离</v>
       </c>
-      <c r="C96" s="15" t="str"/>
-      <c r="D96" s="15" t="str"/>
-      <c r="E96" s="15" t="str"/>
-      <c r="F96" s="15">
+      <c r="C96" s="14" t="str"/>
+      <c r="D96" s="14" t="str"/>
+      <c r="E96" s="14" t="str"/>
+      <c r="F96" s="14">
         <v>250</v>
       </c>
-      <c r="G96" s="15" t="str"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="15"/>
-      <c r="L96" s="15"/>
-      <c r="M96" s="16"/>
-      <c r="N96" s="16"/>
-      <c r="O96" s="16"/>
-      <c r="P96" s="16"/>
+      <c r="G96" s="14" t="str"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="13"/>
+      <c r="O96" s="13"/>
+      <c r="P96" s="13"/>
     </row>
     <row customHeight="true" ht="23" r="97">
-      <c r="A97" s="15">
+      <c r="A97" s="14">
         <v>60012</v>
       </c>
-      <c r="B97" s="15" t="str">
+      <c r="B97" s="14" t="str">
         <v>消灭UI偏移x</v>
       </c>
-      <c r="C97" s="15" t="str"/>
-      <c r="D97" s="15">
+      <c r="C97" s="14" t="str"/>
+      <c r="D97" s="14">
         <v>-100</v>
       </c>
-      <c r="E97" s="15" t="str"/>
-      <c r="F97" s="15" t="str"/>
-      <c r="G97" s="15" t="str"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="15"/>
-      <c r="L97" s="15"/>
-      <c r="M97" s="16"/>
-      <c r="N97" s="16"/>
-      <c r="O97" s="16"/>
-      <c r="P97" s="16"/>
+      <c r="E97" s="14" t="str"/>
+      <c r="F97" s="14" t="str"/>
+      <c r="G97" s="14" t="str"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="13"/>
+      <c r="N97" s="13"/>
+      <c r="O97" s="13"/>
+      <c r="P97" s="13"/>
     </row>
     <row customHeight="true" ht="23" r="98">
-      <c r="A98" s="15">
+      <c r="A98" s="14">
         <v>60013</v>
       </c>
-      <c r="B98" s="15" t="str">
+      <c r="B98" s="14" t="str">
         <v>消灭UI偏移y</v>
       </c>
-      <c r="C98" s="15" t="str"/>
-      <c r="D98" s="15">
+      <c r="C98" s="14" t="str"/>
+      <c r="D98" s="14">
         <v>-40</v>
       </c>
-      <c r="E98" s="15" t="str"/>
-      <c r="F98" s="15" t="str"/>
-      <c r="G98" s="15" t="str"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="15"/>
-      <c r="L98" s="15"/>
-      <c r="M98" s="16"/>
-      <c r="N98" s="16"/>
-      <c r="O98" s="16"/>
-      <c r="P98" s="16"/>
+      <c r="E98" s="14" t="str"/>
+      <c r="F98" s="14" t="str"/>
+      <c r="G98" s="14" t="str"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
+      <c r="K98" s="14"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="13"/>
+      <c r="O98" s="13"/>
+      <c r="P98" s="13"/>
     </row>
     <row customHeight="true" ht="23" r="99">
-      <c r="A99" s="10">
+      <c r="A99" s="18">
         <v>60014</v>
       </c>
-      <c r="B99" s="10" t="str">
+      <c r="B99" s="18" t="str">
         <v>终结击杀彩带特效</v>
       </c>
-      <c r="C99" s="10" t="str"/>
-      <c r="D99" s="10" t="str"/>
-      <c r="E99" s="10" t="str"/>
-      <c r="F99" s="10" t="str"/>
-      <c r="G99" s="10" t="str"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
-      <c r="K99" s="10">
+      <c r="C99" s="18" t="str"/>
+      <c r="D99" s="18" t="str"/>
+      <c r="E99" s="18" t="str"/>
+      <c r="F99" s="18" t="str"/>
+      <c r="G99" s="18" t="str"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="18">
         <v>73404</v>
       </c>
-      <c r="L99" s="10"/>
-      <c r="M99" s="11"/>
-      <c r="N99" s="11" t="str">
+      <c r="L99" s="18"/>
+      <c r="M99" s="20"/>
+      <c r="N99" s="20" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O99" s="11" t="str">
+      <c r="O99" s="20" t="str">
         <v>1.25|1.25|1.25</v>
       </c>
-      <c r="P99" s="11"/>
+      <c r="P99" s="20"/>
     </row>
     <row customHeight="true" ht="23" r="100">
-      <c r="A100" s="10">
+      <c r="A100" s="18">
         <v>60015</v>
       </c>
-      <c r="B100" s="10" t="str">
+      <c r="B100" s="18" t="str">
         <v>警察打错自身特效</v>
       </c>
-      <c r="C100" s="10" t="str"/>
-      <c r="D100" s="10" t="str"/>
-      <c r="E100" s="10" t="str"/>
-      <c r="F100" s="10" t="str"/>
-      <c r="G100" s="10" t="str"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="22">
+      <c r="C100" s="18" t="str"/>
+      <c r="D100" s="18" t="str"/>
+      <c r="E100" s="18" t="str"/>
+      <c r="F100" s="18" t="str"/>
+      <c r="G100" s="18" t="str"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="19">
         <v>27421</v>
       </c>
-      <c r="L100" s="10"/>
-      <c r="M100" s="11"/>
-      <c r="N100" s="11" t="str">
+      <c r="L100" s="18"/>
+      <c r="M100" s="20"/>
+      <c r="N100" s="20" t="str">
         <v>0|0|20</v>
       </c>
-      <c r="O100" s="11" t="str">
+      <c r="O100" s="20" t="str">
         <v>1.3|1.3|1.3</v>
       </c>
-      <c r="P100" s="11"/>
+      <c r="P100" s="20"/>
     </row>
     <row customHeight="true" ht="23" r="101">
-      <c r="A101" s="17">
+      <c r="A101" s="11">
         <v>60016</v>
       </c>
-      <c r="B101" s="17" t="str">
+      <c r="B101" s="11" t="str">
         <v>挥刀随即动作数组</v>
       </c>
-      <c r="C101" s="17" t="str"/>
-      <c r="D101" s="17" t="str"/>
-      <c r="E101" s="17" t="str"/>
-      <c r="F101" s="17" t="str"/>
-      <c r="G101" s="17" t="str"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="17"/>
-      <c r="M101" s="18"/>
-      <c r="N101" s="18"/>
-      <c r="O101" s="18"/>
-      <c r="P101" s="18" t="str">
+      <c r="C101" s="11" t="str"/>
+      <c r="D101" s="11" t="str"/>
+      <c r="E101" s="11" t="str"/>
+      <c r="F101" s="11" t="str"/>
+      <c r="G101" s="11" t="str"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="12" t="str">
         <v>146118|146118</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="102">
-      <c r="A102" s="17">
+      <c r="A102" s="11">
         <v>60017</v>
       </c>
-      <c r="B102" s="17" t="str">
+      <c r="B102" s="11" t="str">
         <v>弹孔特效</v>
       </c>
-      <c r="C102" s="17" t="str"/>
-      <c r="D102" s="17" t="str"/>
-      <c r="E102" s="17" t="str"/>
-      <c r="F102" s="17" t="str"/>
-      <c r="G102" s="17" t="str"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
+      <c r="C102" s="11" t="str"/>
+      <c r="D102" s="11" t="str"/>
+      <c r="E102" s="11" t="str"/>
+      <c r="F102" s="11" t="str"/>
+      <c r="G102" s="11" t="str"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
       <c r="K102" s="23">
         <v>98962</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="18" t="str">
+      <c r="L102" s="11"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O102" s="18" t="str">
+      <c r="O102" s="12" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="P102" s="18"/>
+      <c r="P102" s="12"/>
     </row>
     <row customHeight="true" ht="23" r="103">
       <c r="A103" s="1">
@@ -3353,52 +3220,52 @@
       <c r="L105" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="106">
-      <c r="A106" s="7">
+      <c r="A106" s="17">
         <v>60021</v>
       </c>
-      <c r="B106" s="7" t="str">
+      <c r="B106" s="17" t="str">
         <v>弹道特效xy轴缩放</v>
       </c>
-      <c r="C106" s="7" t="str"/>
-      <c r="D106" s="7" t="str"/>
-      <c r="E106" s="7" t="str"/>
-      <c r="F106" s="7">
+      <c r="C106" s="17" t="str"/>
+      <c r="D106" s="17" t="str"/>
+      <c r="E106" s="17" t="str"/>
+      <c r="F106" s="17">
         <v>0.03</v>
       </c>
-      <c r="G106" s="7" t="str"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="7"/>
-      <c r="L106" s="7"/>
-      <c r="M106" s="8"/>
-      <c r="N106" s="8"/>
-      <c r="O106" s="8"/>
-      <c r="P106" s="8"/>
+      <c r="G106" s="17" t="str"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
+      <c r="M106" s="16"/>
+      <c r="N106" s="16"/>
+      <c r="O106" s="16"/>
+      <c r="P106" s="16"/>
     </row>
     <row customHeight="true" ht="23" r="107">
-      <c r="A107" s="7">
+      <c r="A107" s="17">
         <v>60022</v>
       </c>
-      <c r="B107" s="7" t="str">
+      <c r="B107" s="17" t="str">
         <v>弹道特效持续时间</v>
       </c>
-      <c r="C107" s="7" t="str"/>
-      <c r="D107" s="7" t="str"/>
-      <c r="E107" s="7">
+      <c r="C107" s="17" t="str"/>
+      <c r="D107" s="17" t="str"/>
+      <c r="E107" s="17">
         <v>0.3</v>
       </c>
-      <c r="F107" s="7" t="str"/>
-      <c r="G107" s="7" t="str"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
-      <c r="L107" s="7"/>
-      <c r="M107" s="8"/>
-      <c r="N107" s="8"/>
-      <c r="O107" s="8"/>
-      <c r="P107" s="8"/>
+      <c r="F107" s="17" t="str"/>
+      <c r="G107" s="17" t="str"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="16"/>
+      <c r="N107" s="16"/>
+      <c r="O107" s="16"/>
+      <c r="P107" s="16"/>
     </row>
     <row customHeight="true" ht="23" r="108">
       <c r="A108" s="1">
@@ -3459,10 +3326,10 @@
         <v>113907</v>
       </c>
       <c r="L110" s="1"/>
-      <c r="N110" s="3" t="str">
+      <c r="N110" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O110" s="3" t="str">
+      <c r="O110" s="2" t="str">
         <v>1|1|1</v>
       </c>
     </row>
